--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9855173450072365</v>
+        <v>0.9855173450072385</v>
       </c>
       <c r="D2">
-        <v>1.007878318454136</v>
+        <v>1.007878318454138</v>
       </c>
       <c r="E2">
-        <v>0.9937941657816172</v>
+        <v>0.9937941657816193</v>
       </c>
       <c r="F2">
-        <v>1.004499632126958</v>
+        <v>1.004499632126959</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040822131969275</v>
+        <v>1.040822131969277</v>
       </c>
       <c r="J2">
-        <v>1.008140030278831</v>
+        <v>1.008140030278832</v>
       </c>
       <c r="K2">
-        <v>1.019228976182033</v>
+        <v>1.019228976182035</v>
       </c>
       <c r="L2">
-        <v>1.005340640195562</v>
+        <v>1.005340640195564</v>
       </c>
       <c r="M2">
-        <v>1.015896633859678</v>
+        <v>1.01589663385968</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9963493171170862</v>
+        <v>0.9963493171170839</v>
       </c>
       <c r="D3">
-        <v>1.016424848408403</v>
+        <v>1.016424848408401</v>
       </c>
       <c r="E3">
-        <v>1.004066153968675</v>
+        <v>1.004066153968673</v>
       </c>
       <c r="F3">
-        <v>1.014374141005824</v>
+        <v>1.014374141005822</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.044925925932169</v>
       </c>
       <c r="J3">
-        <v>1.01694000060681</v>
+        <v>1.016940000606808</v>
       </c>
       <c r="K3">
-        <v>1.026851796606188</v>
+        <v>1.026851796606186</v>
       </c>
       <c r="L3">
-        <v>1.014647270633114</v>
+        <v>1.014647270633112</v>
       </c>
       <c r="M3">
-        <v>1.024826347136871</v>
+        <v>1.024826347136869</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003044039226633</v>
+        <v>1.003044039226632</v>
       </c>
       <c r="D4">
-        <v>1.021710939612837</v>
+        <v>1.021710939612836</v>
       </c>
       <c r="E4">
-        <v>1.010420850170637</v>
+        <v>1.010420850170635</v>
       </c>
       <c r="F4">
-        <v>1.020489538126697</v>
+        <v>1.020489538126695</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047445350195199</v>
+        <v>1.047445350195198</v>
       </c>
       <c r="J4">
-        <v>1.022370197398459</v>
+        <v>1.022370197398458</v>
       </c>
       <c r="K4">
-        <v>1.031554208276676</v>
+        <v>1.031554208276675</v>
       </c>
       <c r="L4">
-        <v>1.020395110870319</v>
+        <v>1.020395110870317</v>
       </c>
       <c r="M4">
-        <v>1.030346805339847</v>
+        <v>1.030346805339845</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -556,7 +556,7 @@
         <v>1.024594948392183</v>
       </c>
       <c r="K5">
-        <v>1.033480392634922</v>
+        <v>1.033480392634923</v>
       </c>
       <c r="L5">
         <v>1.022751194465434</v>
@@ -576,13 +576,13 @@
         <v>1.006246620268207</v>
       </c>
       <c r="D6">
-        <v>1.024240551585992</v>
+        <v>1.024240551585991</v>
       </c>
       <c r="E6">
-        <v>1.013462411436969</v>
+        <v>1.013462411436968</v>
       </c>
       <c r="F6">
-        <v>1.02341836560171</v>
+        <v>1.023418365601709</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.048645479779708</v>
       </c>
       <c r="J6">
-        <v>1.02496522211028</v>
+        <v>1.024965222110279</v>
       </c>
       <c r="K6">
         <v>1.033800950074857</v>
@@ -600,7 +600,7 @@
         <v>1.023143396529104</v>
       </c>
       <c r="M6">
-        <v>1.032987852734068</v>
+        <v>1.032987852734067</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003080987875674</v>
+        <v>1.003080987875675</v>
       </c>
       <c r="D7">
-        <v>1.021740121069479</v>
+        <v>1.02174012106948</v>
       </c>
       <c r="E7">
-        <v>1.010455935057241</v>
+        <v>1.010455935057242</v>
       </c>
       <c r="F7">
         <v>1.020523315933005</v>
@@ -629,16 +629,16 @@
         <v>1.047459215748328</v>
       </c>
       <c r="J7">
-        <v>1.022400146713872</v>
+        <v>1.022400146713873</v>
       </c>
       <c r="K7">
-        <v>1.031580139959248</v>
+        <v>1.031580139959249</v>
       </c>
       <c r="L7">
         <v>1.020426823431565</v>
       </c>
       <c r="M7">
-        <v>1.030377274970939</v>
+        <v>1.03037727497094</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9892471892126672</v>
+        <v>0.9892471892126639</v>
       </c>
       <c r="D8">
-        <v>1.010820233416993</v>
+        <v>1.010820233416991</v>
       </c>
       <c r="E8">
-        <v>0.9973298139374293</v>
+        <v>0.9973298139374259</v>
       </c>
       <c r="F8">
-        <v>1.007896986883679</v>
+        <v>1.007896986883676</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042238768976312</v>
+        <v>1.04223876897631</v>
       </c>
       <c r="J8">
-        <v>1.011171973150616</v>
+        <v>1.011171973150612</v>
       </c>
       <c r="K8">
-        <v>1.021855605660781</v>
+        <v>1.021855605660778</v>
       </c>
       <c r="L8">
-        <v>1.008546076488003</v>
+        <v>1.008546076488</v>
       </c>
       <c r="M8">
-        <v>1.018971040529258</v>
+        <v>1.018971040529255</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9621260867713136</v>
+        <v>0.962126086771312</v>
       </c>
       <c r="D9">
-        <v>0.9894565094671183</v>
+        <v>0.9894565094671168</v>
       </c>
       <c r="E9">
-        <v>0.971653979225311</v>
+        <v>0.9716539792253095</v>
       </c>
       <c r="F9">
-        <v>0.9832605614669976</v>
+        <v>0.9832605614669956</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03186682878842</v>
+        <v>1.031866828788419</v>
       </c>
       <c r="J9">
-        <v>0.9890910049648136</v>
+        <v>0.9890910049648118</v>
       </c>
       <c r="K9">
-        <v>1.002722995494508</v>
+        <v>1.002722995494506</v>
       </c>
       <c r="L9">
-        <v>0.9852243259626356</v>
+        <v>0.9852243259626342</v>
       </c>
       <c r="M9">
-        <v>0.9966311912327532</v>
+        <v>0.9966311912327515</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C10">
-        <v>0.9416103476294131</v>
+        <v>0.9416103476294148</v>
       </c>
       <c r="D10">
-        <v>0.9733479074282846</v>
+        <v>0.973347907428286</v>
       </c>
       <c r="E10">
-        <v>0.9522837030831215</v>
+        <v>0.9522837030831232</v>
       </c>
       <c r="F10">
-        <v>0.9647285209825669</v>
+        <v>0.9647285209825682</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023934736398289</v>
       </c>
       <c r="J10">
-        <v>0.9723487095695197</v>
+        <v>0.9723487095695212</v>
       </c>
       <c r="K10">
-        <v>0.9882156453018842</v>
+        <v>0.9882156453018854</v>
       </c>
       <c r="L10">
-        <v>0.9675714636770754</v>
+        <v>0.9675714636770771</v>
       </c>
       <c r="M10">
-        <v>0.9797652169809297</v>
+        <v>0.979765216980931</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9319685339127773</v>
+        <v>0.9319685339127809</v>
       </c>
       <c r="D11">
-        <v>0.9657959563931989</v>
+        <v>0.9657959563932021</v>
       </c>
       <c r="E11">
-        <v>0.9431963092668759</v>
+        <v>0.9431963092668791</v>
       </c>
       <c r="F11">
-        <v>0.9560506590019897</v>
+        <v>0.956050659001993</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020188907611027</v>
+        <v>1.020188907611028</v>
       </c>
       <c r="J11">
-        <v>0.9644734430576297</v>
+        <v>0.9644734430576331</v>
       </c>
       <c r="K11">
-        <v>0.9813930823302649</v>
+        <v>0.9813930823302681</v>
       </c>
       <c r="L11">
-        <v>0.9592753156102141</v>
+        <v>0.9592753156102174</v>
       </c>
       <c r="M11">
-        <v>0.9718518790514131</v>
+        <v>0.9718518790514166</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282525548491368</v>
+        <v>0.9282525548491348</v>
       </c>
       <c r="D12">
-        <v>0.9628888975559228</v>
+        <v>0.9628888975559212</v>
       </c>
       <c r="E12">
-        <v>0.9396968227742893</v>
+        <v>0.9396968227742875</v>
       </c>
       <c r="F12">
-        <v>0.9527116972621199</v>
+        <v>0.952711697262118</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018742843081042</v>
+        <v>1.018742843081041</v>
       </c>
       <c r="J12">
-        <v>0.961437545717883</v>
+        <v>0.961437545717881</v>
       </c>
       <c r="K12">
-        <v>0.9787633817634341</v>
+        <v>0.9787633817634326</v>
       </c>
       <c r="L12">
-        <v>0.9560783092181961</v>
+        <v>0.9560783092181944</v>
       </c>
       <c r="M12">
-        <v>0.9688046290255236</v>
+        <v>0.9688046290255218</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290561294229093</v>
+        <v>0.9290561294229112</v>
       </c>
       <c r="D13">
-        <v>0.9635173751053133</v>
+        <v>0.9635173751053151</v>
       </c>
       <c r="E13">
-        <v>0.9404534469213147</v>
+        <v>0.9404534469213167</v>
       </c>
       <c r="F13">
-        <v>0.953433480682318</v>
+        <v>0.9534334806823195</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019055655465088</v>
+        <v>1.019055655465089</v>
       </c>
       <c r="J13">
-        <v>0.9620940821372348</v>
+        <v>0.9620940821372368</v>
       </c>
       <c r="K13">
-        <v>0.9793320547113972</v>
+        <v>0.9793320547113988</v>
       </c>
       <c r="L13">
-        <v>0.9567696350204817</v>
+        <v>0.9567696350204837</v>
       </c>
       <c r="M13">
-        <v>0.9694634654003537</v>
+        <v>0.9694634654003551</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9316642551905309</v>
+        <v>0.9316642551905306</v>
       </c>
       <c r="D14">
-        <v>0.9655578405544007</v>
+        <v>0.9655578405544005</v>
       </c>
       <c r="E14">
-        <v>0.942909698375</v>
+        <v>0.9429096983749997</v>
       </c>
       <c r="F14">
-        <v>0.9557771360051271</v>
+        <v>0.9557771360051274</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020070544996341</v>
+        <v>1.02007054499634</v>
       </c>
       <c r="J14">
-        <v>0.9642248652960154</v>
+        <v>0.964224865296015</v>
       </c>
       <c r="K14">
         <v>0.9811777549753341</v>
       </c>
       <c r="L14">
-        <v>0.9590135232041159</v>
+        <v>0.9590135232041157</v>
       </c>
       <c r="M14">
-        <v>0.9716023027844507</v>
+        <v>0.9716023027844509</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332526602875938</v>
+        <v>0.9332526602875929</v>
       </c>
       <c r="D15">
-        <v>0.9668010049998431</v>
+        <v>0.9668010049998418</v>
       </c>
       <c r="E15">
-        <v>0.9444059895758283</v>
+        <v>0.9444059895758273</v>
       </c>
       <c r="F15">
-        <v>0.9572052161335604</v>
+        <v>0.9572052161335594</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020688329704968</v>
+        <v>1.020688329704967</v>
       </c>
       <c r="J15">
-        <v>0.965522470138003</v>
+        <v>0.9655224701380019</v>
       </c>
       <c r="K15">
-        <v>0.9823018053093149</v>
+        <v>0.9823018053093134</v>
       </c>
       <c r="L15">
-        <v>0.9603801561406022</v>
+        <v>0.9603801561406016</v>
       </c>
       <c r="M15">
-        <v>0.9729052559404719</v>
+        <v>0.9729052559404708</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9422326261177818</v>
+        <v>0.9422326261177786</v>
       </c>
       <c r="D16">
-        <v>0.9738357393765623</v>
+        <v>0.9738357393765593</v>
       </c>
       <c r="E16">
-        <v>0.9528705580478624</v>
+        <v>0.952870558047859</v>
       </c>
       <c r="F16">
-        <v>0.9652892892467738</v>
+        <v>0.9652892892467708</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024176147062954</v>
+        <v>1.024176147062952</v>
       </c>
       <c r="J16">
-        <v>0.9728568578277136</v>
+        <v>0.9728568578277106</v>
       </c>
       <c r="K16">
-        <v>0.9886559104153442</v>
+        <v>0.9886559104153413</v>
       </c>
       <c r="L16">
-        <v>0.9681069222042905</v>
+        <v>0.9681069222042875</v>
       </c>
       <c r="M16">
-        <v>0.9802762544708868</v>
+        <v>0.9802762544708841</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.947649546573699</v>
+        <v>0.9476495465737044</v>
       </c>
       <c r="D17">
-        <v>0.9780844281467482</v>
+        <v>0.9780844281467528</v>
       </c>
       <c r="E17">
-        <v>0.9579809316788948</v>
+        <v>0.9579809316789002</v>
       </c>
       <c r="F17">
-        <v>0.9701743330774679</v>
+        <v>0.9701743330774724</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026275663087592</v>
+        <v>1.026275663087595</v>
       </c>
       <c r="J17">
-        <v>0.9772795443306547</v>
+        <v>0.9772795443306596</v>
       </c>
       <c r="K17">
-        <v>0.9924879471248438</v>
+        <v>0.9924879471248483</v>
       </c>
       <c r="L17">
-        <v>0.9727681276268887</v>
+        <v>0.9727681276268937</v>
       </c>
       <c r="M17">
-        <v>0.9847263362016597</v>
+        <v>0.9847263362016643</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9507376148496715</v>
+        <v>0.9507376148496691</v>
       </c>
       <c r="D18">
-        <v>0.9805081735289163</v>
+        <v>0.9805081735289142</v>
       </c>
       <c r="E18">
-        <v>0.9608956911535936</v>
+        <v>0.9608956911535913</v>
       </c>
       <c r="F18">
-        <v>0.972962041841028</v>
+        <v>0.9729620418410257</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027470881511438</v>
+        <v>1.027470881511437</v>
       </c>
       <c r="J18">
-        <v>0.9798001709680227</v>
+        <v>0.9798001709680205</v>
       </c>
       <c r="K18">
-        <v>0.9946720629193959</v>
+        <v>0.994672062919394</v>
       </c>
       <c r="L18">
-        <v>0.9754253736725221</v>
+        <v>0.97542537367252</v>
       </c>
       <c r="M18">
-        <v>0.9872643983915668</v>
+        <v>0.9872643983915645</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9517789749591344</v>
+        <v>0.9517789749591333</v>
       </c>
       <c r="D19">
-        <v>0.9813257746679113</v>
+        <v>0.9813257746679103</v>
       </c>
       <c r="E19">
-        <v>0.96187884328272</v>
+        <v>0.9618788432827193</v>
       </c>
       <c r="F19">
-        <v>0.9739025793402415</v>
+        <v>0.9739025793402402</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027873643163142</v>
       </c>
       <c r="J19">
-        <v>0.9806500607016401</v>
+        <v>0.980650060701639</v>
       </c>
       <c r="K19">
-        <v>0.9954085058163687</v>
+        <v>0.9954085058163675</v>
       </c>
       <c r="L19">
-        <v>0.9763214426825028</v>
+        <v>0.9763214426825018</v>
       </c>
       <c r="M19">
-        <v>0.988120468347316</v>
+        <v>0.988120468347315</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9470758928204219</v>
+        <v>0.9470758928204276</v>
       </c>
       <c r="D20">
-        <v>0.977634313019932</v>
+        <v>0.9776343130199369</v>
       </c>
       <c r="E20">
-        <v>0.9574395878830619</v>
+        <v>0.9574395878830672</v>
       </c>
       <c r="F20">
-        <v>0.9696567030250361</v>
+        <v>0.9696567030250418</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026053496064843</v>
+        <v>1.026053496064846</v>
       </c>
       <c r="J20">
-        <v>0.9768112464457946</v>
+        <v>0.9768112464458002</v>
       </c>
       <c r="K20">
-        <v>0.9920821769687513</v>
+        <v>0.9920821769687563</v>
       </c>
       <c r="L20">
-        <v>0.9722745029608498</v>
+        <v>0.9722745029608552</v>
       </c>
       <c r="M20">
-        <v>0.9842549455244389</v>
+        <v>0.9842549455244441</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9309001367248014</v>
+        <v>0.9309001367248018</v>
       </c>
       <c r="D21">
-        <v>0.9649599316218911</v>
+        <v>0.9649599316218914</v>
       </c>
       <c r="E21">
         <v>0.9421899947838268</v>
       </c>
       <c r="F21">
-        <v>0.9550903437010494</v>
+        <v>0.9550903437010495</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019773269940217</v>
       </c>
       <c r="J21">
-        <v>0.9636006146818993</v>
+        <v>0.9636006146818994</v>
       </c>
       <c r="K21">
-        <v>0.9806370124878543</v>
+        <v>0.9806370124878545</v>
       </c>
       <c r="L21">
-        <v>0.9583561051228381</v>
+        <v>0.958356105122838</v>
       </c>
       <c r="M21">
-        <v>0.9709755989699315</v>
+        <v>0.9709755989699318</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9199362708282055</v>
+        <v>0.9199362708282062</v>
       </c>
       <c r="D22">
-        <v>0.9563903571644108</v>
+        <v>0.9563903571644112</v>
       </c>
       <c r="E22">
-        <v>0.9318708309731436</v>
+        <v>0.9318708309731442</v>
       </c>
       <c r="F22">
-        <v>0.9452504316103623</v>
+        <v>0.9452504316103628</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.01550247837775</v>
       </c>
       <c r="J22">
-        <v>0.9546422618954641</v>
+        <v>0.9546422618954645</v>
       </c>
       <c r="K22">
-        <v>0.9728782261243122</v>
+        <v>0.9728782261243126</v>
       </c>
       <c r="L22">
-        <v>0.9489245645116382</v>
+        <v>0.9489245645116389</v>
       </c>
       <c r="M22">
-        <v>0.9619905264279612</v>
+        <v>0.9619905264279619</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258321570952447</v>
+        <v>0.9258321570952431</v>
       </c>
       <c r="D23">
-        <v>0.9609964716553973</v>
+        <v>0.9609964716553957</v>
       </c>
       <c r="E23">
-        <v>0.9374182915429683</v>
+        <v>0.9374182915429664</v>
       </c>
       <c r="F23">
-        <v>0.9505385339758965</v>
+        <v>0.9505385339758952</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01780031242528</v>
+        <v>1.017800312425279</v>
       </c>
       <c r="J23">
-        <v>0.9594599487420599</v>
+        <v>0.9594599487420583</v>
       </c>
       <c r="K23">
-        <v>0.977050515294842</v>
+        <v>0.9770505152948408</v>
       </c>
       <c r="L23">
-        <v>0.9539960900561277</v>
+        <v>0.9539960900561261</v>
       </c>
       <c r="M23">
-        <v>0.9668206192363507</v>
+        <v>0.9668206192363492</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,19 +1254,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>0.9473353218074453</v>
+        <v>0.9473353218074445</v>
       </c>
       <c r="D24">
-        <v>0.9778378678058401</v>
+        <v>0.9778378678058394</v>
       </c>
       <c r="E24">
-        <v>0.9576844005394415</v>
+        <v>0.9576844005394404</v>
       </c>
       <c r="F24">
-        <v>0.9698907870271147</v>
+        <v>0.969890787027114</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026153974037074</v>
       </c>
       <c r="J24">
-        <v>0.9770230313783048</v>
+        <v>0.9770230313783037</v>
       </c>
       <c r="K24">
-        <v>0.9922656837488552</v>
+        <v>0.9922656837488544</v>
       </c>
       <c r="L24">
-        <v>0.9724977396591756</v>
+        <v>0.9724977396591744</v>
       </c>
       <c r="M24">
-        <v>0.984468123489564</v>
+        <v>0.9844681234895634</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9695160721412337</v>
+        <v>0.9695160721412374</v>
       </c>
       <c r="D25">
-        <v>0.9952707748826429</v>
+        <v>0.9952707748826463</v>
       </c>
       <c r="E25">
-        <v>0.9786424810598918</v>
+        <v>0.9786424810598954</v>
       </c>
       <c r="F25">
-        <v>0.9899580904788721</v>
+        <v>0.9899580904788752</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034707942105994</v>
+        <v>1.034707942105995</v>
       </c>
       <c r="J25">
-        <v>0.9951147707872543</v>
+        <v>0.995114770787258</v>
       </c>
       <c r="K25">
-        <v>1.007942952303872</v>
+        <v>1.007942952303875</v>
       </c>
       <c r="L25">
-        <v>0.9915816473246876</v>
+        <v>0.9915816473246911</v>
       </c>
       <c r="M25">
-        <v>1.00271432039878</v>
+        <v>1.002714320398783</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9855173450072385</v>
+        <v>0.9855173450072365</v>
       </c>
       <c r="D2">
-        <v>1.007878318454138</v>
+        <v>1.007878318454136</v>
       </c>
       <c r="E2">
-        <v>0.9937941657816193</v>
+        <v>0.9937941657816172</v>
       </c>
       <c r="F2">
-        <v>1.004499632126959</v>
+        <v>1.004499632126958</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040822131969277</v>
+        <v>1.040822131969275</v>
       </c>
       <c r="J2">
-        <v>1.008140030278832</v>
+        <v>1.008140030278831</v>
       </c>
       <c r="K2">
-        <v>1.019228976182035</v>
+        <v>1.019228976182033</v>
       </c>
       <c r="L2">
-        <v>1.005340640195564</v>
+        <v>1.005340640195562</v>
       </c>
       <c r="M2">
-        <v>1.01589663385968</v>
+        <v>1.015896633859678</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9963493171170839</v>
+        <v>0.9963493171170862</v>
       </c>
       <c r="D3">
-        <v>1.016424848408401</v>
+        <v>1.016424848408403</v>
       </c>
       <c r="E3">
-        <v>1.004066153968673</v>
+        <v>1.004066153968675</v>
       </c>
       <c r="F3">
-        <v>1.014374141005822</v>
+        <v>1.014374141005824</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.044925925932169</v>
       </c>
       <c r="J3">
-        <v>1.016940000606808</v>
+        <v>1.01694000060681</v>
       </c>
       <c r="K3">
-        <v>1.026851796606186</v>
+        <v>1.026851796606188</v>
       </c>
       <c r="L3">
-        <v>1.014647270633112</v>
+        <v>1.014647270633114</v>
       </c>
       <c r="M3">
-        <v>1.024826347136869</v>
+        <v>1.024826347136871</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003044039226632</v>
+        <v>1.003044039226633</v>
       </c>
       <c r="D4">
-        <v>1.021710939612836</v>
+        <v>1.021710939612837</v>
       </c>
       <c r="E4">
-        <v>1.010420850170635</v>
+        <v>1.010420850170637</v>
       </c>
       <c r="F4">
-        <v>1.020489538126695</v>
+        <v>1.020489538126697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047445350195198</v>
+        <v>1.047445350195199</v>
       </c>
       <c r="J4">
-        <v>1.022370197398458</v>
+        <v>1.022370197398459</v>
       </c>
       <c r="K4">
-        <v>1.031554208276675</v>
+        <v>1.031554208276676</v>
       </c>
       <c r="L4">
-        <v>1.020395110870317</v>
+        <v>1.020395110870319</v>
       </c>
       <c r="M4">
-        <v>1.030346805339845</v>
+        <v>1.030346805339847</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -556,7 +556,7 @@
         <v>1.024594948392183</v>
       </c>
       <c r="K5">
-        <v>1.033480392634923</v>
+        <v>1.033480392634922</v>
       </c>
       <c r="L5">
         <v>1.022751194465434</v>
@@ -576,13 +576,13 @@
         <v>1.006246620268207</v>
       </c>
       <c r="D6">
-        <v>1.024240551585991</v>
+        <v>1.024240551585992</v>
       </c>
       <c r="E6">
-        <v>1.013462411436968</v>
+        <v>1.013462411436969</v>
       </c>
       <c r="F6">
-        <v>1.023418365601709</v>
+        <v>1.02341836560171</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,7 +591,7 @@
         <v>1.048645479779708</v>
       </c>
       <c r="J6">
-        <v>1.024965222110279</v>
+        <v>1.02496522211028</v>
       </c>
       <c r="K6">
         <v>1.033800950074857</v>
@@ -600,7 +600,7 @@
         <v>1.023143396529104</v>
       </c>
       <c r="M6">
-        <v>1.032987852734067</v>
+        <v>1.032987852734068</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,13 +611,13 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003080987875675</v>
+        <v>1.003080987875674</v>
       </c>
       <c r="D7">
-        <v>1.02174012106948</v>
+        <v>1.021740121069479</v>
       </c>
       <c r="E7">
-        <v>1.010455935057242</v>
+        <v>1.010455935057241</v>
       </c>
       <c r="F7">
         <v>1.020523315933005</v>
@@ -629,16 +629,16 @@
         <v>1.047459215748328</v>
       </c>
       <c r="J7">
-        <v>1.022400146713873</v>
+        <v>1.022400146713872</v>
       </c>
       <c r="K7">
-        <v>1.031580139959249</v>
+        <v>1.031580139959248</v>
       </c>
       <c r="L7">
         <v>1.020426823431565</v>
       </c>
       <c r="M7">
-        <v>1.03037727497094</v>
+        <v>1.030377274970939</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9892471892126639</v>
+        <v>0.9892471892126672</v>
       </c>
       <c r="D8">
-        <v>1.010820233416991</v>
+        <v>1.010820233416993</v>
       </c>
       <c r="E8">
-        <v>0.9973298139374259</v>
+        <v>0.9973298139374293</v>
       </c>
       <c r="F8">
-        <v>1.007896986883676</v>
+        <v>1.007896986883679</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04223876897631</v>
+        <v>1.042238768976312</v>
       </c>
       <c r="J8">
-        <v>1.011171973150612</v>
+        <v>1.011171973150616</v>
       </c>
       <c r="K8">
-        <v>1.021855605660778</v>
+        <v>1.021855605660781</v>
       </c>
       <c r="L8">
-        <v>1.008546076488</v>
+        <v>1.008546076488003</v>
       </c>
       <c r="M8">
-        <v>1.018971040529255</v>
+        <v>1.018971040529258</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.962126086771312</v>
+        <v>0.9621260867713136</v>
       </c>
       <c r="D9">
-        <v>0.9894565094671168</v>
+        <v>0.9894565094671183</v>
       </c>
       <c r="E9">
-        <v>0.9716539792253095</v>
+        <v>0.971653979225311</v>
       </c>
       <c r="F9">
-        <v>0.9832605614669956</v>
+        <v>0.9832605614669976</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031866828788419</v>
+        <v>1.03186682878842</v>
       </c>
       <c r="J9">
-        <v>0.9890910049648118</v>
+        <v>0.9890910049648136</v>
       </c>
       <c r="K9">
-        <v>1.002722995494506</v>
+        <v>1.002722995494508</v>
       </c>
       <c r="L9">
-        <v>0.9852243259626342</v>
+        <v>0.9852243259626356</v>
       </c>
       <c r="M9">
-        <v>0.9966311912327515</v>
+        <v>0.9966311912327532</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,19 +722,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9416103476294148</v>
+        <v>0.9416103476294131</v>
       </c>
       <c r="D10">
-        <v>0.973347907428286</v>
+        <v>0.9733479074282846</v>
       </c>
       <c r="E10">
-        <v>0.9522837030831232</v>
+        <v>0.9522837030831215</v>
       </c>
       <c r="F10">
-        <v>0.9647285209825682</v>
+        <v>0.9647285209825669</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -743,16 +743,16 @@
         <v>1.023934736398289</v>
       </c>
       <c r="J10">
-        <v>0.9723487095695212</v>
+        <v>0.9723487095695197</v>
       </c>
       <c r="K10">
-        <v>0.9882156453018854</v>
+        <v>0.9882156453018842</v>
       </c>
       <c r="L10">
-        <v>0.9675714636770771</v>
+        <v>0.9675714636770754</v>
       </c>
       <c r="M10">
-        <v>0.979765216980931</v>
+        <v>0.9797652169809297</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9319685339127809</v>
+        <v>0.9319685339127773</v>
       </c>
       <c r="D11">
-        <v>0.9657959563932021</v>
+        <v>0.9657959563931989</v>
       </c>
       <c r="E11">
-        <v>0.9431963092668791</v>
+        <v>0.9431963092668759</v>
       </c>
       <c r="F11">
-        <v>0.956050659001993</v>
+        <v>0.9560506590019897</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020188907611028</v>
+        <v>1.020188907611027</v>
       </c>
       <c r="J11">
-        <v>0.9644734430576331</v>
+        <v>0.9644734430576297</v>
       </c>
       <c r="K11">
-        <v>0.9813930823302681</v>
+        <v>0.9813930823302649</v>
       </c>
       <c r="L11">
-        <v>0.9592753156102174</v>
+        <v>0.9592753156102141</v>
       </c>
       <c r="M11">
-        <v>0.9718518790514166</v>
+        <v>0.9718518790514131</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282525548491348</v>
+        <v>0.9282525548491368</v>
       </c>
       <c r="D12">
-        <v>0.9628888975559212</v>
+        <v>0.9628888975559228</v>
       </c>
       <c r="E12">
-        <v>0.9396968227742875</v>
+        <v>0.9396968227742893</v>
       </c>
       <c r="F12">
-        <v>0.952711697262118</v>
+        <v>0.9527116972621199</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018742843081041</v>
+        <v>1.018742843081042</v>
       </c>
       <c r="J12">
-        <v>0.961437545717881</v>
+        <v>0.961437545717883</v>
       </c>
       <c r="K12">
-        <v>0.9787633817634326</v>
+        <v>0.9787633817634341</v>
       </c>
       <c r="L12">
-        <v>0.9560783092181944</v>
+        <v>0.9560783092181961</v>
       </c>
       <c r="M12">
-        <v>0.9688046290255218</v>
+        <v>0.9688046290255236</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290561294229112</v>
+        <v>0.9290561294229093</v>
       </c>
       <c r="D13">
-        <v>0.9635173751053151</v>
+        <v>0.9635173751053133</v>
       </c>
       <c r="E13">
-        <v>0.9404534469213167</v>
+        <v>0.9404534469213147</v>
       </c>
       <c r="F13">
-        <v>0.9534334806823195</v>
+        <v>0.953433480682318</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019055655465089</v>
+        <v>1.019055655465088</v>
       </c>
       <c r="J13">
-        <v>0.9620940821372368</v>
+        <v>0.9620940821372348</v>
       </c>
       <c r="K13">
-        <v>0.9793320547113988</v>
+        <v>0.9793320547113972</v>
       </c>
       <c r="L13">
-        <v>0.9567696350204837</v>
+        <v>0.9567696350204817</v>
       </c>
       <c r="M13">
-        <v>0.9694634654003551</v>
+        <v>0.9694634654003537</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9316642551905306</v>
+        <v>0.9316642551905309</v>
       </c>
       <c r="D14">
-        <v>0.9655578405544005</v>
+        <v>0.9655578405544007</v>
       </c>
       <c r="E14">
-        <v>0.9429096983749997</v>
+        <v>0.942909698375</v>
       </c>
       <c r="F14">
-        <v>0.9557771360051274</v>
+        <v>0.9557771360051271</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02007054499634</v>
+        <v>1.020070544996341</v>
       </c>
       <c r="J14">
-        <v>0.964224865296015</v>
+        <v>0.9642248652960154</v>
       </c>
       <c r="K14">
         <v>0.9811777549753341</v>
       </c>
       <c r="L14">
-        <v>0.9590135232041157</v>
+        <v>0.9590135232041159</v>
       </c>
       <c r="M14">
-        <v>0.9716023027844509</v>
+        <v>0.9716023027844507</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332526602875929</v>
+        <v>0.9332526602875938</v>
       </c>
       <c r="D15">
-        <v>0.9668010049998418</v>
+        <v>0.9668010049998431</v>
       </c>
       <c r="E15">
-        <v>0.9444059895758273</v>
+        <v>0.9444059895758283</v>
       </c>
       <c r="F15">
-        <v>0.9572052161335594</v>
+        <v>0.9572052161335604</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020688329704967</v>
+        <v>1.020688329704968</v>
       </c>
       <c r="J15">
-        <v>0.9655224701380019</v>
+        <v>0.965522470138003</v>
       </c>
       <c r="K15">
-        <v>0.9823018053093134</v>
+        <v>0.9823018053093149</v>
       </c>
       <c r="L15">
-        <v>0.9603801561406016</v>
+        <v>0.9603801561406022</v>
       </c>
       <c r="M15">
-        <v>0.9729052559404708</v>
+        <v>0.9729052559404719</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9422326261177786</v>
+        <v>0.9422326261177818</v>
       </c>
       <c r="D16">
-        <v>0.9738357393765593</v>
+        <v>0.9738357393765623</v>
       </c>
       <c r="E16">
-        <v>0.952870558047859</v>
+        <v>0.9528705580478624</v>
       </c>
       <c r="F16">
-        <v>0.9652892892467708</v>
+        <v>0.9652892892467738</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024176147062952</v>
+        <v>1.024176147062954</v>
       </c>
       <c r="J16">
-        <v>0.9728568578277106</v>
+        <v>0.9728568578277136</v>
       </c>
       <c r="K16">
-        <v>0.9886559104153413</v>
+        <v>0.9886559104153442</v>
       </c>
       <c r="L16">
-        <v>0.9681069222042875</v>
+        <v>0.9681069222042905</v>
       </c>
       <c r="M16">
-        <v>0.9802762544708841</v>
+        <v>0.9802762544708868</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9476495465737044</v>
+        <v>0.947649546573699</v>
       </c>
       <c r="D17">
-        <v>0.9780844281467528</v>
+        <v>0.9780844281467482</v>
       </c>
       <c r="E17">
-        <v>0.9579809316789002</v>
+        <v>0.9579809316788948</v>
       </c>
       <c r="F17">
-        <v>0.9701743330774724</v>
+        <v>0.9701743330774679</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026275663087595</v>
+        <v>1.026275663087592</v>
       </c>
       <c r="J17">
-        <v>0.9772795443306596</v>
+        <v>0.9772795443306547</v>
       </c>
       <c r="K17">
-        <v>0.9924879471248483</v>
+        <v>0.9924879471248438</v>
       </c>
       <c r="L17">
-        <v>0.9727681276268937</v>
+        <v>0.9727681276268887</v>
       </c>
       <c r="M17">
-        <v>0.9847263362016643</v>
+        <v>0.9847263362016597</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9507376148496691</v>
+        <v>0.9507376148496715</v>
       </c>
       <c r="D18">
-        <v>0.9805081735289142</v>
+        <v>0.9805081735289163</v>
       </c>
       <c r="E18">
-        <v>0.9608956911535913</v>
+        <v>0.9608956911535936</v>
       </c>
       <c r="F18">
-        <v>0.9729620418410257</v>
+        <v>0.972962041841028</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027470881511437</v>
+        <v>1.027470881511438</v>
       </c>
       <c r="J18">
-        <v>0.9798001709680205</v>
+        <v>0.9798001709680227</v>
       </c>
       <c r="K18">
-        <v>0.994672062919394</v>
+        <v>0.9946720629193959</v>
       </c>
       <c r="L18">
-        <v>0.97542537367252</v>
+        <v>0.9754253736725221</v>
       </c>
       <c r="M18">
-        <v>0.9872643983915645</v>
+        <v>0.9872643983915668</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9517789749591333</v>
+        <v>0.9517789749591344</v>
       </c>
       <c r="D19">
-        <v>0.9813257746679103</v>
+        <v>0.9813257746679113</v>
       </c>
       <c r="E19">
-        <v>0.9618788432827193</v>
+        <v>0.96187884328272</v>
       </c>
       <c r="F19">
-        <v>0.9739025793402402</v>
+        <v>0.9739025793402415</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.027873643163142</v>
       </c>
       <c r="J19">
-        <v>0.980650060701639</v>
+        <v>0.9806500607016401</v>
       </c>
       <c r="K19">
-        <v>0.9954085058163675</v>
+        <v>0.9954085058163687</v>
       </c>
       <c r="L19">
-        <v>0.9763214426825018</v>
+        <v>0.9763214426825028</v>
       </c>
       <c r="M19">
-        <v>0.988120468347315</v>
+        <v>0.988120468347316</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9470758928204276</v>
+        <v>0.9470758928204219</v>
       </c>
       <c r="D20">
-        <v>0.9776343130199369</v>
+        <v>0.977634313019932</v>
       </c>
       <c r="E20">
-        <v>0.9574395878830672</v>
+        <v>0.9574395878830619</v>
       </c>
       <c r="F20">
-        <v>0.9696567030250418</v>
+        <v>0.9696567030250361</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026053496064846</v>
+        <v>1.026053496064843</v>
       </c>
       <c r="J20">
-        <v>0.9768112464458002</v>
+        <v>0.9768112464457946</v>
       </c>
       <c r="K20">
-        <v>0.9920821769687563</v>
+        <v>0.9920821769687513</v>
       </c>
       <c r="L20">
-        <v>0.9722745029608552</v>
+        <v>0.9722745029608498</v>
       </c>
       <c r="M20">
-        <v>0.9842549455244441</v>
+        <v>0.9842549455244389</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9309001367248018</v>
+        <v>0.9309001367248014</v>
       </c>
       <c r="D21">
-        <v>0.9649599316218914</v>
+        <v>0.9649599316218911</v>
       </c>
       <c r="E21">
         <v>0.9421899947838268</v>
       </c>
       <c r="F21">
-        <v>0.9550903437010495</v>
+        <v>0.9550903437010494</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.019773269940217</v>
       </c>
       <c r="J21">
-        <v>0.9636006146818994</v>
+        <v>0.9636006146818993</v>
       </c>
       <c r="K21">
-        <v>0.9806370124878545</v>
+        <v>0.9806370124878543</v>
       </c>
       <c r="L21">
-        <v>0.958356105122838</v>
+        <v>0.9583561051228381</v>
       </c>
       <c r="M21">
-        <v>0.9709755989699318</v>
+        <v>0.9709755989699315</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9199362708282062</v>
+        <v>0.9199362708282055</v>
       </c>
       <c r="D22">
-        <v>0.9563903571644112</v>
+        <v>0.9563903571644108</v>
       </c>
       <c r="E22">
-        <v>0.9318708309731442</v>
+        <v>0.9318708309731436</v>
       </c>
       <c r="F22">
-        <v>0.9452504316103628</v>
+        <v>0.9452504316103623</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.01550247837775</v>
       </c>
       <c r="J22">
-        <v>0.9546422618954645</v>
+        <v>0.9546422618954641</v>
       </c>
       <c r="K22">
-        <v>0.9728782261243126</v>
+        <v>0.9728782261243122</v>
       </c>
       <c r="L22">
-        <v>0.9489245645116389</v>
+        <v>0.9489245645116382</v>
       </c>
       <c r="M22">
-        <v>0.9619905264279619</v>
+        <v>0.9619905264279612</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258321570952431</v>
+        <v>0.9258321570952447</v>
       </c>
       <c r="D23">
-        <v>0.9609964716553957</v>
+        <v>0.9609964716553973</v>
       </c>
       <c r="E23">
-        <v>0.9374182915429664</v>
+        <v>0.9374182915429683</v>
       </c>
       <c r="F23">
-        <v>0.9505385339758952</v>
+        <v>0.9505385339758965</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017800312425279</v>
+        <v>1.01780031242528</v>
       </c>
       <c r="J23">
-        <v>0.9594599487420583</v>
+        <v>0.9594599487420599</v>
       </c>
       <c r="K23">
-        <v>0.9770505152948408</v>
+        <v>0.977050515294842</v>
       </c>
       <c r="L23">
-        <v>0.9539960900561261</v>
+        <v>0.9539960900561277</v>
       </c>
       <c r="M23">
-        <v>0.9668206192363492</v>
+        <v>0.9668206192363507</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,19 +1254,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9473353218074445</v>
+        <v>0.9473353218074453</v>
       </c>
       <c r="D24">
-        <v>0.9778378678058394</v>
+        <v>0.9778378678058401</v>
       </c>
       <c r="E24">
-        <v>0.9576844005394404</v>
+        <v>0.9576844005394415</v>
       </c>
       <c r="F24">
-        <v>0.969890787027114</v>
+        <v>0.9698907870271147</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.026153974037074</v>
       </c>
       <c r="J24">
-        <v>0.9770230313783037</v>
+        <v>0.9770230313783048</v>
       </c>
       <c r="K24">
-        <v>0.9922656837488544</v>
+        <v>0.9922656837488552</v>
       </c>
       <c r="L24">
-        <v>0.9724977396591744</v>
+        <v>0.9724977396591756</v>
       </c>
       <c r="M24">
-        <v>0.9844681234895634</v>
+        <v>0.984468123489564</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9695160721412374</v>
+        <v>0.9695160721412337</v>
       </c>
       <c r="D25">
-        <v>0.9952707748826463</v>
+        <v>0.9952707748826429</v>
       </c>
       <c r="E25">
-        <v>0.9786424810598954</v>
+        <v>0.9786424810598918</v>
       </c>
       <c r="F25">
-        <v>0.9899580904788752</v>
+        <v>0.9899580904788721</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034707942105995</v>
+        <v>1.034707942105994</v>
       </c>
       <c r="J25">
-        <v>0.995114770787258</v>
+        <v>0.9951147707872543</v>
       </c>
       <c r="K25">
-        <v>1.007942952303875</v>
+        <v>1.007942952303872</v>
       </c>
       <c r="L25">
-        <v>0.9915816473246911</v>
+        <v>0.9915816473246876</v>
       </c>
       <c r="M25">
-        <v>1.002714320398783</v>
+        <v>1.00271432039878</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9855173450072365</v>
+        <v>0.9855956641540501</v>
       </c>
       <c r="D2">
-        <v>1.007878318454136</v>
+        <v>1.007941557362896</v>
       </c>
       <c r="E2">
-        <v>0.9937941657816172</v>
+        <v>0.9938719181297402</v>
       </c>
       <c r="F2">
-        <v>1.004499632126958</v>
+        <v>1.00456476802197</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040822131969275</v>
+        <v>1.040855961337054</v>
       </c>
       <c r="J2">
-        <v>1.008140030278831</v>
+        <v>1.008215911052289</v>
       </c>
       <c r="K2">
-        <v>1.019228976182033</v>
+        <v>1.01929135139914</v>
       </c>
       <c r="L2">
-        <v>1.005340640195562</v>
+        <v>1.005417292269762</v>
       </c>
       <c r="M2">
-        <v>1.015896633859678</v>
+        <v>1.015960872599318</v>
+      </c>
+      <c r="N2">
+        <v>1.000321119218403</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9963493171170862</v>
+        <v>0.9964105466215573</v>
       </c>
       <c r="D3">
-        <v>1.016424848408403</v>
+        <v>1.01647436699237</v>
       </c>
       <c r="E3">
-        <v>1.004066153968675</v>
+        <v>1.004127026392715</v>
       </c>
       <c r="F3">
-        <v>1.014374141005824</v>
+        <v>1.014425035303482</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044925925932169</v>
+        <v>1.044952444439581</v>
       </c>
       <c r="J3">
-        <v>1.01694000060681</v>
+        <v>1.016999544356095</v>
       </c>
       <c r="K3">
-        <v>1.026851796606188</v>
+        <v>1.026900706852652</v>
       </c>
       <c r="L3">
-        <v>1.014647270633114</v>
+        <v>1.014707372096986</v>
       </c>
       <c r="M3">
-        <v>1.024826347136871</v>
+        <v>1.024876613046993</v>
+      </c>
+      <c r="N3">
+        <v>1.007291434584534</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003044039226633</v>
+        <v>1.003095174459767</v>
       </c>
       <c r="D4">
-        <v>1.021710939612837</v>
+        <v>1.021752333423397</v>
       </c>
       <c r="E4">
-        <v>1.010420850170637</v>
+        <v>1.01047172935258</v>
       </c>
       <c r="F4">
-        <v>1.020489538126697</v>
+        <v>1.020532026846116</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047445350195199</v>
+        <v>1.047467533018054</v>
       </c>
       <c r="J4">
-        <v>1.022370197398459</v>
+        <v>1.02242003537986</v>
       </c>
       <c r="K4">
-        <v>1.031554208276676</v>
+        <v>1.031595128394101</v>
       </c>
       <c r="L4">
-        <v>1.020395110870319</v>
+        <v>1.020445391605387</v>
       </c>
       <c r="M4">
-        <v>1.030346805339847</v>
+        <v>1.030388806399293</v>
+      </c>
+      <c r="N4">
+        <v>1.011572965288604</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005789520431418</v>
+        <v>1.005836612748184</v>
       </c>
       <c r="D5">
-        <v>1.023879471884741</v>
+        <v>1.023917607287095</v>
       </c>
       <c r="E5">
-        <v>1.013028228753131</v>
+        <v>1.013075100732055</v>
       </c>
       <c r="F5">
-        <v>1.023000203861018</v>
+        <v>1.023039327491236</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048474399021927</v>
+        <v>1.048494841581842</v>
       </c>
       <c r="J5">
-        <v>1.024594948392183</v>
+        <v>1.024640887136224</v>
       </c>
       <c r="K5">
-        <v>1.033480392634922</v>
+        <v>1.033518104735686</v>
       </c>
       <c r="L5">
-        <v>1.022751194465434</v>
+        <v>1.022797532336871</v>
       </c>
       <c r="M5">
-        <v>1.032610895221175</v>
+        <v>1.032649583662248</v>
+      </c>
+      <c r="N5">
+        <v>1.013322398973425</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006246620268207</v>
+        <v>1.006293044762621</v>
       </c>
       <c r="D6">
-        <v>1.024240551585992</v>
+        <v>1.024278148516527</v>
       </c>
       <c r="E6">
-        <v>1.013462411436969</v>
+        <v>1.013508621231925</v>
       </c>
       <c r="F6">
-        <v>1.02341836560171</v>
+        <v>1.02345693346026</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048645479779708</v>
+        <v>1.048665634667068</v>
       </c>
       <c r="J6">
-        <v>1.02496522211028</v>
+        <v>1.025010516102862</v>
       </c>
       <c r="K6">
-        <v>1.033800950074857</v>
+        <v>1.033838131828602</v>
       </c>
       <c r="L6">
-        <v>1.023143396529104</v>
+        <v>1.023189082578057</v>
       </c>
       <c r="M6">
-        <v>1.032987852734068</v>
+        <v>1.03302599385283</v>
+      </c>
+      <c r="N6">
+        <v>1.013613286738163</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003080987875674</v>
+        <v>1.003132068333978</v>
       </c>
       <c r="D7">
-        <v>1.021740121069479</v>
+        <v>1.021781470750464</v>
       </c>
       <c r="E7">
-        <v>1.010455935057241</v>
+        <v>1.010506759966342</v>
       </c>
       <c r="F7">
-        <v>1.020523315933005</v>
+        <v>1.020565759055211</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047459215748328</v>
+        <v>1.047481375008009</v>
       </c>
       <c r="J7">
-        <v>1.022400146713872</v>
+        <v>1.022449931912925</v>
       </c>
       <c r="K7">
-        <v>1.031580139959248</v>
+        <v>1.031621016643543</v>
       </c>
       <c r="L7">
-        <v>1.020426823431565</v>
+        <v>1.020477050783874</v>
       </c>
       <c r="M7">
-        <v>1.030377274970939</v>
+        <v>1.030419231159119</v>
+      </c>
+      <c r="N7">
+        <v>1.011596534641914</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9892471892126672</v>
+        <v>0.9893195132306045</v>
       </c>
       <c r="D8">
-        <v>1.010820233416993</v>
+        <v>1.010878664164721</v>
       </c>
       <c r="E8">
-        <v>0.9973298139374293</v>
+        <v>0.9974016502614328</v>
       </c>
       <c r="F8">
-        <v>1.007896986883679</v>
+        <v>1.007957125300279</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042238768976312</v>
+        <v>1.042270037785357</v>
       </c>
       <c r="J8">
-        <v>1.011171973150616</v>
+        <v>1.011242136198621</v>
       </c>
       <c r="K8">
-        <v>1.021855605660781</v>
+        <v>1.021913266092704</v>
       </c>
       <c r="L8">
-        <v>1.008546076488003</v>
+        <v>1.008616933262118</v>
       </c>
       <c r="M8">
-        <v>1.018971040529258</v>
+        <v>1.01903038033687</v>
+      </c>
+      <c r="N8">
+        <v>1.002726869661531</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9621260867713136</v>
+        <v>0.9622449816397021</v>
       </c>
       <c r="D9">
-        <v>0.9894565094671183</v>
+        <v>0.9895521499542056</v>
       </c>
       <c r="E9">
-        <v>0.971653979225311</v>
+        <v>0.9717716162984742</v>
       </c>
       <c r="F9">
-        <v>0.9832605614669976</v>
+        <v>0.9833595544494977</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03186682878842</v>
+        <v>1.0319178772994</v>
       </c>
       <c r="J9">
-        <v>0.9890910049648136</v>
+        <v>0.9892052202513505</v>
       </c>
       <c r="K9">
-        <v>1.002722995494508</v>
+        <v>1.002817041588418</v>
       </c>
       <c r="L9">
-        <v>0.9852243259626356</v>
+        <v>0.985339907834644</v>
       </c>
       <c r="M9">
-        <v>0.9966311912327532</v>
+        <v>0.9967285069911075</v>
+      </c>
+      <c r="N9">
+        <v>0.9851180989285354</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9416103476294131</v>
+        <v>0.9417698451360417</v>
       </c>
       <c r="D10">
-        <v>0.9733479074282846</v>
+        <v>0.9734757312289368</v>
       </c>
       <c r="E10">
-        <v>0.9522837030831215</v>
+        <v>0.9524409879477141</v>
       </c>
       <c r="F10">
-        <v>0.9647285209825669</v>
+        <v>0.9648614333730249</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.023934736398289</v>
+        <v>1.024002835842803</v>
       </c>
       <c r="J10">
-        <v>0.9723487095695197</v>
+        <v>0.9725006948213997</v>
       </c>
       <c r="K10">
-        <v>0.9882156453018842</v>
+        <v>0.9883409929922087</v>
       </c>
       <c r="L10">
-        <v>0.9675714636770754</v>
+        <v>0.9677255214346167</v>
       </c>
       <c r="M10">
-        <v>0.9797652169809297</v>
+        <v>0.9798954938951482</v>
+      </c>
+      <c r="N10">
+        <v>0.9716514346353365</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9319685339127773</v>
+        <v>0.9321490807905297</v>
       </c>
       <c r="D11">
-        <v>0.9657959563931989</v>
+        <v>0.965940373780384</v>
       </c>
       <c r="E11">
-        <v>0.9431963092668759</v>
+        <v>0.9433740497050151</v>
       </c>
       <c r="F11">
-        <v>0.9560506590019897</v>
+        <v>0.9562011641827391</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.020188907611027</v>
+        <v>1.0202657816372</v>
       </c>
       <c r="J11">
-        <v>0.9644734430576297</v>
+        <v>0.9646447971918467</v>
       </c>
       <c r="K11">
-        <v>0.9813930823302649</v>
+        <v>0.9815345160874919</v>
       </c>
       <c r="L11">
-        <v>0.9592753156102141</v>
+        <v>0.9594491463902377</v>
       </c>
       <c r="M11">
-        <v>0.9718518790514131</v>
+        <v>0.9719991903415689</v>
+      </c>
+      <c r="N11">
+        <v>0.9652895604375681</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9282525548491368</v>
+        <v>0.9284415961189512</v>
       </c>
       <c r="D12">
-        <v>0.9628888975559228</v>
+        <v>0.9630399941603737</v>
       </c>
       <c r="E12">
-        <v>0.9396968227742893</v>
+        <v>0.9398827996305384</v>
       </c>
       <c r="F12">
-        <v>0.9527116972621199</v>
+        <v>0.9528693026779094</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018742843081042</v>
+        <v>1.018823246166384</v>
       </c>
       <c r="J12">
-        <v>0.961437545717883</v>
+        <v>0.9616166777065305</v>
       </c>
       <c r="K12">
-        <v>0.9787633817634341</v>
+        <v>0.9789112812095629</v>
       </c>
       <c r="L12">
-        <v>0.9560783092181961</v>
+        <v>0.9562600876927038</v>
       </c>
       <c r="M12">
-        <v>0.9688046290255236</v>
+        <v>0.9689588042901486</v>
+      </c>
+      <c r="N12">
+        <v>0.9628329892068874</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9290561294229093</v>
+        <v>0.9292433148777974</v>
       </c>
       <c r="D13">
-        <v>0.9635173751053133</v>
+        <v>0.9636670132920199</v>
       </c>
       <c r="E13">
-        <v>0.9404534469213147</v>
+        <v>0.9406376252091189</v>
       </c>
       <c r="F13">
-        <v>0.953433480682318</v>
+        <v>0.9535895348507213</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019055655465088</v>
+        <v>1.019135288109144</v>
       </c>
       <c r="J13">
-        <v>0.9620940821372348</v>
+        <v>0.9622715166920843</v>
       </c>
       <c r="K13">
-        <v>0.9793320547113972</v>
+        <v>0.9794785428002539</v>
       </c>
       <c r="L13">
-        <v>0.9567696350204817</v>
+        <v>0.9569496786354057</v>
       </c>
       <c r="M13">
-        <v>0.9694634654003537</v>
+        <v>0.9696161415522273</v>
+      </c>
+      <c r="N13">
+        <v>0.9633644246951721</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9316642551905309</v>
+        <v>0.9318454893182796</v>
       </c>
       <c r="D14">
-        <v>0.9655578405544007</v>
+        <v>0.9657027986934031</v>
       </c>
       <c r="E14">
-        <v>0.942909698375</v>
+        <v>0.9430881055785154</v>
       </c>
       <c r="F14">
-        <v>0.9557771360051271</v>
+        <v>0.9559282156291451</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020070544996341</v>
+        <v>1.020147704795548</v>
       </c>
       <c r="J14">
-        <v>0.9642248652960154</v>
+        <v>0.9643968495116467</v>
       </c>
       <c r="K14">
-        <v>0.9811777549753341</v>
+        <v>0.9813197123887242</v>
       </c>
       <c r="L14">
-        <v>0.9590135232041159</v>
+        <v>0.9591879976663029</v>
       </c>
       <c r="M14">
-        <v>0.9716023027844507</v>
+        <v>0.97175016962997</v>
+      </c>
+      <c r="N14">
+        <v>0.9650884995851415</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9332526602875938</v>
+        <v>0.9334303228045504</v>
       </c>
       <c r="D15">
-        <v>0.9668010049998431</v>
+        <v>0.966943152176345</v>
       </c>
       <c r="E15">
-        <v>0.9444059895758283</v>
+        <v>0.9445809308777836</v>
       </c>
       <c r="F15">
-        <v>0.9572052161335604</v>
+        <v>0.9573533104241486</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020688329704968</v>
+        <v>1.020764003869098</v>
       </c>
       <c r="J15">
-        <v>0.965522470138003</v>
+        <v>0.9656911782855692</v>
       </c>
       <c r="K15">
-        <v>0.9823018053093149</v>
+        <v>0.9824410402535599</v>
       </c>
       <c r="L15">
-        <v>0.9603801561406022</v>
+        <v>0.9605512841256202</v>
       </c>
       <c r="M15">
-        <v>0.9729052559404719</v>
+        <v>0.9730502351700585</v>
+      </c>
+      <c r="N15">
+        <v>0.9661378962500593</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9422326261177818</v>
+        <v>0.9423908116216047</v>
       </c>
       <c r="D16">
-        <v>0.9738357393765623</v>
+        <v>0.9739625268790838</v>
       </c>
       <c r="E16">
-        <v>0.9528705580478624</v>
+        <v>0.953026565735871</v>
       </c>
       <c r="F16">
-        <v>0.9652892892467738</v>
+        <v>0.9654211052088013</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024176147062954</v>
+        <v>1.024243698165501</v>
       </c>
       <c r="J16">
-        <v>0.9728568578277136</v>
+        <v>0.9730076312023157</v>
       </c>
       <c r="K16">
-        <v>0.9886559104153442</v>
+        <v>0.9887802523712306</v>
       </c>
       <c r="L16">
-        <v>0.9681069222042905</v>
+        <v>0.9682597437151157</v>
       </c>
       <c r="M16">
-        <v>0.9802762544708868</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9804054684367054</v>
+      </c>
+      <c r="N16">
+        <v>0.9720613764461029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.947649546573699</v>
+        <v>0.9477965353309112</v>
       </c>
       <c r="D17">
-        <v>0.9780844281467482</v>
+        <v>0.9782023619868654</v>
       </c>
       <c r="E17">
-        <v>0.9579809316788948</v>
+        <v>0.9581260291973744</v>
       </c>
       <c r="F17">
-        <v>0.9701743330774679</v>
+        <v>0.9702967928537015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026275663087592</v>
+        <v>1.026338527609994</v>
       </c>
       <c r="J17">
-        <v>0.9772795443306547</v>
+        <v>0.9774199526904641</v>
       </c>
       <c r="K17">
-        <v>0.9924879471248438</v>
+        <v>0.9926036908686754</v>
       </c>
       <c r="L17">
-        <v>0.9727681276268887</v>
+        <v>0.9729103802380759</v>
       </c>
       <c r="M17">
-        <v>0.9847263362016597</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9848464731051988</v>
+      </c>
+      <c r="N17">
+        <v>0.9756262943344124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9507376148496715</v>
+        <v>0.9508783944764926</v>
       </c>
       <c r="D18">
-        <v>0.9805081735289163</v>
+        <v>0.9806211899668396</v>
       </c>
       <c r="E18">
-        <v>0.9608956911535936</v>
+        <v>0.9610347301735577</v>
       </c>
       <c r="F18">
-        <v>0.972962041841028</v>
+        <v>0.9730793139102022</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027470881511438</v>
+        <v>1.027531141632732</v>
       </c>
       <c r="J18">
-        <v>0.9798001709680227</v>
+        <v>0.9799348135736173</v>
       </c>
       <c r="K18">
-        <v>0.9946720629193959</v>
+        <v>0.9947830266424811</v>
       </c>
       <c r="L18">
-        <v>0.9754253736725221</v>
+        <v>0.9755617506939603</v>
       </c>
       <c r="M18">
-        <v>0.9872643983915668</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9873794971642744</v>
+      </c>
+      <c r="N18">
+        <v>0.9776555351915284</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9517789749591344</v>
+        <v>0.9519176882022158</v>
       </c>
       <c r="D19">
-        <v>0.9813257746679113</v>
+        <v>0.9814371533904643</v>
       </c>
       <c r="E19">
-        <v>0.96187884328272</v>
+        <v>0.9620158647238708</v>
       </c>
       <c r="F19">
-        <v>0.9739025793402415</v>
+        <v>0.9740181250883608</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027873643163142</v>
+        <v>1.027933035667094</v>
       </c>
       <c r="J19">
-        <v>0.9806500607016401</v>
+        <v>0.9807827816016915</v>
       </c>
       <c r="K19">
-        <v>0.9954085058163687</v>
+        <v>0.9955178768464474</v>
       </c>
       <c r="L19">
-        <v>0.9763214426825028</v>
+        <v>0.9764558619688281</v>
       </c>
       <c r="M19">
-        <v>0.988120468347316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9882338897329855</v>
+      </c>
+      <c r="N19">
+        <v>0.9783393148913704</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9470758928204219</v>
+        <v>0.9472240486675476</v>
       </c>
       <c r="D20">
-        <v>0.977634313019932</v>
+        <v>0.9777531705424575</v>
       </c>
       <c r="E20">
-        <v>0.9574395878830619</v>
+        <v>0.9575858235143803</v>
       </c>
       <c r="F20">
-        <v>0.9696567030250361</v>
+        <v>0.9697801379646874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.026053496064843</v>
+        <v>1.0261168496805</v>
       </c>
       <c r="J20">
-        <v>0.9768112464457946</v>
+        <v>0.9769527371213608</v>
       </c>
       <c r="K20">
-        <v>0.9920821769687513</v>
+        <v>0.9921988182261574</v>
       </c>
       <c r="L20">
-        <v>0.9722745029608498</v>
+        <v>0.972417858793265</v>
       </c>
       <c r="M20">
-        <v>0.9842549455244389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9843760290562754</v>
+      </c>
+      <c r="N20">
+        <v>0.9752490840904383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9309001367248014</v>
+        <v>0.9310831031672759</v>
       </c>
       <c r="D21">
-        <v>0.9649599316218911</v>
+        <v>0.9651062525226024</v>
       </c>
       <c r="E21">
-        <v>0.9421899947838268</v>
+        <v>0.9423700823640235</v>
       </c>
       <c r="F21">
-        <v>0.9550903437010494</v>
+        <v>0.9552428713031896</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.019773269940217</v>
+        <v>1.01985114987629</v>
       </c>
       <c r="J21">
-        <v>0.9636006146818993</v>
+        <v>0.9637741864788679</v>
       </c>
       <c r="K21">
-        <v>0.9806370124878543</v>
+        <v>0.9807802894287819</v>
       </c>
       <c r="L21">
-        <v>0.9583561051228381</v>
+        <v>0.9585322015595601</v>
       </c>
       <c r="M21">
-        <v>0.9709755989699315</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9711248660051049</v>
+      </c>
+      <c r="N21">
+        <v>0.9645835124980859</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9199362708282055</v>
+        <v>0.9201451618866116</v>
       </c>
       <c r="D22">
-        <v>0.9563903571644108</v>
+        <v>0.956557024517501</v>
       </c>
       <c r="E22">
-        <v>0.9318708309731436</v>
+        <v>0.9320760148962653</v>
       </c>
       <c r="F22">
-        <v>0.9452504316103623</v>
+        <v>0.9454246294275663</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01550247837775</v>
+        <v>1.01559110257042</v>
       </c>
       <c r="J22">
-        <v>0.9546422618954641</v>
+        <v>0.9548394871491184</v>
       </c>
       <c r="K22">
-        <v>0.9728782261243122</v>
+        <v>0.973041179246362</v>
       </c>
       <c r="L22">
-        <v>0.9489245645116382</v>
+        <v>0.9491248473533274</v>
       </c>
       <c r="M22">
-        <v>0.9619905264279612</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9621607189884326</v>
+      </c>
+      <c r="N22">
+        <v>0.957326887037606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9258321570952447</v>
+        <v>0.9260268527978853</v>
       </c>
       <c r="D23">
-        <v>0.9609964716553973</v>
+        <v>0.9611520090458969</v>
       </c>
       <c r="E23">
-        <v>0.9374182915429683</v>
+        <v>0.9376097453840997</v>
       </c>
       <c r="F23">
-        <v>0.9505385339758965</v>
+        <v>0.9507008658951671</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.01780031242528</v>
+        <v>1.017883061001156</v>
       </c>
       <c r="J23">
-        <v>0.9594599487420599</v>
+        <v>0.9596442463545882</v>
       </c>
       <c r="K23">
-        <v>0.977050515294842</v>
+        <v>0.9772027107580814</v>
       </c>
       <c r="L23">
-        <v>0.9539960900561277</v>
+        <v>0.9541831492693484</v>
       </c>
       <c r="M23">
-        <v>0.9668206192363507</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9669793604041053</v>
+      </c>
+      <c r="N23">
+        <v>0.9612316226463108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9473353218074453</v>
+        <v>0.9474829493135416</v>
       </c>
       <c r="D24">
-        <v>0.9778378678058401</v>
+        <v>0.9779563072016316</v>
       </c>
       <c r="E24">
-        <v>0.9576844005394415</v>
+        <v>0.9578301209735655</v>
       </c>
       <c r="F24">
-        <v>0.9698907870271147</v>
+        <v>0.9700137805083869</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026153974037074</v>
+        <v>1.026217106257575</v>
       </c>
       <c r="J24">
-        <v>0.9770230313783048</v>
+        <v>0.9771640321459879</v>
       </c>
       <c r="K24">
-        <v>0.9922656837488552</v>
+        <v>0.9923819187395689</v>
       </c>
       <c r="L24">
-        <v>0.9724977396591756</v>
+        <v>0.9726405961096906</v>
       </c>
       <c r="M24">
-        <v>0.984468123489564</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9845887784971917</v>
+      </c>
+      <c r="N24">
+        <v>0.9754196830342097</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9695160721412337</v>
+        <v>0.9696215541136799</v>
       </c>
       <c r="D25">
-        <v>0.9952707748826429</v>
+        <v>0.9953557314792612</v>
       </c>
       <c r="E25">
-        <v>0.9786424810598918</v>
+        <v>0.9787469633924646</v>
       </c>
       <c r="F25">
-        <v>0.9899580904788721</v>
+        <v>0.9900458858684417</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034707942105994</v>
+        <v>1.034753319348184</v>
       </c>
       <c r="J25">
-        <v>0.9951147707872543</v>
+        <v>0.995216382307942</v>
       </c>
       <c r="K25">
-        <v>1.007942952303872</v>
+        <v>1.008026574119909</v>
       </c>
       <c r="L25">
-        <v>0.9915816473246876</v>
+        <v>0.9916844156426102</v>
       </c>
       <c r="M25">
-        <v>1.00271432039878</v>
+        <v>1.002800717375371</v>
+      </c>
+      <c r="N25">
+        <v>0.989940879004387</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9855956641540501</v>
+        <v>0.9994043799961947</v>
       </c>
       <c r="D2">
-        <v>1.007941557362896</v>
+        <v>1.015481125709244</v>
       </c>
       <c r="E2">
-        <v>0.9938719181297402</v>
+        <v>1.014546264814656</v>
       </c>
       <c r="F2">
-        <v>1.00456476802197</v>
+        <v>1.016342175967879</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040855961337054</v>
+        <v>1.040176138044324</v>
       </c>
       <c r="J2">
-        <v>1.008215911052289</v>
+        <v>1.021602920562371</v>
       </c>
       <c r="K2">
-        <v>1.01929135139914</v>
+        <v>1.026728916087007</v>
       </c>
       <c r="L2">
-        <v>1.005417292269762</v>
+        <v>1.025806599549096</v>
       </c>
       <c r="M2">
-        <v>1.015960872599318</v>
+        <v>1.027578438056052</v>
       </c>
       <c r="N2">
-        <v>1.000321119218403</v>
+        <v>1.023053713889062</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9964105466215573</v>
+        <v>1.009745173506103</v>
       </c>
       <c r="D3">
-        <v>1.01647436699237</v>
+        <v>1.023354132497571</v>
       </c>
       <c r="E3">
-        <v>1.004127026392715</v>
+        <v>1.024737692684411</v>
       </c>
       <c r="F3">
-        <v>1.014425035303482</v>
+        <v>1.027200160554359</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044952444439581</v>
+        <v>1.043094543285148</v>
       </c>
       <c r="J3">
-        <v>1.016999544356095</v>
+        <v>1.029973655233088</v>
       </c>
       <c r="K3">
-        <v>1.026900706852652</v>
+        <v>1.033696664891871</v>
       </c>
       <c r="L3">
-        <v>1.014707372096986</v>
+        <v>1.035063539623706</v>
       </c>
       <c r="M3">
-        <v>1.024876613046993</v>
+        <v>1.037496448554434</v>
       </c>
       <c r="N3">
-        <v>1.007291434584534</v>
+        <v>1.031436335963148</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.003095174459767</v>
+        <v>1.016166530253119</v>
       </c>
       <c r="D4">
-        <v>1.021752333423397</v>
+        <v>1.028244587474244</v>
       </c>
       <c r="E4">
-        <v>1.01047172935258</v>
+        <v>1.03107296212689</v>
       </c>
       <c r="F4">
-        <v>1.020532026846116</v>
+        <v>1.03395190814474</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047467533018054</v>
+        <v>1.044891164188257</v>
       </c>
       <c r="J4">
-        <v>1.02242003537986</v>
+        <v>1.035165544080742</v>
       </c>
       <c r="K4">
-        <v>1.031595128394101</v>
+        <v>1.038013669524227</v>
       </c>
       <c r="L4">
-        <v>1.020445391605387</v>
+        <v>1.040810288278238</v>
       </c>
       <c r="M4">
-        <v>1.030388806399293</v>
+        <v>1.043657130095971</v>
       </c>
       <c r="N4">
-        <v>1.011572965288604</v>
+        <v>1.036635597888484</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005836612748184</v>
+        <v>1.018806454925468</v>
       </c>
       <c r="D5">
-        <v>1.023917607287095</v>
+        <v>1.030255298582772</v>
       </c>
       <c r="E5">
-        <v>1.013075100732055</v>
+        <v>1.033679009825766</v>
       </c>
       <c r="F5">
-        <v>1.023039327491236</v>
+        <v>1.036729825231912</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048494841581842</v>
+        <v>1.045625934115625</v>
       </c>
       <c r="J5">
-        <v>1.024640887136224</v>
+        <v>1.037298460173426</v>
       </c>
       <c r="K5">
-        <v>1.033518104735686</v>
+        <v>1.039785982508433</v>
       </c>
       <c r="L5">
-        <v>1.022797532336871</v>
+        <v>1.043172416452758</v>
       </c>
       <c r="M5">
-        <v>1.032649583662248</v>
+        <v>1.046190268941484</v>
       </c>
       <c r="N5">
-        <v>1.013322398973425</v>
+        <v>1.038771542966669</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006293044762621</v>
+        <v>1.01924634776529</v>
       </c>
       <c r="D6">
-        <v>1.024278148516527</v>
+        <v>1.030590349280972</v>
       </c>
       <c r="E6">
-        <v>1.013508621231925</v>
+        <v>1.03411334458112</v>
       </c>
       <c r="F6">
-        <v>1.02345693346026</v>
+        <v>1.037192837779114</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048665634667068</v>
+        <v>1.045748140119032</v>
       </c>
       <c r="J6">
-        <v>1.025010516102862</v>
+        <v>1.037653775920369</v>
       </c>
       <c r="K6">
-        <v>1.033838131828602</v>
+        <v>1.04008115508484</v>
       </c>
       <c r="L6">
-        <v>1.023189082578057</v>
+        <v>1.043565990971729</v>
       </c>
       <c r="M6">
-        <v>1.03302599385283</v>
+        <v>1.046612388695099</v>
       </c>
       <c r="N6">
-        <v>1.013613286738163</v>
+        <v>1.039127363302728</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.003132068333978</v>
+        <v>1.016202033162262</v>
       </c>
       <c r="D7">
-        <v>1.021781470750464</v>
+        <v>1.028271628029605</v>
       </c>
       <c r="E7">
-        <v>1.010506759966342</v>
+        <v>1.031108003538879</v>
       </c>
       <c r="F7">
-        <v>1.020565759055211</v>
+        <v>1.033989258321262</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047481375008009</v>
+        <v>1.044901061107507</v>
       </c>
       <c r="J7">
-        <v>1.022449931912925</v>
+        <v>1.035194234781738</v>
       </c>
       <c r="K7">
-        <v>1.031621016643543</v>
+        <v>1.038037514390616</v>
       </c>
       <c r="L7">
-        <v>1.020477050783874</v>
+        <v>1.040842057153091</v>
       </c>
       <c r="M7">
-        <v>1.030419231159119</v>
+        <v>1.043691195466069</v>
       </c>
       <c r="N7">
-        <v>1.011596534641914</v>
+        <v>1.036664329333566</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9893195132306045</v>
+        <v>1.002958173221697</v>
       </c>
       <c r="D8">
-        <v>1.010878664164721</v>
+        <v>1.018186364195317</v>
       </c>
       <c r="E8">
-        <v>0.9974016502614328</v>
+        <v>1.018047253236906</v>
       </c>
       <c r="F8">
-        <v>1.007957125300279</v>
+        <v>1.020071714731592</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042270037785357</v>
+        <v>1.041182357856664</v>
       </c>
       <c r="J8">
-        <v>1.011242136198621</v>
+        <v>1.024480911784514</v>
       </c>
       <c r="K8">
-        <v>1.021913266092704</v>
+        <v>1.029125498163853</v>
       </c>
       <c r="L8">
-        <v>1.008616933262118</v>
+        <v>1.028988188537922</v>
       </c>
       <c r="M8">
-        <v>1.01903038033687</v>
+        <v>1.030986496107135</v>
       </c>
       <c r="N8">
-        <v>1.002726869661531</v>
+        <v>1.025935792188851</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9622449816397021</v>
+        <v>0.9772910279152328</v>
       </c>
       <c r="D9">
-        <v>0.9895521499542056</v>
+        <v>0.9986646625597676</v>
       </c>
       <c r="E9">
-        <v>0.9717716162984742</v>
+        <v>0.9927952333352271</v>
       </c>
       <c r="F9">
-        <v>0.9833595544494977</v>
+        <v>0.9931786801096669</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.0319178772994</v>
+        <v>1.033850580457942</v>
       </c>
       <c r="J9">
-        <v>0.9892052202513505</v>
+        <v>1.003671996057776</v>
       </c>
       <c r="K9">
-        <v>1.002817041588418</v>
+        <v>1.011779441898382</v>
       </c>
       <c r="L9">
-        <v>0.985339907834644</v>
+        <v>1.006006294516255</v>
       </c>
       <c r="M9">
-        <v>0.9967285069911075</v>
+        <v>1.006383406539546</v>
       </c>
       <c r="N9">
-        <v>0.9851180989285354</v>
+        <v>1.005097325414965</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9417698451360417</v>
+        <v>0.9581646796414471</v>
       </c>
       <c r="D10">
-        <v>0.9734757312289368</v>
+        <v>0.9841534662636752</v>
       </c>
       <c r="E10">
-        <v>0.9524409879477141</v>
+        <v>0.9740280155813734</v>
       </c>
       <c r="F10">
-        <v>0.9648614333730249</v>
+        <v>0.9731988201195045</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.024002835842803</v>
+        <v>1.028310017413913</v>
       </c>
       <c r="J10">
-        <v>0.9725006948213997</v>
+        <v>0.9881424136503587</v>
       </c>
       <c r="K10">
-        <v>0.9883409929922087</v>
+        <v>0.9988148530868675</v>
       </c>
       <c r="L10">
-        <v>0.9677255214346167</v>
+        <v>0.9888825886794781</v>
       </c>
       <c r="M10">
-        <v>0.9798954938951482</v>
+        <v>0.9880694470817935</v>
       </c>
       <c r="N10">
-        <v>0.9716514346353365</v>
+        <v>0.989545689219261</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9321490807905297</v>
+        <v>0.9492727803510953</v>
       </c>
       <c r="D11">
-        <v>0.965940373780384</v>
+        <v>0.9774211912955307</v>
       </c>
       <c r="E11">
-        <v>0.9433740497050151</v>
+        <v>0.9653173092377487</v>
       </c>
       <c r="F11">
-        <v>0.9562011641827391</v>
+        <v>0.9639258187197929</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.0202657816372</v>
+        <v>1.025718306390976</v>
       </c>
       <c r="J11">
-        <v>0.9646447971918467</v>
+        <v>0.9809194950619109</v>
       </c>
       <c r="K11">
-        <v>0.9815345160874919</v>
+        <v>0.9927818533143423</v>
       </c>
       <c r="L11">
-        <v>0.9594491463902377</v>
+        <v>0.980924332343001</v>
       </c>
       <c r="M11">
-        <v>0.9719991903415689</v>
+        <v>0.9795616879452607</v>
       </c>
       <c r="N11">
-        <v>0.9652895604375681</v>
+        <v>0.9823125132579377</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9284415961189512</v>
+        <v>0.9458637532636989</v>
       </c>
       <c r="D12">
-        <v>0.9630399941603737</v>
+        <v>0.974842823778891</v>
       </c>
       <c r="E12">
-        <v>0.9398827996305384</v>
+        <v>0.9619801381449763</v>
       </c>
       <c r="F12">
-        <v>0.9528693026779094</v>
+        <v>0.9603731866940431</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.018823246166384</v>
+        <v>1.024722557664842</v>
       </c>
       <c r="J12">
-        <v>0.9616166777065305</v>
+        <v>0.9781501156214024</v>
       </c>
       <c r="K12">
-        <v>0.9789112812095629</v>
+        <v>0.9904684051430079</v>
       </c>
       <c r="L12">
-        <v>0.9562600876927038</v>
+        <v>0.9778738794810347</v>
       </c>
       <c r="M12">
-        <v>0.9689588042901486</v>
+        <v>0.976301098430308</v>
       </c>
       <c r="N12">
-        <v>0.9628329892068874</v>
+        <v>0.9795392009809711</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9292433148777974</v>
+        <v>0.9466000771204802</v>
       </c>
       <c r="D13">
-        <v>0.9636670132920199</v>
+        <v>0.9753995997357439</v>
       </c>
       <c r="E13">
-        <v>0.9406376252091189</v>
+        <v>0.9627008294912788</v>
       </c>
       <c r="F13">
-        <v>0.9535895348507213</v>
+        <v>0.9611404127289245</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.019135288109144</v>
+        <v>1.024937722682533</v>
       </c>
       <c r="J13">
-        <v>0.9622715166920843</v>
+        <v>0.9787482854122861</v>
       </c>
       <c r="K13">
-        <v>0.9794785428002539</v>
+        <v>0.9909681071463812</v>
       </c>
       <c r="L13">
-        <v>0.9569496786354057</v>
+        <v>0.9785327213816462</v>
       </c>
       <c r="M13">
-        <v>0.9696161415522273</v>
+        <v>0.97700530496571</v>
       </c>
       <c r="N13">
-        <v>0.9633644246951721</v>
+        <v>0.9801382202415692</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9318454893182796</v>
+        <v>0.9489932514827347</v>
       </c>
       <c r="D14">
-        <v>0.9657027986934031</v>
+        <v>0.9772097156759018</v>
       </c>
       <c r="E14">
-        <v>0.9430881055785154</v>
+        <v>0.9650436224711649</v>
       </c>
       <c r="F14">
-        <v>0.9559282156291451</v>
+        <v>0.963634463241985</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.020147704795548</v>
+        <v>1.02563669950113</v>
       </c>
       <c r="J14">
-        <v>0.9643968495116467</v>
+        <v>0.9806924178385944</v>
       </c>
       <c r="K14">
-        <v>0.9813197123887242</v>
+        <v>0.992592165569153</v>
       </c>
       <c r="L14">
-        <v>0.9591879976663029</v>
+        <v>0.9806741911365194</v>
       </c>
       <c r="M14">
-        <v>0.97175016962997</v>
+        <v>0.9792943057205823</v>
       </c>
       <c r="N14">
-        <v>0.9650884995851415</v>
+        <v>0.9820851135589179</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9334303228045504</v>
+        <v>0.9504532025496317</v>
       </c>
       <c r="D15">
-        <v>0.966943152176345</v>
+        <v>0.9783143439910531</v>
       </c>
       <c r="E15">
-        <v>0.9445809308777836</v>
+        <v>0.9664731590159367</v>
       </c>
       <c r="F15">
-        <v>0.9573533104241486</v>
+        <v>0.9651562856440321</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.020764003869098</v>
+        <v>1.026062839892789</v>
       </c>
       <c r="J15">
-        <v>0.9656911782855692</v>
+        <v>0.9818784122195925</v>
       </c>
       <c r="K15">
-        <v>0.9824410402535599</v>
+        <v>0.9935828684538001</v>
       </c>
       <c r="L15">
-        <v>0.9605512841256202</v>
+        <v>0.9819806803602857</v>
       </c>
       <c r="M15">
-        <v>0.9730502351700585</v>
+        <v>0.9806908643778451</v>
       </c>
       <c r="N15">
-        <v>0.9661378962500593</v>
+        <v>0.9832727921879727</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9423908116216047</v>
+        <v>0.9587407874420252</v>
       </c>
       <c r="D16">
-        <v>0.9739625268790838</v>
+        <v>0.98458998437681</v>
       </c>
       <c r="E16">
-        <v>0.953026565735871</v>
+        <v>0.9745926946901238</v>
       </c>
       <c r="F16">
-        <v>0.9654211052088013</v>
+        <v>0.9737999521873193</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.024243698165501</v>
+        <v>1.028477630676005</v>
       </c>
       <c r="J16">
-        <v>0.9730076312023157</v>
+        <v>0.9886103435107882</v>
       </c>
       <c r="K16">
-        <v>0.9887802523712306</v>
+        <v>0.999205644890368</v>
       </c>
       <c r="L16">
-        <v>0.9682597437151157</v>
+        <v>0.9893982775252371</v>
       </c>
       <c r="M16">
-        <v>0.9804054684367054</v>
+        <v>0.9886208136599294</v>
       </c>
       <c r="N16">
-        <v>0.9720613764461029</v>
+        <v>0.9900142835937646</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9477965353309112</v>
+        <v>0.9637667846098452</v>
       </c>
       <c r="D17">
-        <v>0.9782023619868654</v>
+        <v>0.9883998090591831</v>
       </c>
       <c r="E17">
-        <v>0.9581260291973744</v>
+        <v>0.9795205936465982</v>
       </c>
       <c r="F17">
-        <v>0.9702967928537015</v>
+        <v>0.9790460218425042</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.026338527609994</v>
+        <v>1.02993815847007</v>
       </c>
       <c r="J17">
-        <v>0.9774199526904641</v>
+        <v>0.9926922631737396</v>
       </c>
       <c r="K17">
-        <v>0.9926036908686754</v>
+        <v>1.002614335399197</v>
       </c>
       <c r="L17">
-        <v>0.9729103802380759</v>
+        <v>0.9938974890355052</v>
       </c>
       <c r="M17">
-        <v>0.9848464731051988</v>
+        <v>0.9934317035612122</v>
       </c>
       <c r="N17">
-        <v>0.9756262943344124</v>
+        <v>0.9941020000508402</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9508783944764926</v>
+        <v>0.9666406369414684</v>
       </c>
       <c r="D18">
-        <v>0.9806211899668396</v>
+        <v>0.9905795109523594</v>
       </c>
       <c r="E18">
-        <v>0.9610347301735577</v>
+        <v>0.9823396505085933</v>
       </c>
       <c r="F18">
-        <v>0.9730793139102022</v>
+        <v>0.9820471510474434</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.027531141632732</v>
+        <v>1.030771797991731</v>
       </c>
       <c r="J18">
-        <v>0.9799348135736173</v>
+        <v>0.995025982947728</v>
       </c>
       <c r="K18">
-        <v>0.9947830266424811</v>
+        <v>1.004562860050551</v>
       </c>
       <c r="L18">
-        <v>0.9755617506939603</v>
+        <v>0.9964703504919131</v>
       </c>
       <c r="M18">
-        <v>0.9873794971642744</v>
+        <v>0.9961831408055076</v>
       </c>
       <c r="N18">
-        <v>0.9776555351915284</v>
+        <v>0.9964390339745893</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9519176882022158</v>
+        <v>0.9676111436141616</v>
       </c>
       <c r="D19">
-        <v>0.9814371533904643</v>
+        <v>0.991315798917589</v>
       </c>
       <c r="E19">
-        <v>0.9620158647238708</v>
+        <v>0.9832918660892105</v>
       </c>
       <c r="F19">
-        <v>0.9740181250883608</v>
+        <v>0.9830608798699597</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.027933035667094</v>
+        <v>1.031053060962513</v>
       </c>
       <c r="J19">
-        <v>0.9807827816016915</v>
+        <v>0.9958140260291074</v>
       </c>
       <c r="K19">
-        <v>0.9955178768464474</v>
+        <v>1.005220777301888</v>
       </c>
       <c r="L19">
-        <v>0.9764558619688281</v>
+        <v>0.9973392436749633</v>
       </c>
       <c r="M19">
-        <v>0.9882338897329855</v>
+        <v>0.9971124014443083</v>
       </c>
       <c r="N19">
-        <v>0.9783393148913704</v>
+        <v>0.997228196167534</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9472240486675476</v>
+        <v>0.9632336080597214</v>
       </c>
       <c r="D20">
-        <v>0.9777531705424575</v>
+        <v>0.9879955142342673</v>
       </c>
       <c r="E20">
-        <v>0.9575858235143803</v>
+        <v>0.9789976869648973</v>
       </c>
       <c r="F20">
-        <v>0.9697801379646874</v>
+        <v>0.9784893481667442</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.0261168496805</v>
+        <v>1.02978337347996</v>
       </c>
       <c r="J20">
-        <v>0.9769527371213608</v>
+        <v>0.9922592687066811</v>
       </c>
       <c r="K20">
-        <v>0.9921988182261574</v>
+        <v>1.002252784318871</v>
       </c>
       <c r="L20">
-        <v>0.972417858793265</v>
+        <v>0.9934201710480709</v>
       </c>
       <c r="M20">
-        <v>0.9843760290562754</v>
+        <v>0.992921284435091</v>
       </c>
       <c r="N20">
-        <v>0.9752490840904383</v>
+        <v>0.9936683906819734</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9310831031672759</v>
+        <v>0.9482915863177861</v>
       </c>
       <c r="D21">
-        <v>0.9651062525226024</v>
+        <v>0.9766789210799883</v>
       </c>
       <c r="E21">
-        <v>0.9423700823640235</v>
+        <v>0.9643566612064743</v>
       </c>
       <c r="F21">
-        <v>0.9552428713031896</v>
+        <v>0.9629031519385942</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.01985114987629</v>
+        <v>1.025431819230007</v>
       </c>
       <c r="J21">
-        <v>0.9637741864788679</v>
+        <v>0.9801224127792241</v>
       </c>
       <c r="K21">
-        <v>0.9807802894287819</v>
+        <v>0.9921160106458506</v>
       </c>
       <c r="L21">
-        <v>0.9585322015595601</v>
+        <v>0.9800463049889314</v>
       </c>
       <c r="M21">
-        <v>0.9711248660051049</v>
+        <v>0.9786231500800143</v>
       </c>
       <c r="N21">
-        <v>0.9645835124980859</v>
+        <v>0.9815142990269826</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9201451618866116</v>
+        <v>0.9382726594783124</v>
       </c>
       <c r="D22">
-        <v>0.956557024517501</v>
+        <v>0.9691071675663224</v>
       </c>
       <c r="E22">
-        <v>0.9320760148962653</v>
+        <v>0.9545538136251795</v>
       </c>
       <c r="F22">
-        <v>0.9454246294275663</v>
+        <v>0.952467154603491</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.01559110257042</v>
+        <v>1.022501661279787</v>
       </c>
       <c r="J22">
-        <v>0.9548394871491184</v>
+        <v>0.9719833081873903</v>
       </c>
       <c r="K22">
-        <v>0.973041179246362</v>
+        <v>0.9853165053342997</v>
       </c>
       <c r="L22">
-        <v>0.9491248473533274</v>
+        <v>0.971082724945061</v>
       </c>
       <c r="M22">
-        <v>0.9621607189884326</v>
+        <v>0.9690429538765213</v>
       </c>
       <c r="N22">
-        <v>0.957326887037606</v>
+        <v>0.9733636359730601</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9260268527978853</v>
+        <v>0.9436488747563506</v>
       </c>
       <c r="D23">
-        <v>0.9611520090458969</v>
+        <v>0.9731684757593543</v>
       </c>
       <c r="E23">
-        <v>0.9376097453840997</v>
+        <v>0.9598126552871944</v>
       </c>
       <c r="F23">
-        <v>0.9507008658951671</v>
+        <v>0.9580657337652652</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.017883061001156</v>
+        <v>1.024075048340495</v>
       </c>
       <c r="J23">
-        <v>0.9596442463545882</v>
+        <v>0.9763507993277009</v>
       </c>
       <c r="K23">
-        <v>0.9772027107580814</v>
+        <v>0.988965253387299</v>
       </c>
       <c r="L23">
-        <v>0.9541831492693484</v>
+        <v>0.9758921818816689</v>
       </c>
       <c r="M23">
-        <v>0.9669793604041053</v>
+        <v>0.9741830174731737</v>
       </c>
       <c r="N23">
-        <v>0.9612316226463108</v>
+        <v>0.9777373294517484</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9474829493135416</v>
+        <v>0.9634747049218206</v>
       </c>
       <c r="D24">
-        <v>0.9779563072016316</v>
+        <v>0.9881783282619361</v>
       </c>
       <c r="E24">
-        <v>0.9578301209735655</v>
+        <v>0.9792341358767235</v>
       </c>
       <c r="F24">
-        <v>0.9700137805083869</v>
+        <v>0.9787410657067714</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.026217106257575</v>
+        <v>1.029853370285191</v>
       </c>
       <c r="J24">
-        <v>0.9771640321459879</v>
+        <v>0.9924550652670845</v>
       </c>
       <c r="K24">
-        <v>0.9923819187395689</v>
+        <v>1.00241627569663</v>
       </c>
       <c r="L24">
-        <v>0.9726405961096906</v>
+        <v>0.9936360085714725</v>
       </c>
       <c r="M24">
-        <v>0.9845887784971917</v>
+        <v>0.9931520888260063</v>
       </c>
       <c r="N24">
-        <v>0.9754196830342097</v>
+        <v>0.9938644652959508</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9696215541136799</v>
+        <v>0.984243864588931</v>
       </c>
       <c r="D25">
-        <v>0.9953557314792612</v>
+        <v>1.00394833373713</v>
       </c>
       <c r="E25">
-        <v>0.9787469633924646</v>
+        <v>0.9996279625544443</v>
       </c>
       <c r="F25">
-        <v>0.9900458858684417</v>
+        <v>1.000453978335784</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034753319348184</v>
+        <v>1.035850198780833</v>
       </c>
       <c r="J25">
-        <v>0.995216382307942</v>
+        <v>1.009313374502171</v>
       </c>
       <c r="K25">
-        <v>1.008026574119909</v>
+        <v>1.016485664562549</v>
       </c>
       <c r="L25">
-        <v>0.9916844156426102</v>
+        <v>1.012232056671714</v>
       </c>
       <c r="M25">
-        <v>1.002800717375371</v>
+        <v>1.013045250960804</v>
       </c>
       <c r="N25">
-        <v>0.989940879004387</v>
+        <v>1.010746715263826</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9994043799961947</v>
+        <v>1.00648806779599</v>
       </c>
       <c r="D2">
-        <v>1.015481125709244</v>
+        <v>1.022658789031434</v>
       </c>
       <c r="E2">
-        <v>1.014546264814656</v>
+        <v>1.014620438920816</v>
       </c>
       <c r="F2">
-        <v>1.016342175967879</v>
+        <v>1.011491633591345</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040176138044324</v>
+        <v>1.043847567189159</v>
       </c>
       <c r="J2">
-        <v>1.021602920562371</v>
+        <v>1.028476438591763</v>
       </c>
       <c r="K2">
-        <v>1.026728916087007</v>
+        <v>1.033811224629752</v>
       </c>
       <c r="L2">
-        <v>1.025806599549096</v>
+        <v>1.025879777294806</v>
       </c>
       <c r="M2">
-        <v>1.027578438056052</v>
+        <v>1.022793159979972</v>
       </c>
       <c r="N2">
-        <v>1.023053713889062</v>
+        <v>1.029936993102462</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009745173506103</v>
+        <v>1.011063847349038</v>
       </c>
       <c r="D3">
-        <v>1.023354132497571</v>
+        <v>1.026072348101637</v>
       </c>
       <c r="E3">
-        <v>1.024737692684411</v>
+        <v>1.018697926162445</v>
       </c>
       <c r="F3">
-        <v>1.027200160554359</v>
+        <v>1.01685603222335</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.043094543285148</v>
+        <v>1.045325512343226</v>
       </c>
       <c r="J3">
-        <v>1.029973655233088</v>
+        <v>1.031257378387452</v>
       </c>
       <c r="K3">
-        <v>1.033696664891871</v>
+        <v>1.036382152273689</v>
       </c>
       <c r="L3">
-        <v>1.035063539623706</v>
+        <v>1.029097025304145</v>
       </c>
       <c r="M3">
-        <v>1.037496448554434</v>
+        <v>1.027277685786242</v>
       </c>
       <c r="N3">
-        <v>1.031436335963148</v>
+        <v>1.032721882151636</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.016166530253119</v>
+        <v>1.013962594707889</v>
       </c>
       <c r="D4">
-        <v>1.028244587474244</v>
+        <v>1.028237478309242</v>
       </c>
       <c r="E4">
-        <v>1.03107296212689</v>
+        <v>1.021286239074768</v>
       </c>
       <c r="F4">
-        <v>1.03395190814474</v>
+        <v>1.02025639049094</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044891164188257</v>
+        <v>1.046252913007469</v>
       </c>
       <c r="J4">
-        <v>1.035165544080742</v>
+        <v>1.033015756114363</v>
       </c>
       <c r="K4">
-        <v>1.038013669524227</v>
+        <v>1.03800664044933</v>
       </c>
       <c r="L4">
-        <v>1.040810288278238</v>
+        <v>1.031134370568186</v>
       </c>
       <c r="M4">
-        <v>1.043657130095971</v>
+        <v>1.030116334524974</v>
       </c>
       <c r="N4">
-        <v>1.036635597888484</v>
+        <v>1.034482756976609</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018806454925468</v>
+        <v>1.015166910580177</v>
       </c>
       <c r="D5">
-        <v>1.030255298582772</v>
+        <v>1.029137591371787</v>
       </c>
       <c r="E5">
-        <v>1.033679009825766</v>
+        <v>1.022362803120237</v>
       </c>
       <c r="F5">
-        <v>1.036729825231912</v>
+        <v>1.021669636825286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.045625934115625</v>
+        <v>1.046636051272886</v>
       </c>
       <c r="J5">
-        <v>1.037298460173426</v>
+        <v>1.033745462749334</v>
       </c>
       <c r="K5">
-        <v>1.039785982508433</v>
+        <v>1.038680510819627</v>
       </c>
       <c r="L5">
-        <v>1.043172416452758</v>
+        <v>1.031980590338336</v>
       </c>
       <c r="M5">
-        <v>1.046190268941484</v>
+        <v>1.03129515307779</v>
       </c>
       <c r="N5">
-        <v>1.038771542966669</v>
+        <v>1.0352134998787</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.01924634776529</v>
+        <v>1.015368296286466</v>
       </c>
       <c r="D6">
-        <v>1.030590349280972</v>
+        <v>1.02928814136447</v>
       </c>
       <c r="E6">
-        <v>1.03411334458112</v>
+        <v>1.02254289701218</v>
       </c>
       <c r="F6">
-        <v>1.037192837779114</v>
+        <v>1.021905992371376</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.045748140119032</v>
+        <v>1.04669999176495</v>
       </c>
       <c r="J6">
-        <v>1.037653775920369</v>
+        <v>1.033867434667312</v>
       </c>
       <c r="K6">
-        <v>1.04008115508484</v>
+        <v>1.038793133224834</v>
       </c>
       <c r="L6">
-        <v>1.043565990971729</v>
+        <v>1.032122081544292</v>
       </c>
       <c r="M6">
-        <v>1.046612388695099</v>
+        <v>1.031492244616748</v>
       </c>
       <c r="N6">
-        <v>1.039127363302728</v>
+        <v>1.035335645010791</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.016202033162262</v>
+        <v>1.013978742390644</v>
       </c>
       <c r="D7">
-        <v>1.028271628029605</v>
+        <v>1.028249544932901</v>
       </c>
       <c r="E7">
-        <v>1.031108003538879</v>
+        <v>1.021300669056053</v>
       </c>
       <c r="F7">
-        <v>1.033989258321262</v>
+        <v>1.020275337395178</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044901061107507</v>
+        <v>1.046258058769441</v>
       </c>
       <c r="J7">
-        <v>1.035194234781738</v>
+        <v>1.03302554346916</v>
       </c>
       <c r="K7">
-        <v>1.038037514390616</v>
+        <v>1.038015679982008</v>
       </c>
       <c r="L7">
-        <v>1.040842057153091</v>
+        <v>1.031145717733497</v>
       </c>
       <c r="M7">
-        <v>1.043691195466069</v>
+        <v>1.030132142397626</v>
       </c>
       <c r="N7">
-        <v>1.036664329333566</v>
+        <v>1.034492558230572</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.002958173221697</v>
+        <v>1.008047667938922</v>
       </c>
       <c r="D8">
-        <v>1.018186364195317</v>
+        <v>1.023821674375467</v>
       </c>
       <c r="E8">
-        <v>1.018047253236906</v>
+        <v>1.016009083035138</v>
       </c>
       <c r="F8">
-        <v>1.020071714731592</v>
+        <v>1.013319629564118</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041182357856664</v>
+        <v>1.044353149879953</v>
       </c>
       <c r="J8">
-        <v>1.024480911784514</v>
+        <v>1.029424972413294</v>
       </c>
       <c r="K8">
-        <v>1.029125498163853</v>
+        <v>1.034688351629171</v>
       </c>
       <c r="L8">
-        <v>1.028988188537922</v>
+        <v>1.026976481195518</v>
       </c>
       <c r="M8">
-        <v>1.030986496107135</v>
+        <v>1.024322150745535</v>
       </c>
       <c r="N8">
-        <v>1.025935792188851</v>
+        <v>1.030886873950815</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9772910279152328</v>
+        <v>0.9970947402658901</v>
       </c>
       <c r="D9">
-        <v>0.9986646625597676</v>
+        <v>1.015668188959476</v>
       </c>
       <c r="E9">
-        <v>0.9927952333352271</v>
+        <v>1.006280482392912</v>
       </c>
       <c r="F9">
-        <v>0.9931786801096669</v>
+        <v>1.000488371893408</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.033850580457942</v>
+        <v>1.040766073450509</v>
       </c>
       <c r="J9">
-        <v>1.003671996057776</v>
+        <v>1.02275050952594</v>
       </c>
       <c r="K9">
-        <v>1.011779441898382</v>
+        <v>1.028512074450488</v>
       </c>
       <c r="L9">
-        <v>1.006006294516255</v>
+        <v>1.019272478396674</v>
       </c>
       <c r="M9">
-        <v>1.006383406539546</v>
+        <v>1.013573530570477</v>
       </c>
       <c r="N9">
-        <v>1.005097325414965</v>
+        <v>1.02420293256059</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9581646796414471</v>
+        <v>0.9894164889007185</v>
       </c>
       <c r="D10">
-        <v>0.9841534662636752</v>
+        <v>1.009971840004254</v>
       </c>
       <c r="E10">
-        <v>0.9740280155813734</v>
+        <v>0.999492436709396</v>
       </c>
       <c r="F10">
-        <v>0.9731988201195045</v>
+        <v>0.9914993396046212</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028310017413913</v>
+        <v>1.038206581189987</v>
       </c>
       <c r="J10">
-        <v>0.9881424136503587</v>
+        <v>1.018056397963409</v>
       </c>
       <c r="K10">
-        <v>0.9988148530868675</v>
+        <v>1.024163354060632</v>
       </c>
       <c r="L10">
-        <v>0.9888825886794781</v>
+        <v>1.013870861419369</v>
       </c>
       <c r="M10">
-        <v>0.9880694470817935</v>
+        <v>1.006023791248873</v>
       </c>
       <c r="N10">
-        <v>0.989545689219261</v>
+        <v>1.019502154821218</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9492727803510953</v>
+        <v>0.9859929417034257</v>
       </c>
       <c r="D11">
-        <v>0.9774211912955307</v>
+        <v>1.007437421261125</v>
       </c>
       <c r="E11">
-        <v>0.9653173092377487</v>
+        <v>0.9964739933728067</v>
       </c>
       <c r="F11">
-        <v>0.9639258187197929</v>
+        <v>0.9874919205086183</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.025718306390976</v>
+        <v>1.037055194725552</v>
       </c>
       <c r="J11">
-        <v>0.9809194950619109</v>
+        <v>1.015960267735526</v>
       </c>
       <c r="K11">
-        <v>0.9927818533143423</v>
+        <v>1.022220428589338</v>
       </c>
       <c r="L11">
-        <v>0.980924332343001</v>
+        <v>1.011462712771622</v>
       </c>
       <c r="M11">
-        <v>0.9795616879452607</v>
+        <v>1.002653639778155</v>
       </c>
       <c r="N11">
-        <v>0.9823125132579377</v>
+        <v>1.017403047847983</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9458637532636989</v>
+        <v>0.9847055553978482</v>
       </c>
       <c r="D12">
-        <v>0.974842823778891</v>
+        <v>1.006485274960905</v>
       </c>
       <c r="E12">
-        <v>0.9619801381449763</v>
+        <v>0.9953402262146963</v>
       </c>
       <c r="F12">
-        <v>0.9603731866940431</v>
+        <v>0.9859849834546538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.024722557664842</v>
+        <v>1.036620742855579</v>
       </c>
       <c r="J12">
-        <v>0.9781501156214024</v>
+        <v>1.015171610752361</v>
       </c>
       <c r="K12">
-        <v>0.9904684051430079</v>
+        <v>1.021489273194764</v>
       </c>
       <c r="L12">
-        <v>0.9778738794810347</v>
+        <v>1.010557247979101</v>
       </c>
       <c r="M12">
-        <v>0.976301098430308</v>
+        <v>1.001385706506198</v>
       </c>
       <c r="N12">
-        <v>0.9795392009809711</v>
+        <v>1.01661327088144</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9466000771204802</v>
+        <v>0.9849824307925462</v>
       </c>
       <c r="D13">
-        <v>0.9753995997357439</v>
+        <v>1.006690009408832</v>
       </c>
       <c r="E13">
-        <v>0.9627008294912788</v>
+        <v>0.9955840041276736</v>
       </c>
       <c r="F13">
-        <v>0.9611404127289245</v>
+        <v>0.9863090781370552</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.024937722682533</v>
+        <v>1.036714245919796</v>
       </c>
       <c r="J13">
-        <v>0.9787482854122861</v>
+        <v>1.015341244298714</v>
       </c>
       <c r="K13">
-        <v>0.9909681071463812</v>
+        <v>1.021646544765688</v>
       </c>
       <c r="L13">
-        <v>0.9785327213816462</v>
+        <v>1.010751979387698</v>
       </c>
       <c r="M13">
-        <v>0.97700530496571</v>
+        <v>1.001658427120506</v>
       </c>
       <c r="N13">
-        <v>0.9801382202415692</v>
+        <v>1.016783145326887</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9489932514827347</v>
+        <v>0.9858868521486046</v>
       </c>
       <c r="D14">
-        <v>0.9772097156759018</v>
+        <v>1.007358939207363</v>
       </c>
       <c r="E14">
-        <v>0.9650436224711649</v>
+        <v>0.9963805366710184</v>
       </c>
       <c r="F14">
-        <v>0.963634463241985</v>
+        <v>0.9873677387692135</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02563669950113</v>
+        <v>1.037019422829023</v>
       </c>
       <c r="J14">
-        <v>0.9806924178385944</v>
+        <v>1.015895285448058</v>
       </c>
       <c r="K14">
-        <v>0.992592165569153</v>
+        <v>1.0221601869915</v>
       </c>
       <c r="L14">
-        <v>0.9806741911365194</v>
+        <v>1.011388094041397</v>
       </c>
       <c r="M14">
-        <v>0.9792943057205823</v>
+        <v>1.002549166244739</v>
       </c>
       <c r="N14">
-        <v>0.9820851135589179</v>
+        <v>1.017337973278212</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9504532025496317</v>
+        <v>0.9864419842803454</v>
       </c>
       <c r="D15">
-        <v>0.9783143439910531</v>
+        <v>1.007769647124256</v>
       </c>
       <c r="E15">
-        <v>0.9664731590159367</v>
+        <v>0.9968696178680819</v>
       </c>
       <c r="F15">
-        <v>0.9651562856440321</v>
+        <v>0.988017541247863</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026062839892789</v>
+        <v>1.037206545227606</v>
       </c>
       <c r="J15">
-        <v>0.9818784122195925</v>
+        <v>1.016235299310394</v>
       </c>
       <c r="K15">
-        <v>0.9935828684538001</v>
+        <v>1.022475389974737</v>
       </c>
       <c r="L15">
-        <v>0.9819806803602857</v>
+        <v>1.011778553632955</v>
       </c>
       <c r="M15">
-        <v>0.9806908643778451</v>
+        <v>1.003095816516681</v>
       </c>
       <c r="N15">
-        <v>0.9832727921879727</v>
+        <v>1.017678469999234</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9587407874420252</v>
+        <v>0.9896415427223867</v>
       </c>
       <c r="D16">
-        <v>0.98458998437681</v>
+        <v>1.010138564814126</v>
       </c>
       <c r="E16">
-        <v>0.9745926946901238</v>
+        <v>0.9996910351700222</v>
       </c>
       <c r="F16">
-        <v>0.9737999521873193</v>
+        <v>0.9917627808952142</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028477630676005</v>
+        <v>1.038282061641641</v>
       </c>
       <c r="J16">
-        <v>0.9886103435107882</v>
+        <v>1.018194129370654</v>
       </c>
       <c r="K16">
-        <v>0.999205644890368</v>
+        <v>1.024290998514737</v>
       </c>
       <c r="L16">
-        <v>0.9893982775252371</v>
+        <v>1.014029176158341</v>
       </c>
       <c r="M16">
-        <v>0.9886208136599294</v>
+        <v>1.006245250460916</v>
       </c>
       <c r="N16">
-        <v>0.9900142835937646</v>
+        <v>1.019640081822859</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>0.9637667846098452</v>
+        <v>0.9916214834186208</v>
       </c>
       <c r="D17">
-        <v>0.9883998090591831</v>
+        <v>1.011605976559339</v>
       </c>
       <c r="E17">
-        <v>0.9795205936465982</v>
+        <v>1.001439168477328</v>
       </c>
       <c r="F17">
-        <v>0.9790460218425042</v>
+        <v>0.9940804968220193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.02993815847007</v>
+        <v>1.038944958950225</v>
       </c>
       <c r="J17">
-        <v>0.9926922631737396</v>
+        <v>1.01940548733104</v>
       </c>
       <c r="K17">
-        <v>1.002614335399197</v>
+        <v>1.025413525749861</v>
       </c>
       <c r="L17">
-        <v>0.9938974890355052</v>
+        <v>1.015422010824425</v>
       </c>
       <c r="M17">
-        <v>0.9934317035612122</v>
+        <v>1.008193118592174</v>
       </c>
       <c r="N17">
-        <v>0.9941020000508402</v>
+        <v>1.020853160050494</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9666406369414684</v>
+        <v>0.9927668783027535</v>
       </c>
       <c r="D18">
-        <v>0.9905795109523594</v>
+        <v>1.012455384859324</v>
       </c>
       <c r="E18">
-        <v>0.9823396505085933</v>
+        <v>1.002451234899871</v>
       </c>
       <c r="F18">
-        <v>0.9820471510474434</v>
+        <v>0.9954213544143524</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.030771797991731</v>
+        <v>1.039327477651647</v>
       </c>
       <c r="J18">
-        <v>0.995025982947728</v>
+        <v>1.020105957035943</v>
       </c>
       <c r="K18">
-        <v>1.004562860050551</v>
+        <v>1.026062530660398</v>
       </c>
       <c r="L18">
-        <v>0.9964703504919131</v>
+        <v>1.016227790556354</v>
       </c>
       <c r="M18">
-        <v>0.9961831408055076</v>
+        <v>1.009319592065725</v>
       </c>
       <c r="N18">
-        <v>0.9964390339745893</v>
+        <v>1.021554624502722</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9676111436141616</v>
+        <v>0.9931558476339906</v>
       </c>
       <c r="D19">
-        <v>0.991315798917589</v>
+        <v>1.012743923435547</v>
       </c>
       <c r="E19">
-        <v>0.9832918660892105</v>
+        <v>1.002795056038851</v>
       </c>
       <c r="F19">
-        <v>0.9830608798699597</v>
+        <v>0.9958767141191872</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.031053060962513</v>
+        <v>1.039457213467291</v>
       </c>
       <c r="J19">
-        <v>0.9958140260291074</v>
+        <v>1.020343780269527</v>
       </c>
       <c r="K19">
-        <v>1.005220777301888</v>
+        <v>1.026282863517699</v>
       </c>
       <c r="L19">
-        <v>0.9973392436749633</v>
+        <v>1.016501431544973</v>
       </c>
       <c r="M19">
-        <v>0.9971124014443083</v>
+        <v>1.009702074578784</v>
       </c>
       <c r="N19">
-        <v>0.997228196167534</v>
+        <v>1.021792785472578</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9632336080597214</v>
+        <v>0.991410040319704</v>
       </c>
       <c r="D20">
-        <v>0.9879955142342673</v>
+        <v>1.011449214215206</v>
       </c>
       <c r="E20">
-        <v>0.9789976869648973</v>
+        <v>1.00125240021303</v>
       </c>
       <c r="F20">
-        <v>0.9784893481667442</v>
+        <v>0.9938329761390913</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.02978337347996</v>
+        <v>1.038874266453215</v>
       </c>
       <c r="J20">
-        <v>0.9922592687066811</v>
+        <v>1.019276154097892</v>
       </c>
       <c r="K20">
-        <v>1.002252784318871</v>
+        <v>1.025293686824913</v>
       </c>
       <c r="L20">
-        <v>0.9934201710480709</v>
+        <v>1.01527326336292</v>
       </c>
       <c r="M20">
-        <v>0.992921284435091</v>
+        <v>1.007985139001843</v>
       </c>
       <c r="N20">
-        <v>0.9936683906819734</v>
+        <v>1.02072364314932</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9482915863177861</v>
+        <v>0.9856209642122893</v>
       </c>
       <c r="D21">
-        <v>0.9766789210799883</v>
+        <v>1.007162257477788</v>
       </c>
       <c r="E21">
-        <v>0.9643566612064743</v>
+        <v>0.9961463308204157</v>
       </c>
       <c r="F21">
-        <v>0.9629031519385942</v>
+        <v>0.9870565069717142</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025431819230007</v>
+        <v>1.036929745392314</v>
       </c>
       <c r="J21">
-        <v>0.9801224127792241</v>
+        <v>1.015732416186409</v>
       </c>
       <c r="K21">
-        <v>0.9921160106458506</v>
+        <v>1.022009197402759</v>
       </c>
       <c r="L21">
-        <v>0.9800463049889314</v>
+        <v>1.011201081803939</v>
       </c>
       <c r="M21">
-        <v>0.9786231500800143</v>
+        <v>1.002287318257437</v>
       </c>
       <c r="N21">
-        <v>0.9815142990269826</v>
+        <v>1.017174872723531</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9382726594783124</v>
+        <v>0.9818896547564196</v>
       </c>
       <c r="D22">
-        <v>0.9691071675663224</v>
+        <v>1.0044043741854</v>
       </c>
       <c r="E22">
-        <v>0.9545538136251795</v>
+        <v>0.9928627627412849</v>
       </c>
       <c r="F22">
-        <v>0.952467154603491</v>
+        <v>0.982688781035705</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.022501661279787</v>
+        <v>1.035667780884084</v>
       </c>
       <c r="J22">
-        <v>0.9719833081873903</v>
+        <v>1.013445835096131</v>
       </c>
       <c r="K22">
-        <v>0.9853165053342997</v>
+        <v>1.019889081601525</v>
       </c>
       <c r="L22">
-        <v>0.971082724945061</v>
+        <v>1.008576948144373</v>
       </c>
       <c r="M22">
-        <v>0.9690429538765213</v>
+        <v>0.9986111578247339</v>
       </c>
       <c r="N22">
-        <v>0.9733636359730601</v>
+        <v>1.014885044425829</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9436488747563506</v>
+        <v>0.9838766772360756</v>
       </c>
       <c r="D23">
-        <v>0.9731684757593543</v>
+        <v>1.005872501076804</v>
       </c>
       <c r="E23">
-        <v>0.9598126552871944</v>
+        <v>0.9946106241714895</v>
       </c>
       <c r="F23">
-        <v>0.9580657337652652</v>
+        <v>0.9850147402665055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024075048340495</v>
+        <v>1.036340609552759</v>
       </c>
       <c r="J23">
-        <v>0.9763507993277009</v>
+        <v>1.014663721171339</v>
       </c>
       <c r="K23">
-        <v>0.988965253387299</v>
+        <v>1.021018376298609</v>
       </c>
       <c r="L23">
-        <v>0.9758921818816689</v>
+        <v>1.009974300439914</v>
       </c>
       <c r="M23">
-        <v>0.9741830174731737</v>
+        <v>1.00056917151955</v>
       </c>
       <c r="N23">
-        <v>0.9777373294517484</v>
+        <v>1.016104660038958</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9634747049218206</v>
+        <v>0.9915056115583089</v>
       </c>
       <c r="D24">
-        <v>0.9881783282619361</v>
+        <v>1.011520068442544</v>
       </c>
       <c r="E24">
-        <v>0.9792341358767235</v>
+        <v>1.001336816158098</v>
       </c>
       <c r="F24">
-        <v>0.9787410657067714</v>
+        <v>0.9939448540763153</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029853370285191</v>
+        <v>1.038906222115682</v>
       </c>
       <c r="J24">
-        <v>0.9924550652670845</v>
+        <v>1.019334613016408</v>
       </c>
       <c r="K24">
-        <v>1.00241627569663</v>
+        <v>1.025347854600169</v>
       </c>
       <c r="L24">
-        <v>0.9936360085714725</v>
+        <v>1.015340496407039</v>
       </c>
       <c r="M24">
-        <v>0.9931520888260063</v>
+        <v>1.008079145888168</v>
       </c>
       <c r="N24">
-        <v>0.9938644652959508</v>
+        <v>1.020782185086206</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.984243864588931</v>
+        <v>0.9999896320701782</v>
       </c>
       <c r="D25">
-        <v>1.00394833373713</v>
+        <v>1.017820097500852</v>
       </c>
       <c r="E25">
-        <v>0.9996279625544443</v>
+        <v>1.008846475001228</v>
       </c>
       <c r="F25">
-        <v>1.000453978335784</v>
+        <v>1.003878424732767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035850198780833</v>
+        <v>1.041722024045161</v>
       </c>
       <c r="J25">
-        <v>1.009313374502171</v>
+        <v>1.024517345142465</v>
       </c>
       <c r="K25">
-        <v>1.016485664562549</v>
+        <v>1.030147937235322</v>
       </c>
       <c r="L25">
-        <v>1.012232056671714</v>
+        <v>1.021308995689612</v>
       </c>
       <c r="M25">
-        <v>1.013045250960804</v>
+        <v>1.016416830033804</v>
       </c>
       <c r="N25">
-        <v>1.010746715263826</v>
+        <v>1.025972277286349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.00648806779599</v>
+        <v>1.034790442102991</v>
       </c>
       <c r="D2">
-        <v>1.022658789031434</v>
+        <v>1.038716206233262</v>
       </c>
       <c r="E2">
-        <v>1.014620438920816</v>
+        <v>1.03843578859248</v>
       </c>
       <c r="F2">
-        <v>1.011491633591345</v>
+        <v>1.044195948559976</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043847567189159</v>
+        <v>1.038201528602054</v>
       </c>
       <c r="J2">
-        <v>1.028476438591763</v>
+        <v>1.039907758145235</v>
       </c>
       <c r="K2">
-        <v>1.033811224629752</v>
+        <v>1.041503447536725</v>
       </c>
       <c r="L2">
-        <v>1.025879777294806</v>
+        <v>1.041223828371244</v>
       </c>
       <c r="M2">
-        <v>1.022793159979972</v>
+        <v>1.046967679970012</v>
       </c>
       <c r="N2">
-        <v>1.029936993102462</v>
+        <v>1.041384546440889</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011063847349038</v>
+        <v>1.035746478966521</v>
       </c>
       <c r="D3">
-        <v>1.026072348101637</v>
+        <v>1.03944823678058</v>
       </c>
       <c r="E3">
-        <v>1.018697926162445</v>
+        <v>1.039340030694109</v>
       </c>
       <c r="F3">
-        <v>1.01685603222335</v>
+        <v>1.045391379218684</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045325512343226</v>
+        <v>1.038459207182103</v>
       </c>
       <c r="J3">
-        <v>1.031257378387452</v>
+        <v>1.04050704043046</v>
       </c>
       <c r="K3">
-        <v>1.036382152273689</v>
+        <v>1.042045754640834</v>
       </c>
       <c r="L3">
-        <v>1.029097025304145</v>
+        <v>1.041937834376365</v>
       </c>
       <c r="M3">
-        <v>1.027277685786242</v>
+        <v>1.047973296641507</v>
       </c>
       <c r="N3">
-        <v>1.032721882151636</v>
+        <v>1.041984679775697</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.013962594707889</v>
+        <v>1.036365383970425</v>
       </c>
       <c r="D4">
-        <v>1.028237478309242</v>
+        <v>1.039922111136398</v>
       </c>
       <c r="E4">
-        <v>1.021286239074768</v>
+        <v>1.039925763850363</v>
       </c>
       <c r="F4">
-        <v>1.02025639049094</v>
+        <v>1.046165556971385</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046252913007469</v>
+        <v>1.038624907487465</v>
       </c>
       <c r="J4">
-        <v>1.033015756114363</v>
+        <v>1.040894491619613</v>
       </c>
       <c r="K4">
-        <v>1.03800664044933</v>
+        <v>1.042396197514024</v>
       </c>
       <c r="L4">
-        <v>1.031134370568186</v>
+        <v>1.042399841065588</v>
       </c>
       <c r="M4">
-        <v>1.030116334524974</v>
+        <v>1.048624082952428</v>
       </c>
       <c r="N4">
-        <v>1.034482756976609</v>
+        <v>1.04237268118998</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015166910580177</v>
+        <v>1.036625639409269</v>
       </c>
       <c r="D5">
-        <v>1.029137591371787</v>
+        <v>1.040121375220806</v>
       </c>
       <c r="E5">
-        <v>1.022362803120237</v>
+        <v>1.040172155552782</v>
       </c>
       <c r="F5">
-        <v>1.021669636825286</v>
+        <v>1.046491178156996</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046636051272886</v>
+        <v>1.038694319800179</v>
       </c>
       <c r="J5">
-        <v>1.033745462749334</v>
+        <v>1.041057297845013</v>
       </c>
       <c r="K5">
-        <v>1.038680510819627</v>
+        <v>1.042543411494431</v>
       </c>
       <c r="L5">
-        <v>1.031980590338336</v>
+        <v>1.042594067288344</v>
       </c>
       <c r="M5">
-        <v>1.03129515307779</v>
+        <v>1.048897693980724</v>
       </c>
       <c r="N5">
-        <v>1.0352134998787</v>
+        <v>1.042535718618893</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015368296286466</v>
+        <v>1.036669341402326</v>
       </c>
       <c r="D6">
-        <v>1.02928814136447</v>
+        <v>1.040154835283231</v>
       </c>
       <c r="E6">
-        <v>1.02254289701218</v>
+        <v>1.040213534544231</v>
       </c>
       <c r="F6">
-        <v>1.021905992371376</v>
+        <v>1.046545860592434</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04669999176495</v>
+        <v>1.03870595987513</v>
       </c>
       <c r="J6">
-        <v>1.033867434667312</v>
+        <v>1.041084629121421</v>
       </c>
       <c r="K6">
-        <v>1.038793133224834</v>
+        <v>1.042568122771807</v>
       </c>
       <c r="L6">
-        <v>1.032122081544292</v>
+        <v>1.042626678624417</v>
       </c>
       <c r="M6">
-        <v>1.031492244616748</v>
+        <v>1.048943635679182</v>
       </c>
       <c r="N6">
-        <v>1.035335645010791</v>
+        <v>1.04256308870885</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.013978742390644</v>
+        <v>1.036368861250651</v>
       </c>
       <c r="D7">
-        <v>1.028249544932901</v>
+        <v>1.039924773528183</v>
       </c>
       <c r="E7">
-        <v>1.021300669056053</v>
+        <v>1.039929055562072</v>
       </c>
       <c r="F7">
-        <v>1.020275337395178</v>
+        <v>1.046169907320934</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046258058769441</v>
+        <v>1.038625835953429</v>
       </c>
       <c r="J7">
-        <v>1.03302554346916</v>
+        <v>1.040896667352553</v>
       </c>
       <c r="K7">
-        <v>1.038015679982008</v>
+        <v>1.042398165036094</v>
       </c>
       <c r="L7">
-        <v>1.031145717733497</v>
+        <v>1.042402436332197</v>
       </c>
       <c r="M7">
-        <v>1.030132142397626</v>
+        <v>1.048627738875843</v>
       </c>
       <c r="N7">
-        <v>1.034492558230572</v>
+        <v>1.042374860012711</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.008047667938922</v>
+        <v>1.03511347987299</v>
       </c>
       <c r="D8">
-        <v>1.023821674375467</v>
+        <v>1.038963557050808</v>
       </c>
       <c r="E8">
-        <v>1.016009083035138</v>
+        <v>1.038741250876887</v>
       </c>
       <c r="F8">
-        <v>1.013319629564118</v>
+        <v>1.044599814642211</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044353149879953</v>
+        <v>1.03828882638681</v>
       </c>
       <c r="J8">
-        <v>1.029424972413294</v>
+        <v>1.040110355254931</v>
       </c>
       <c r="K8">
-        <v>1.034688351629171</v>
+        <v>1.041686818894044</v>
       </c>
       <c r="L8">
-        <v>1.026976481195518</v>
+        <v>1.041465130240075</v>
       </c>
       <c r="M8">
-        <v>1.024322150745535</v>
+        <v>1.047307515271457</v>
       </c>
       <c r="N8">
-        <v>1.030886873950815</v>
+        <v>1.041587431261718</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9970947402658901</v>
+        <v>1.032903544229618</v>
       </c>
       <c r="D9">
-        <v>1.015668188959476</v>
+        <v>1.037271357737752</v>
       </c>
       <c r="E9">
-        <v>1.006280482392912</v>
+        <v>1.036653035782569</v>
       </c>
       <c r="F9">
-        <v>1.000488371893408</v>
+        <v>1.041838109732422</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040766073450509</v>
+        <v>1.037687060066488</v>
       </c>
       <c r="J9">
-        <v>1.02275050952594</v>
+        <v>1.038722312146304</v>
       </c>
       <c r="K9">
-        <v>1.028512074450488</v>
+        <v>1.040429793753111</v>
       </c>
       <c r="L9">
-        <v>1.019272478396674</v>
+        <v>1.039813484744166</v>
       </c>
       <c r="M9">
-        <v>1.013573530570477</v>
+        <v>1.044981759725218</v>
       </c>
       <c r="N9">
-        <v>1.02420293256059</v>
+        <v>1.040197416972666</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9894164889007185</v>
+        <v>1.031431765478655</v>
       </c>
       <c r="D10">
-        <v>1.009971840004254</v>
+        <v>1.036144348111608</v>
       </c>
       <c r="E10">
-        <v>0.999492436709396</v>
+        <v>1.035264202541089</v>
       </c>
       <c r="F10">
-        <v>0.9914993396046212</v>
+        <v>1.040000315656323</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038206581189987</v>
+        <v>1.037280581097304</v>
       </c>
       <c r="J10">
-        <v>1.018056397963409</v>
+        <v>1.037795327685763</v>
       </c>
       <c r="K10">
-        <v>1.024163354060632</v>
+        <v>1.039589431026478</v>
       </c>
       <c r="L10">
-        <v>1.013870861419369</v>
+        <v>1.038712432094599</v>
       </c>
       <c r="M10">
-        <v>1.006023791248873</v>
+        <v>1.04343168219719</v>
       </c>
       <c r="N10">
-        <v>1.019502154821218</v>
+        <v>1.039269116087864</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9859929417034257</v>
+        <v>1.030794832818878</v>
       </c>
       <c r="D11">
-        <v>1.007437421261125</v>
+        <v>1.035656618422717</v>
       </c>
       <c r="E11">
-        <v>0.9964739933728067</v>
+        <v>1.034663617661529</v>
       </c>
       <c r="F11">
-        <v>0.9874919205086183</v>
+        <v>1.039205318328396</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037055194725552</v>
+        <v>1.037103317426791</v>
       </c>
       <c r="J11">
-        <v>1.015960267735526</v>
+        <v>1.037393554713374</v>
       </c>
       <c r="K11">
-        <v>1.022220428589338</v>
+        <v>1.039224995417682</v>
       </c>
       <c r="L11">
-        <v>1.011462712771622</v>
+        <v>1.038235682489067</v>
       </c>
       <c r="M11">
-        <v>1.002653639778155</v>
+        <v>1.042760579767062</v>
       </c>
       <c r="N11">
-        <v>1.017403047847983</v>
+        <v>1.038866772551771</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9847055553978482</v>
+        <v>1.030558301682034</v>
       </c>
       <c r="D12">
-        <v>1.006485274960905</v>
+        <v>1.035475495785759</v>
       </c>
       <c r="E12">
-        <v>0.9953402262146963</v>
+        <v>1.034440653007373</v>
       </c>
       <c r="F12">
-        <v>0.9859849834546538</v>
+        <v>1.038910137518688</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036620742855579</v>
+        <v>1.037037285417117</v>
       </c>
       <c r="J12">
-        <v>1.015171610752361</v>
+        <v>1.037244261317706</v>
       </c>
       <c r="K12">
-        <v>1.021489273194764</v>
+        <v>1.039089545248842</v>
       </c>
       <c r="L12">
-        <v>1.010557247979101</v>
+        <v>1.038058599054124</v>
       </c>
       <c r="M12">
-        <v>1.001385706506198</v>
+        <v>1.042511315823438</v>
       </c>
       <c r="N12">
-        <v>1.01661327088144</v>
+        <v>1.038717267142357</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9849824307925462</v>
+        <v>1.030609035964145</v>
       </c>
       <c r="D13">
-        <v>1.006690009408832</v>
+        <v>1.035514345296639</v>
       </c>
       <c r="E13">
-        <v>0.9955840041276736</v>
+        <v>1.034488474271253</v>
       </c>
       <c r="F13">
-        <v>0.9863090781370552</v>
+        <v>1.038973449536755</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036714245919796</v>
+        <v>1.037051458028356</v>
       </c>
       <c r="J13">
-        <v>1.015341244298714</v>
+        <v>1.037276287831052</v>
       </c>
       <c r="K13">
-        <v>1.021646544765688</v>
+        <v>1.039118603497303</v>
       </c>
       <c r="L13">
-        <v>1.010751979387698</v>
+        <v>1.038096583925349</v>
       </c>
       <c r="M13">
-        <v>1.001658427120506</v>
+        <v>1.042564783185549</v>
       </c>
       <c r="N13">
-        <v>1.016783145326887</v>
+        <v>1.038749339137025</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9858868521486046</v>
+        <v>1.030775279977503</v>
       </c>
       <c r="D14">
-        <v>1.007358939207363</v>
+        <v>1.035641645909485</v>
       </c>
       <c r="E14">
-        <v>0.9963805366710184</v>
+        <v>1.034645184895345</v>
       </c>
       <c r="F14">
-        <v>0.9873677387692135</v>
+        <v>1.039180916215155</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037019422829023</v>
+        <v>1.037097863041917</v>
       </c>
       <c r="J14">
-        <v>1.015895285448058</v>
+        <v>1.037381215235371</v>
       </c>
       <c r="K14">
-        <v>1.0221601869915</v>
+        <v>1.039213800745572</v>
       </c>
       <c r="L14">
-        <v>1.011388094041397</v>
+        <v>1.038221044660813</v>
       </c>
       <c r="M14">
-        <v>1.002549166244739</v>
+        <v>1.042739975260767</v>
       </c>
       <c r="N14">
-        <v>1.017337973278212</v>
+        <v>1.038854415550293</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9864419842803454</v>
+        <v>1.030877715568279</v>
       </c>
       <c r="D15">
-        <v>1.007769647124256</v>
+        <v>1.03572008559517</v>
       </c>
       <c r="E15">
-        <v>0.9968696178680819</v>
+        <v>1.034741755315621</v>
       </c>
       <c r="F15">
-        <v>0.988017541247863</v>
+        <v>1.039308758717048</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037206545227606</v>
+        <v>1.037126429746349</v>
       </c>
       <c r="J15">
-        <v>1.016235299310394</v>
+        <v>1.037445856929489</v>
       </c>
       <c r="K15">
-        <v>1.022475389974737</v>
+        <v>1.039272443988232</v>
       </c>
       <c r="L15">
-        <v>1.011778553632955</v>
+        <v>1.038297729388824</v>
       </c>
       <c r="M15">
-        <v>1.003095816516681</v>
+        <v>1.042847918643041</v>
       </c>
       <c r="N15">
-        <v>1.017678469999234</v>
+        <v>1.038919149043033</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9896415427223867</v>
+        <v>1.031474044157355</v>
       </c>
       <c r="D16">
-        <v>1.010138564814126</v>
+        <v>1.036176722950189</v>
       </c>
       <c r="E16">
-        <v>0.9996910351700222</v>
+        <v>1.035304078071485</v>
       </c>
       <c r="F16">
-        <v>0.9917627808952142</v>
+        <v>1.040053093390813</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038282061641641</v>
+        <v>1.037292319070591</v>
       </c>
       <c r="J16">
-        <v>1.018194129370654</v>
+        <v>1.03782198401286</v>
       </c>
       <c r="K16">
-        <v>1.024290998514737</v>
+        <v>1.039613605811267</v>
       </c>
       <c r="L16">
-        <v>1.014029176158341</v>
+        <v>1.03874407272828</v>
       </c>
       <c r="M16">
-        <v>1.006245250460916</v>
+        <v>1.043476222950506</v>
       </c>
       <c r="N16">
-        <v>1.019640081822859</v>
+        <v>1.039295810270003</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9916214834186208</v>
+        <v>1.031848201211358</v>
       </c>
       <c r="D17">
-        <v>1.011605976559339</v>
+        <v>1.036463233189972</v>
       </c>
       <c r="E17">
-        <v>1.001439168477328</v>
+        <v>1.035657020075689</v>
       </c>
       <c r="F17">
-        <v>0.9940804968220193</v>
+        <v>1.040520203216758</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038944958950225</v>
+        <v>1.03739604107785</v>
       </c>
       <c r="J17">
-        <v>1.01940548733104</v>
+        <v>1.038057816486772</v>
       </c>
       <c r="K17">
-        <v>1.025413525749861</v>
+        <v>1.039827459925475</v>
       </c>
       <c r="L17">
-        <v>1.015422010824425</v>
+        <v>1.039024056120747</v>
       </c>
       <c r="M17">
-        <v>1.008193118592174</v>
+        <v>1.043870365858222</v>
       </c>
       <c r="N17">
-        <v>1.020853160050494</v>
+        <v>1.039531977653079</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9927668783027535</v>
+        <v>1.032066475137365</v>
       </c>
       <c r="D18">
-        <v>1.012455384859324</v>
+        <v>1.036630376038776</v>
       </c>
       <c r="E18">
-        <v>1.002451234899871</v>
+        <v>1.035862961259038</v>
       </c>
       <c r="F18">
-        <v>0.9954213544143524</v>
+        <v>1.040792735734426</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039327477651647</v>
+        <v>1.037456419206359</v>
       </c>
       <c r="J18">
-        <v>1.020105957035943</v>
+        <v>1.03819533663452</v>
       </c>
       <c r="K18">
-        <v>1.026062530660398</v>
+        <v>1.039952144020168</v>
       </c>
       <c r="L18">
-        <v>1.016227790556354</v>
+        <v>1.039187366956538</v>
       </c>
       <c r="M18">
-        <v>1.009319592065725</v>
+        <v>1.044100271586648</v>
       </c>
       <c r="N18">
-        <v>1.021554624502722</v>
+        <v>1.039669693095211</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9931558476339906</v>
+        <v>1.032140906737907</v>
       </c>
       <c r="D19">
-        <v>1.012743923435547</v>
+        <v>1.036687371860388</v>
       </c>
       <c r="E19">
-        <v>1.002795056038851</v>
+        <v>1.035933194762522</v>
       </c>
       <c r="F19">
-        <v>0.9958767141191872</v>
+        <v>1.040885675061722</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039457213467291</v>
+        <v>1.037476986028895</v>
       </c>
       <c r="J19">
-        <v>1.020343780269527</v>
+        <v>1.038242221170872</v>
       </c>
       <c r="K19">
-        <v>1.026282863517699</v>
+        <v>1.039994649002161</v>
       </c>
       <c r="L19">
-        <v>1.016501431544973</v>
+        <v>1.03924305192747</v>
       </c>
       <c r="M19">
-        <v>1.009702074578784</v>
+        <v>1.044178665008594</v>
       </c>
       <c r="N19">
-        <v>1.021792785472578</v>
+        <v>1.039716644212981</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.991410040319704</v>
+        <v>1.031808054134946</v>
       </c>
       <c r="D20">
-        <v>1.011449214215206</v>
+        <v>1.036432490628757</v>
       </c>
       <c r="E20">
-        <v>1.00125240021303</v>
+        <v>1.035619144863612</v>
       </c>
       <c r="F20">
-        <v>0.9938329761390913</v>
+        <v>1.040470078972451</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038874266453215</v>
+        <v>1.037384925218769</v>
       </c>
       <c r="J20">
-        <v>1.019276154097892</v>
+        <v>1.038032517712212</v>
       </c>
       <c r="K20">
-        <v>1.025293686824913</v>
+        <v>1.039804520921665</v>
       </c>
       <c r="L20">
-        <v>1.01527326336292</v>
+        <v>1.038994016417956</v>
       </c>
       <c r="M20">
-        <v>1.007985139001843</v>
+        <v>1.043828077142513</v>
       </c>
       <c r="N20">
-        <v>1.02072364314932</v>
+        <v>1.039506642951358</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9856209642122893</v>
+        <v>1.030726323765339</v>
       </c>
       <c r="D21">
-        <v>1.007162257477788</v>
+        <v>1.035604157888549</v>
       </c>
       <c r="E21">
-        <v>0.9961463308204157</v>
+        <v>1.034599034222772</v>
       </c>
       <c r="F21">
-        <v>0.9870565069717142</v>
+        <v>1.039119819235015</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036929745392314</v>
+        <v>1.037084203120506</v>
       </c>
       <c r="J21">
-        <v>1.015732416186409</v>
+        <v>1.037350318300555</v>
       </c>
       <c r="K21">
-        <v>1.022009197402759</v>
+        <v>1.039185769803448</v>
       </c>
       <c r="L21">
-        <v>1.011201081803939</v>
+        <v>1.038184394000047</v>
       </c>
       <c r="M21">
-        <v>1.002287318257437</v>
+        <v>1.042688385194577</v>
       </c>
       <c r="N21">
-        <v>1.017174872723531</v>
+        <v>1.038823474738286</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9818896547564196</v>
+        <v>1.030046509618546</v>
       </c>
       <c r="D22">
-        <v>1.0044043741854</v>
+        <v>1.035083594992471</v>
       </c>
       <c r="E22">
-        <v>0.9928627627412849</v>
+        <v>1.033958340849843</v>
       </c>
       <c r="F22">
-        <v>0.982688781035705</v>
+        <v>1.038271531669202</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035667780884084</v>
+        <v>1.036894037361513</v>
       </c>
       <c r="J22">
-        <v>1.013445835096131</v>
+        <v>1.036921062752169</v>
       </c>
       <c r="K22">
-        <v>1.019889081601525</v>
+        <v>1.038796259027296</v>
       </c>
       <c r="L22">
-        <v>1.008576948144373</v>
+        <v>1.037675367555903</v>
       </c>
       <c r="M22">
-        <v>0.9986111578247339</v>
+        <v>1.041971892876106</v>
       </c>
       <c r="N22">
-        <v>1.014885044425829</v>
+        <v>1.038393609597786</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9838766772360756</v>
+        <v>1.03040686220834</v>
       </c>
       <c r="D23">
-        <v>1.005872501076804</v>
+        <v>1.035359531926227</v>
       </c>
       <c r="E23">
-        <v>0.9946106241714895</v>
+        <v>1.034297918806788</v>
       </c>
       <c r="F23">
-        <v>0.9850147402665055</v>
+        <v>1.038721161217415</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036340609552759</v>
+        <v>1.03699495104891</v>
       </c>
       <c r="J23">
-        <v>1.014663721171339</v>
+        <v>1.03714865034007</v>
       </c>
       <c r="K23">
-        <v>1.021018376298609</v>
+        <v>1.039002791134967</v>
       </c>
       <c r="L23">
-        <v>1.009974300439914</v>
+        <v>1.037945210462427</v>
       </c>
       <c r="M23">
-        <v>1.00056917151955</v>
+        <v>1.042351711803377</v>
       </c>
       <c r="N23">
-        <v>1.016104660038958</v>
+        <v>1.038621520386166</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9915056115583089</v>
+        <v>1.031826194764177</v>
       </c>
       <c r="D24">
-        <v>1.011520068442544</v>
+        <v>1.036446381787749</v>
       </c>
       <c r="E24">
-        <v>1.001336816158098</v>
+        <v>1.03563625880657</v>
       </c>
       <c r="F24">
-        <v>0.9939448540763153</v>
+        <v>1.0404927277281</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038906222115682</v>
+        <v>1.037389948371377</v>
       </c>
       <c r="J24">
-        <v>1.019334613016408</v>
+        <v>1.038043949253606</v>
       </c>
       <c r="K24">
-        <v>1.025347854600169</v>
+        <v>1.039814886235069</v>
       </c>
       <c r="L24">
-        <v>1.015340496407039</v>
+        <v>1.039007590062715</v>
       </c>
       <c r="M24">
-        <v>1.008079145888168</v>
+        <v>1.043847185565338</v>
       </c>
       <c r="N24">
-        <v>1.020782185086206</v>
+        <v>1.039518090726852</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9999896320701782</v>
+        <v>1.033474601183874</v>
       </c>
       <c r="D25">
-        <v>1.017820097500852</v>
+        <v>1.037708637958999</v>
       </c>
       <c r="E25">
-        <v>1.008846475001228</v>
+        <v>1.037192309685262</v>
       </c>
       <c r="F25">
-        <v>1.003878424732767</v>
+        <v>1.042551486170152</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041722024045161</v>
+        <v>1.037843566853255</v>
       </c>
       <c r="J25">
-        <v>1.024517345142465</v>
+        <v>1.039081442869872</v>
       </c>
       <c r="K25">
-        <v>1.030147937235322</v>
+        <v>1.04075518099247</v>
       </c>
       <c r="L25">
-        <v>1.021308995689612</v>
+        <v>1.040240469754542</v>
       </c>
       <c r="M25">
-        <v>1.016416830033804</v>
+        <v>1.045582947531306</v>
       </c>
       <c r="N25">
-        <v>1.025972277286349</v>
+        <v>1.040557057703055</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034790442102991</v>
+        <v>1.006488067795989</v>
       </c>
       <c r="D2">
-        <v>1.038716206233262</v>
+        <v>1.022658789031433</v>
       </c>
       <c r="E2">
-        <v>1.03843578859248</v>
+        <v>1.014620438920815</v>
       </c>
       <c r="F2">
-        <v>1.044195948559976</v>
+        <v>1.011491633591344</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038201528602054</v>
+        <v>1.043847567189159</v>
       </c>
       <c r="J2">
-        <v>1.039907758145235</v>
+        <v>1.028476438591761</v>
       </c>
       <c r="K2">
-        <v>1.041503447536725</v>
+        <v>1.033811224629752</v>
       </c>
       <c r="L2">
-        <v>1.041223828371244</v>
+        <v>1.025879777294804</v>
       </c>
       <c r="M2">
-        <v>1.046967679970012</v>
+        <v>1.022793159979971</v>
       </c>
       <c r="N2">
-        <v>1.041384546440889</v>
+        <v>1.029936993102461</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035746478966521</v>
+        <v>1.011063847349038</v>
       </c>
       <c r="D3">
-        <v>1.03944823678058</v>
+        <v>1.026072348101638</v>
       </c>
       <c r="E3">
-        <v>1.039340030694109</v>
+        <v>1.018697926162445</v>
       </c>
       <c r="F3">
-        <v>1.045391379218684</v>
+        <v>1.01685603222335</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038459207182103</v>
+        <v>1.045325512343226</v>
       </c>
       <c r="J3">
-        <v>1.04050704043046</v>
+        <v>1.031257378387452</v>
       </c>
       <c r="K3">
-        <v>1.042045754640834</v>
+        <v>1.03638215227369</v>
       </c>
       <c r="L3">
-        <v>1.041937834376365</v>
+        <v>1.029097025304145</v>
       </c>
       <c r="M3">
-        <v>1.047973296641507</v>
+        <v>1.027277685786242</v>
       </c>
       <c r="N3">
-        <v>1.041984679775697</v>
+        <v>1.032721882151636</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.036365383970425</v>
+        <v>1.01396259470789</v>
       </c>
       <c r="D4">
-        <v>1.039922111136398</v>
+        <v>1.028237478309243</v>
       </c>
       <c r="E4">
-        <v>1.039925763850363</v>
+        <v>1.021286239074769</v>
       </c>
       <c r="F4">
-        <v>1.046165556971385</v>
+        <v>1.020256390490941</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038624907487465</v>
+        <v>1.04625291300747</v>
       </c>
       <c r="J4">
-        <v>1.040894491619613</v>
+        <v>1.033015756114364</v>
       </c>
       <c r="K4">
-        <v>1.042396197514024</v>
+        <v>1.038006640449331</v>
       </c>
       <c r="L4">
-        <v>1.042399841065588</v>
+        <v>1.031134370568188</v>
       </c>
       <c r="M4">
-        <v>1.048624082952428</v>
+        <v>1.030116334524975</v>
       </c>
       <c r="N4">
-        <v>1.04237268118998</v>
+        <v>1.03448275697661</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.036625639409269</v>
+        <v>1.015166910580177</v>
       </c>
       <c r="D5">
-        <v>1.040121375220806</v>
+        <v>1.029137591371786</v>
       </c>
       <c r="E5">
-        <v>1.040172155552782</v>
+        <v>1.022362803120237</v>
       </c>
       <c r="F5">
-        <v>1.046491178156996</v>
+        <v>1.021669636825286</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.038694319800179</v>
+        <v>1.046636051272886</v>
       </c>
       <c r="J5">
-        <v>1.041057297845013</v>
+        <v>1.033745462749334</v>
       </c>
       <c r="K5">
-        <v>1.042543411494431</v>
+        <v>1.038680510819627</v>
       </c>
       <c r="L5">
-        <v>1.042594067288344</v>
+        <v>1.031980590338336</v>
       </c>
       <c r="M5">
-        <v>1.048897693980724</v>
+        <v>1.031295153077789</v>
       </c>
       <c r="N5">
-        <v>1.042535718618893</v>
+        <v>1.0352134998787</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036669341402326</v>
+        <v>1.015368296286466</v>
       </c>
       <c r="D6">
-        <v>1.040154835283231</v>
+        <v>1.02928814136447</v>
       </c>
       <c r="E6">
-        <v>1.040213534544231</v>
+        <v>1.022542897012181</v>
       </c>
       <c r="F6">
-        <v>1.046545860592434</v>
+        <v>1.021905992371377</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03870595987513</v>
+        <v>1.04669999176495</v>
       </c>
       <c r="J6">
-        <v>1.041084629121421</v>
+        <v>1.033867434667312</v>
       </c>
       <c r="K6">
-        <v>1.042568122771807</v>
+        <v>1.038793133224834</v>
       </c>
       <c r="L6">
-        <v>1.042626678624417</v>
+        <v>1.032122081544293</v>
       </c>
       <c r="M6">
-        <v>1.048943635679182</v>
+        <v>1.031492244616749</v>
       </c>
       <c r="N6">
-        <v>1.04256308870885</v>
+        <v>1.035335645010792</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.036368861250651</v>
+        <v>1.013978742390644</v>
       </c>
       <c r="D7">
-        <v>1.039924773528183</v>
+        <v>1.028249544932901</v>
       </c>
       <c r="E7">
-        <v>1.039929055562072</v>
+        <v>1.021300669056053</v>
       </c>
       <c r="F7">
-        <v>1.046169907320934</v>
+        <v>1.020275337395178</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.038625835953429</v>
+        <v>1.046258058769441</v>
       </c>
       <c r="J7">
-        <v>1.040896667352553</v>
+        <v>1.03302554346916</v>
       </c>
       <c r="K7">
-        <v>1.042398165036094</v>
+        <v>1.038015679982008</v>
       </c>
       <c r="L7">
-        <v>1.042402436332197</v>
+        <v>1.031145717733498</v>
       </c>
       <c r="M7">
-        <v>1.048627738875843</v>
+        <v>1.030132142397626</v>
       </c>
       <c r="N7">
-        <v>1.042374860012711</v>
+        <v>1.034492558230572</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03511347987299</v>
+        <v>1.008047667938921</v>
       </c>
       <c r="D8">
-        <v>1.038963557050808</v>
+        <v>1.023821674375466</v>
       </c>
       <c r="E8">
-        <v>1.038741250876887</v>
+        <v>1.016009083035136</v>
       </c>
       <c r="F8">
-        <v>1.044599814642211</v>
+        <v>1.013319629564117</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.03828882638681</v>
+        <v>1.044353149879953</v>
       </c>
       <c r="J8">
-        <v>1.040110355254931</v>
+        <v>1.029424972413292</v>
       </c>
       <c r="K8">
-        <v>1.041686818894044</v>
+        <v>1.03468835162917</v>
       </c>
       <c r="L8">
-        <v>1.041465130240075</v>
+        <v>1.026976481195516</v>
       </c>
       <c r="M8">
-        <v>1.047307515271457</v>
+        <v>1.024322150745534</v>
       </c>
       <c r="N8">
-        <v>1.041587431261718</v>
+        <v>1.030886873950814</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032903544229618</v>
+        <v>0.9970947402658895</v>
       </c>
       <c r="D9">
-        <v>1.037271357737752</v>
+        <v>1.015668188959476</v>
       </c>
       <c r="E9">
-        <v>1.036653035782569</v>
+        <v>1.006280482392911</v>
       </c>
       <c r="F9">
-        <v>1.041838109732422</v>
+        <v>1.000488371893408</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037687060066488</v>
+        <v>1.040766073450509</v>
       </c>
       <c r="J9">
-        <v>1.038722312146304</v>
+        <v>1.02275050952594</v>
       </c>
       <c r="K9">
-        <v>1.040429793753111</v>
+        <v>1.028512074450488</v>
       </c>
       <c r="L9">
-        <v>1.039813484744166</v>
+        <v>1.019272478396674</v>
       </c>
       <c r="M9">
-        <v>1.044981759725218</v>
+        <v>1.013573530570477</v>
       </c>
       <c r="N9">
-        <v>1.040197416972666</v>
+        <v>1.024202932560589</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.031431765478655</v>
+        <v>0.9894164889007184</v>
       </c>
       <c r="D10">
-        <v>1.036144348111608</v>
+        <v>1.009971840004254</v>
       </c>
       <c r="E10">
-        <v>1.035264202541089</v>
+        <v>0.999492436709396</v>
       </c>
       <c r="F10">
-        <v>1.040000315656323</v>
+        <v>0.9914993396046216</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037280581097304</v>
+        <v>1.038206581189987</v>
       </c>
       <c r="J10">
-        <v>1.037795327685763</v>
+        <v>1.018056397963409</v>
       </c>
       <c r="K10">
-        <v>1.039589431026478</v>
+        <v>1.024163354060632</v>
       </c>
       <c r="L10">
-        <v>1.038712432094599</v>
+        <v>1.013870861419369</v>
       </c>
       <c r="M10">
-        <v>1.04343168219719</v>
+        <v>1.006023791248873</v>
       </c>
       <c r="N10">
-        <v>1.039269116087864</v>
+        <v>1.019502154821218</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030794832818878</v>
+        <v>0.9859929417034244</v>
       </c>
       <c r="D11">
-        <v>1.035656618422717</v>
+        <v>1.007437421261124</v>
       </c>
       <c r="E11">
-        <v>1.034663617661529</v>
+        <v>0.9964739933728053</v>
       </c>
       <c r="F11">
-        <v>1.039205318328396</v>
+        <v>0.9874919205086169</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037103317426791</v>
+        <v>1.037055194725551</v>
       </c>
       <c r="J11">
-        <v>1.037393554713374</v>
+        <v>1.015960267735525</v>
       </c>
       <c r="K11">
-        <v>1.039224995417682</v>
+        <v>1.022220428589337</v>
       </c>
       <c r="L11">
-        <v>1.038235682489067</v>
+        <v>1.011462712771621</v>
       </c>
       <c r="M11">
-        <v>1.042760579767062</v>
+        <v>1.002653639778154</v>
       </c>
       <c r="N11">
-        <v>1.038866772551771</v>
+        <v>1.017403047847981</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.030558301682034</v>
+        <v>0.9847055553978479</v>
       </c>
       <c r="D12">
-        <v>1.035475495785759</v>
+        <v>1.006485274960904</v>
       </c>
       <c r="E12">
-        <v>1.034440653007373</v>
+        <v>0.9953402262146958</v>
       </c>
       <c r="F12">
-        <v>1.038910137518688</v>
+        <v>0.9859849834546536</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037037285417117</v>
+        <v>1.036620742855579</v>
       </c>
       <c r="J12">
-        <v>1.037244261317706</v>
+        <v>1.015171610752361</v>
       </c>
       <c r="K12">
-        <v>1.039089545248842</v>
+        <v>1.021489273194764</v>
       </c>
       <c r="L12">
-        <v>1.038058599054124</v>
+        <v>1.010557247979101</v>
       </c>
       <c r="M12">
-        <v>1.042511315823438</v>
+        <v>1.001385706506198</v>
       </c>
       <c r="N12">
-        <v>1.038717267142357</v>
+        <v>1.01661327088144</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030609035964145</v>
+        <v>0.9849824307925462</v>
       </c>
       <c r="D13">
-        <v>1.035514345296639</v>
+        <v>1.006690009408832</v>
       </c>
       <c r="E13">
-        <v>1.034488474271253</v>
+        <v>0.9955840041276736</v>
       </c>
       <c r="F13">
-        <v>1.038973449536755</v>
+        <v>0.9863090781370553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037051458028356</v>
+        <v>1.036714245919795</v>
       </c>
       <c r="J13">
-        <v>1.037276287831052</v>
+        <v>1.015341244298714</v>
       </c>
       <c r="K13">
-        <v>1.039118603497303</v>
+        <v>1.021646544765687</v>
       </c>
       <c r="L13">
-        <v>1.038096583925349</v>
+        <v>1.010751979387698</v>
       </c>
       <c r="M13">
-        <v>1.042564783185549</v>
+        <v>1.001658427120506</v>
       </c>
       <c r="N13">
-        <v>1.038749339137025</v>
+        <v>1.016783145326887</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030775279977503</v>
+        <v>0.9858868521486039</v>
       </c>
       <c r="D14">
-        <v>1.035641645909485</v>
+        <v>1.007358939207363</v>
       </c>
       <c r="E14">
-        <v>1.034645184895345</v>
+        <v>0.9963805366710174</v>
       </c>
       <c r="F14">
-        <v>1.039180916215155</v>
+        <v>0.9873677387692126</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037097863041917</v>
+        <v>1.037019422829022</v>
       </c>
       <c r="J14">
-        <v>1.037381215235371</v>
+        <v>1.015895285448057</v>
       </c>
       <c r="K14">
-        <v>1.039213800745572</v>
+        <v>1.022160186991499</v>
       </c>
       <c r="L14">
-        <v>1.038221044660813</v>
+        <v>1.011388094041396</v>
       </c>
       <c r="M14">
-        <v>1.042739975260767</v>
+        <v>1.002549166244739</v>
       </c>
       <c r="N14">
-        <v>1.038854415550293</v>
+        <v>1.017337973278211</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030877715568279</v>
+        <v>0.986441984280346</v>
       </c>
       <c r="D15">
-        <v>1.03572008559517</v>
+        <v>1.007769647124256</v>
       </c>
       <c r="E15">
-        <v>1.034741755315621</v>
+        <v>0.9968696178680824</v>
       </c>
       <c r="F15">
-        <v>1.039308758717048</v>
+        <v>0.9880175412478633</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037126429746349</v>
+        <v>1.037206545227606</v>
       </c>
       <c r="J15">
-        <v>1.037445856929489</v>
+        <v>1.016235299310395</v>
       </c>
       <c r="K15">
-        <v>1.039272443988232</v>
+        <v>1.022475389974737</v>
       </c>
       <c r="L15">
-        <v>1.038297729388824</v>
+        <v>1.011778553632955</v>
       </c>
       <c r="M15">
-        <v>1.042847918643041</v>
+        <v>1.003095816516681</v>
       </c>
       <c r="N15">
-        <v>1.038919149043033</v>
+        <v>1.017678469999234</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.031474044157355</v>
+        <v>0.9896415427223868</v>
       </c>
       <c r="D16">
-        <v>1.036176722950189</v>
+        <v>1.010138564814126</v>
       </c>
       <c r="E16">
-        <v>1.035304078071485</v>
+        <v>0.999691035170022</v>
       </c>
       <c r="F16">
-        <v>1.040053093390813</v>
+        <v>0.9917627808952141</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.037292319070591</v>
+        <v>1.038282061641641</v>
       </c>
       <c r="J16">
-        <v>1.03782198401286</v>
+        <v>1.018194129370654</v>
       </c>
       <c r="K16">
-        <v>1.039613605811267</v>
+        <v>1.024290998514737</v>
       </c>
       <c r="L16">
-        <v>1.03874407272828</v>
+        <v>1.014029176158341</v>
       </c>
       <c r="M16">
-        <v>1.043476222950506</v>
+        <v>1.006245250460916</v>
       </c>
       <c r="N16">
-        <v>1.039295810270003</v>
+        <v>1.019640081822859</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C17">
-        <v>1.031848201211358</v>
+        <v>0.9916214834186207</v>
       </c>
       <c r="D17">
-        <v>1.036463233189972</v>
+        <v>1.011605976559339</v>
       </c>
       <c r="E17">
-        <v>1.035657020075689</v>
+        <v>1.001439168477329</v>
       </c>
       <c r="F17">
-        <v>1.040520203216758</v>
+        <v>0.9940804968220193</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03739604107785</v>
+        <v>1.038944958950225</v>
       </c>
       <c r="J17">
-        <v>1.038057816486772</v>
+        <v>1.019405487331041</v>
       </c>
       <c r="K17">
-        <v>1.039827459925475</v>
+        <v>1.025413525749862</v>
       </c>
       <c r="L17">
-        <v>1.039024056120747</v>
+        <v>1.015422010824425</v>
       </c>
       <c r="M17">
-        <v>1.043870365858222</v>
+        <v>1.008193118592174</v>
       </c>
       <c r="N17">
-        <v>1.039531977653079</v>
+        <v>1.020853160050494</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.032066475137365</v>
+        <v>0.9927668783027536</v>
       </c>
       <c r="D18">
-        <v>1.036630376038776</v>
+        <v>1.012455384859324</v>
       </c>
       <c r="E18">
-        <v>1.035862961259038</v>
+        <v>1.002451234899871</v>
       </c>
       <c r="F18">
-        <v>1.040792735734426</v>
+        <v>0.9954213544143526</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037456419206359</v>
+        <v>1.039327477651647</v>
       </c>
       <c r="J18">
-        <v>1.03819533663452</v>
+        <v>1.020105957035943</v>
       </c>
       <c r="K18">
-        <v>1.039952144020168</v>
+        <v>1.026062530660398</v>
       </c>
       <c r="L18">
-        <v>1.039187366956538</v>
+        <v>1.016227790556354</v>
       </c>
       <c r="M18">
-        <v>1.044100271586648</v>
+        <v>1.009319592065725</v>
       </c>
       <c r="N18">
-        <v>1.039669693095211</v>
+        <v>1.021554624502723</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.032140906737907</v>
+        <v>0.9931558476339905</v>
       </c>
       <c r="D19">
-        <v>1.036687371860388</v>
+        <v>1.012743923435547</v>
       </c>
       <c r="E19">
-        <v>1.035933194762522</v>
+        <v>1.002795056038851</v>
       </c>
       <c r="F19">
-        <v>1.040885675061722</v>
+        <v>0.995876714119187</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037476986028895</v>
+        <v>1.039457213467291</v>
       </c>
       <c r="J19">
-        <v>1.038242221170872</v>
+        <v>1.020343780269527</v>
       </c>
       <c r="K19">
-        <v>1.039994649002161</v>
+        <v>1.026282863517699</v>
       </c>
       <c r="L19">
-        <v>1.03924305192747</v>
+        <v>1.016501431544973</v>
       </c>
       <c r="M19">
-        <v>1.044178665008594</v>
+        <v>1.009702074578784</v>
       </c>
       <c r="N19">
-        <v>1.039716644212981</v>
+        <v>1.021792785472577</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031808054134946</v>
+        <v>0.9914100403197036</v>
       </c>
       <c r="D20">
-        <v>1.036432490628757</v>
+        <v>1.011449214215205</v>
       </c>
       <c r="E20">
-        <v>1.035619144863612</v>
+        <v>1.001252400213029</v>
       </c>
       <c r="F20">
-        <v>1.040470078972451</v>
+        <v>0.9938329761390908</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037384925218769</v>
+        <v>1.038874266453215</v>
       </c>
       <c r="J20">
-        <v>1.038032517712212</v>
+        <v>1.019276154097892</v>
       </c>
       <c r="K20">
-        <v>1.039804520921665</v>
+        <v>1.025293686824913</v>
       </c>
       <c r="L20">
-        <v>1.038994016417956</v>
+        <v>1.015273263362919</v>
       </c>
       <c r="M20">
-        <v>1.043828077142513</v>
+        <v>1.007985139001843</v>
       </c>
       <c r="N20">
-        <v>1.039506642951358</v>
+        <v>1.02072364314932</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030726323765339</v>
+        <v>0.985620964212289</v>
       </c>
       <c r="D21">
-        <v>1.035604157888549</v>
+        <v>1.007162257477788</v>
       </c>
       <c r="E21">
-        <v>1.034599034222772</v>
+        <v>0.9961463308204154</v>
       </c>
       <c r="F21">
-        <v>1.039119819235015</v>
+        <v>0.9870565069717143</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.037084203120506</v>
+        <v>1.036929745392313</v>
       </c>
       <c r="J21">
-        <v>1.037350318300555</v>
+        <v>1.015732416186409</v>
       </c>
       <c r="K21">
-        <v>1.039185769803448</v>
+        <v>1.022009197402758</v>
       </c>
       <c r="L21">
-        <v>1.038184394000047</v>
+        <v>1.011201081803939</v>
       </c>
       <c r="M21">
-        <v>1.042688385194577</v>
+        <v>1.002287318257437</v>
       </c>
       <c r="N21">
-        <v>1.038823474738286</v>
+        <v>1.017174872723531</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.030046509618546</v>
+        <v>0.9818896547564199</v>
       </c>
       <c r="D22">
-        <v>1.035083594992471</v>
+        <v>1.0044043741854</v>
       </c>
       <c r="E22">
-        <v>1.033958340849843</v>
+        <v>0.9928627627412849</v>
       </c>
       <c r="F22">
-        <v>1.038271531669202</v>
+        <v>0.9826887810357053</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.036894037361513</v>
+        <v>1.035667780884084</v>
       </c>
       <c r="J22">
-        <v>1.036921062752169</v>
+        <v>1.013445835096131</v>
       </c>
       <c r="K22">
-        <v>1.038796259027296</v>
+        <v>1.019889081601526</v>
       </c>
       <c r="L22">
-        <v>1.037675367555903</v>
+        <v>1.008576948144373</v>
       </c>
       <c r="M22">
-        <v>1.041971892876106</v>
+        <v>0.9986111578247343</v>
       </c>
       <c r="N22">
-        <v>1.038393609597786</v>
+        <v>1.01488504442583</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.03040686220834</v>
+        <v>0.983876677236076</v>
       </c>
       <c r="D23">
-        <v>1.035359531926227</v>
+        <v>1.005872501076804</v>
       </c>
       <c r="E23">
-        <v>1.034297918806788</v>
+        <v>0.9946106241714897</v>
       </c>
       <c r="F23">
-        <v>1.038721161217415</v>
+        <v>0.9850147402665054</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03699495104891</v>
+        <v>1.036340609552759</v>
       </c>
       <c r="J23">
-        <v>1.03714865034007</v>
+        <v>1.014663721171339</v>
       </c>
       <c r="K23">
-        <v>1.039002791134967</v>
+        <v>1.021018376298609</v>
       </c>
       <c r="L23">
-        <v>1.037945210462427</v>
+        <v>1.009974300439914</v>
       </c>
       <c r="M23">
-        <v>1.042351711803377</v>
+        <v>1.00056917151955</v>
       </c>
       <c r="N23">
-        <v>1.038621520386166</v>
+        <v>1.016104660038958</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.031826194764177</v>
+        <v>0.9915056115583083</v>
       </c>
       <c r="D24">
-        <v>1.036446381787749</v>
+        <v>1.011520068442543</v>
       </c>
       <c r="E24">
-        <v>1.03563625880657</v>
+        <v>1.001336816158098</v>
       </c>
       <c r="F24">
-        <v>1.0404927277281</v>
+        <v>0.9939448540763143</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037389948371377</v>
+        <v>1.038906222115682</v>
       </c>
       <c r="J24">
-        <v>1.038043949253606</v>
+        <v>1.019334613016407</v>
       </c>
       <c r="K24">
-        <v>1.039814886235069</v>
+        <v>1.025347854600169</v>
       </c>
       <c r="L24">
-        <v>1.039007590062715</v>
+        <v>1.015340496407038</v>
       </c>
       <c r="M24">
-        <v>1.043847185565338</v>
+        <v>1.008079145888167</v>
       </c>
       <c r="N24">
-        <v>1.039518090726852</v>
+        <v>1.020782185086205</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033474601183874</v>
+        <v>0.9999896320701784</v>
       </c>
       <c r="D25">
-        <v>1.037708637958999</v>
+        <v>1.017820097500852</v>
       </c>
       <c r="E25">
-        <v>1.037192309685262</v>
+        <v>1.008846475001228</v>
       </c>
       <c r="F25">
-        <v>1.042551486170152</v>
+        <v>1.003878424732767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037843566853255</v>
+        <v>1.041722024045161</v>
       </c>
       <c r="J25">
-        <v>1.039081442869872</v>
+        <v>1.024517345142465</v>
       </c>
       <c r="K25">
-        <v>1.04075518099247</v>
+        <v>1.030147937235323</v>
       </c>
       <c r="L25">
-        <v>1.040240469754542</v>
+        <v>1.021308995689613</v>
       </c>
       <c r="M25">
-        <v>1.045582947531306</v>
+        <v>1.016416830033804</v>
       </c>
       <c r="N25">
-        <v>1.040557057703055</v>
+        <v>1.025972277286349</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.006488067795989</v>
+        <v>1.001949529567491</v>
       </c>
       <c r="D2">
-        <v>1.022658789031433</v>
+        <v>1.020920403633633</v>
       </c>
       <c r="E2">
-        <v>1.014620438920815</v>
+        <v>1.019672940823196</v>
       </c>
       <c r="F2">
-        <v>1.011491633591344</v>
+        <v>1.02689046722689</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043847567189159</v>
+        <v>1.043357656844616</v>
       </c>
       <c r="J2">
-        <v>1.028476438591761</v>
+        <v>1.024072086486121</v>
       </c>
       <c r="K2">
-        <v>1.033811224629752</v>
+        <v>1.032095779208867</v>
       </c>
       <c r="L2">
-        <v>1.025879777294804</v>
+        <v>1.030864838580343</v>
       </c>
       <c r="M2">
-        <v>1.022793159979971</v>
+        <v>1.037987467632536</v>
       </c>
       <c r="N2">
-        <v>1.029936993102461</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.011784267745411</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.03863692055424</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.033764705232262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.011063847349038</v>
+        <v>1.005697476194393</v>
       </c>
       <c r="D3">
-        <v>1.026072348101638</v>
+        <v>1.023304017175269</v>
       </c>
       <c r="E3">
-        <v>1.018697926162445</v>
+        <v>1.022884038216061</v>
       </c>
       <c r="F3">
-        <v>1.01685603222335</v>
+        <v>1.029960522804244</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045325512343226</v>
+        <v>1.043907032125275</v>
       </c>
       <c r="J3">
-        <v>1.031257378387452</v>
+        <v>1.026034018161641</v>
       </c>
       <c r="K3">
-        <v>1.03638215227369</v>
+        <v>1.033647155001532</v>
       </c>
       <c r="L3">
-        <v>1.029097025304145</v>
+        <v>1.033232252609376</v>
       </c>
       <c r="M3">
-        <v>1.027277685786242</v>
+        <v>1.040223884272828</v>
       </c>
       <c r="N3">
-        <v>1.032721882151636</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.012461474780373</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.040406896784867</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.034858994768477</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01396259470789</v>
+        <v>1.008080342297792</v>
       </c>
       <c r="D4">
-        <v>1.028237478309243</v>
+        <v>1.024822139600823</v>
       </c>
       <c r="E4">
-        <v>1.021286239074769</v>
+        <v>1.02493156317935</v>
       </c>
       <c r="F4">
-        <v>1.020256390490941</v>
+        <v>1.031920418787496</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04625291300747</v>
+        <v>1.044246073833527</v>
       </c>
       <c r="J4">
-        <v>1.033015756114364</v>
+        <v>1.027279586500916</v>
       </c>
       <c r="K4">
-        <v>1.038006640449331</v>
+        <v>1.034629936530509</v>
       </c>
       <c r="L4">
-        <v>1.031134370568188</v>
+        <v>1.034738117371545</v>
       </c>
       <c r="M4">
-        <v>1.030116334524975</v>
+        <v>1.041648271737824</v>
       </c>
       <c r="N4">
-        <v>1.03448275697661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.012891160245996</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.041534203226009</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.035554815413251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015166910580177</v>
+        <v>1.009075081096627</v>
       </c>
       <c r="D5">
-        <v>1.029137591371786</v>
+        <v>1.025458597034647</v>
       </c>
       <c r="E5">
-        <v>1.022362803120237</v>
+        <v>1.025787849409837</v>
       </c>
       <c r="F5">
-        <v>1.021669636825286</v>
+        <v>1.032740156720772</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046636051272886</v>
+        <v>1.044386497881368</v>
       </c>
       <c r="J5">
-        <v>1.033745462749334</v>
+        <v>1.027800373251904</v>
       </c>
       <c r="K5">
-        <v>1.038680510819627</v>
+        <v>1.035042021935553</v>
       </c>
       <c r="L5">
-        <v>1.031980590338336</v>
+        <v>1.035367634715898</v>
       </c>
       <c r="M5">
-        <v>1.031295153077789</v>
+        <v>1.042243755382727</v>
       </c>
       <c r="N5">
-        <v>1.0352134998787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.013071047858485</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.042005487776597</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.03585340862416</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015368296286466</v>
+        <v>1.009244957757995</v>
       </c>
       <c r="D6">
-        <v>1.02928814136447</v>
+        <v>1.0255698892725</v>
       </c>
       <c r="E6">
-        <v>1.022542897012181</v>
+        <v>1.025934321443736</v>
       </c>
       <c r="F6">
-        <v>1.021905992371377</v>
+        <v>1.032879859865543</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04669999176495</v>
+        <v>1.044412020531923</v>
       </c>
       <c r="J6">
-        <v>1.033867434667312</v>
+        <v>1.027890832790829</v>
       </c>
       <c r="K6">
-        <v>1.038793133224834</v>
+        <v>1.035115630820973</v>
       </c>
       <c r="L6">
-        <v>1.032122081544293</v>
+        <v>1.035476053005981</v>
       </c>
       <c r="M6">
-        <v>1.031492244616749</v>
+        <v>1.04234583045829</v>
       </c>
       <c r="N6">
-        <v>1.035335645010792</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.013102649487453</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.042086273182198</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03591425004288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.013978742390644</v>
+        <v>1.008102883486124</v>
       </c>
       <c r="D7">
-        <v>1.028249544932901</v>
+        <v>1.024843426670171</v>
       </c>
       <c r="E7">
-        <v>1.021300669056053</v>
+        <v>1.024951383936561</v>
       </c>
       <c r="F7">
-        <v>1.020275337395178</v>
+        <v>1.031937915924373</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046258058769441</v>
+        <v>1.044253798874481</v>
       </c>
       <c r="J7">
-        <v>1.03302554346916</v>
+        <v>1.027295547794946</v>
       </c>
       <c r="K7">
-        <v>1.038015679982008</v>
+        <v>1.034648077803337</v>
       </c>
       <c r="L7">
-        <v>1.031145717733498</v>
+        <v>1.034754809455324</v>
       </c>
       <c r="M7">
-        <v>1.030132142397626</v>
+        <v>1.041662696127817</v>
       </c>
       <c r="N7">
-        <v>1.034492558230572</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.012897654665992</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.041545619147122</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03558786856858</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008047667938921</v>
+        <v>1.003236637097767</v>
       </c>
       <c r="D8">
-        <v>1.023821674375466</v>
+        <v>1.021746862095523</v>
       </c>
       <c r="E8">
-        <v>1.016009083035136</v>
+        <v>1.020774978976575</v>
       </c>
       <c r="F8">
-        <v>1.013319629564117</v>
+        <v>1.027941791204082</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044353149879953</v>
+        <v>1.043554006982072</v>
       </c>
       <c r="J8">
-        <v>1.029424972413292</v>
+        <v>1.024751366189446</v>
       </c>
       <c r="K8">
-        <v>1.03468835162917</v>
+        <v>1.032640100288966</v>
       </c>
       <c r="L8">
-        <v>1.026976481195516</v>
+        <v>1.031680705275177</v>
       </c>
       <c r="M8">
-        <v>1.024322150745534</v>
+        <v>1.038756121079437</v>
       </c>
       <c r="N8">
-        <v>1.030886873950814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.012020080302961</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.039245259540213</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.034172639750969</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9970947402658895</v>
+        <v>0.9943088466504658</v>
       </c>
       <c r="D9">
-        <v>1.015668188959476</v>
+        <v>1.016078227516606</v>
       </c>
       <c r="E9">
-        <v>1.006280482392911</v>
+        <v>1.013160867041178</v>
       </c>
       <c r="F9">
-        <v>1.000488371893408</v>
+        <v>1.020677041203216</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040766073450509</v>
+        <v>1.042183623326534</v>
       </c>
       <c r="J9">
-        <v>1.02275050952594</v>
+        <v>1.020064187366428</v>
       </c>
       <c r="K9">
-        <v>1.028512074450488</v>
+        <v>1.028915723538511</v>
       </c>
       <c r="L9">
-        <v>1.019272478396674</v>
+        <v>1.026043967057854</v>
       </c>
       <c r="M9">
-        <v>1.013573530570477</v>
+        <v>1.033443324654095</v>
       </c>
       <c r="N9">
-        <v>1.024202932560589</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.010399782382397</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03504051766239</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.031536028022197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9894164889007184</v>
+        <v>0.9881971808234804</v>
       </c>
       <c r="D10">
-        <v>1.009971840004254</v>
+        <v>1.012226048944773</v>
       </c>
       <c r="E10">
-        <v>0.999492436709396</v>
+        <v>1.008030913233317</v>
       </c>
       <c r="F10">
-        <v>0.9914993396046216</v>
+        <v>1.015844276317277</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.038206581189987</v>
+        <v>1.041209652024544</v>
       </c>
       <c r="J10">
-        <v>1.018056397963409</v>
+        <v>1.016887035934187</v>
       </c>
       <c r="K10">
-        <v>1.024163354060632</v>
+        <v>1.026378012113187</v>
       </c>
       <c r="L10">
-        <v>1.013870861419369</v>
+        <v>1.022256665344787</v>
       </c>
       <c r="M10">
-        <v>1.006023791248873</v>
+        <v>1.029933231300352</v>
       </c>
       <c r="N10">
-        <v>1.019502154821218</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.009305942692642</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.032314313401081</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.029758617123952</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9859929417034244</v>
+        <v>0.9861977033928302</v>
       </c>
       <c r="D11">
-        <v>1.007437421261124</v>
+        <v>1.011041816635813</v>
       </c>
       <c r="E11">
-        <v>0.9964739933728053</v>
+        <v>1.006745836888535</v>
       </c>
       <c r="F11">
-        <v>0.9874919205086169</v>
+        <v>1.015033950038669</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037055194725551</v>
+        <v>1.040994389473809</v>
       </c>
       <c r="J11">
-        <v>1.015960267735525</v>
+        <v>1.016156164262451</v>
       </c>
       <c r="K11">
-        <v>1.022220428589337</v>
+        <v>1.025758461976454</v>
       </c>
       <c r="L11">
-        <v>1.011462712771621</v>
+        <v>1.021541648107523</v>
       </c>
       <c r="M11">
-        <v>1.002653639778154</v>
+        <v>1.029677810106163</v>
       </c>
       <c r="N11">
-        <v>1.017403047847981</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.009099991164232</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.032551387820688</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.029353657221683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9847055553978479</v>
+        <v>0.9857186516124568</v>
       </c>
       <c r="D12">
-        <v>1.006485274960904</v>
+        <v>1.010792538146591</v>
       </c>
       <c r="E12">
-        <v>0.9953402262146958</v>
+        <v>1.006631411627295</v>
       </c>
       <c r="F12">
-        <v>0.9859849834546536</v>
+        <v>1.015216271414185</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.036620742855579</v>
+        <v>1.040997376001127</v>
       </c>
       <c r="J12">
-        <v>1.015171610752361</v>
+        <v>1.016139967683513</v>
       </c>
       <c r="K12">
-        <v>1.021489273194764</v>
+        <v>1.02571585051477</v>
       </c>
       <c r="L12">
-        <v>1.010557247979101</v>
+        <v>1.021632657571212</v>
       </c>
       <c r="M12">
-        <v>1.001385706506198</v>
+        <v>1.030057644757751</v>
       </c>
       <c r="N12">
-        <v>1.01661327088144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.009131487086467</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.033180128859869</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.029323529112403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9849824307925462</v>
+        <v>0.9863873548419246</v>
       </c>
       <c r="D13">
-        <v>1.006690009408832</v>
+        <v>1.011258839382561</v>
       </c>
       <c r="E13">
-        <v>0.9955840041276736</v>
+        <v>1.007420985333172</v>
       </c>
       <c r="F13">
-        <v>0.9863090781370553</v>
+        <v>1.016194314299151</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.036714245919795</v>
+        <v>1.041179027802245</v>
       </c>
       <c r="J13">
-        <v>1.015341244298714</v>
+        <v>1.016684438175085</v>
       </c>
       <c r="K13">
-        <v>1.021646544765687</v>
+        <v>1.026130149934867</v>
       </c>
       <c r="L13">
-        <v>1.010751979387698</v>
+        <v>1.022363817592713</v>
       </c>
       <c r="M13">
-        <v>1.001658427120506</v>
+        <v>1.030974682041122</v>
       </c>
       <c r="N13">
-        <v>1.016783145326887</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.009353070164162</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.034183205139108</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.029613945379068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9858868521486039</v>
+        <v>0.9873730742140826</v>
       </c>
       <c r="D14">
-        <v>1.007358939207363</v>
+        <v>1.011909317370337</v>
       </c>
       <c r="E14">
-        <v>0.9963805366710174</v>
+        <v>1.008378899844431</v>
       </c>
       <c r="F14">
-        <v>0.9873677387692126</v>
+        <v>1.017234897343196</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037019422829022</v>
+        <v>1.041386851157729</v>
       </c>
       <c r="J14">
-        <v>1.015895285448057</v>
+        <v>1.017317168773789</v>
       </c>
       <c r="K14">
-        <v>1.022160186991499</v>
+        <v>1.026626761743891</v>
       </c>
       <c r="L14">
-        <v>1.011388094041396</v>
+        <v>1.023161277489113</v>
       </c>
       <c r="M14">
-        <v>1.002549166244739</v>
+        <v>1.031855499554755</v>
       </c>
       <c r="N14">
-        <v>1.017337973278211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.009593564143326</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.035053454120985</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.029966506024564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.986441984280346</v>
+        <v>0.9878689588190935</v>
       </c>
       <c r="D15">
-        <v>1.007769647124256</v>
+        <v>1.012229720631771</v>
       </c>
       <c r="E15">
-        <v>0.9968696178680824</v>
+        <v>1.008820773211771</v>
       </c>
       <c r="F15">
-        <v>0.9880175412478633</v>
+        <v>1.01768070783684</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037206545227606</v>
+        <v>1.041479226313041</v>
       </c>
       <c r="J15">
-        <v>1.016235299310395</v>
+        <v>1.017601056269286</v>
       </c>
       <c r="K15">
-        <v>1.022475389974737</v>
+        <v>1.026853962385236</v>
       </c>
       <c r="L15">
-        <v>1.011778553632955</v>
+        <v>1.023507223794931</v>
       </c>
       <c r="M15">
-        <v>1.003095816516681</v>
+        <v>1.032206601088962</v>
       </c>
       <c r="N15">
-        <v>1.017678469999234</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.009696465729514</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.035368623145343</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.030133059052176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,81 +1175,105 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9896415427223868</v>
+        <v>0.9903198810075198</v>
       </c>
       <c r="D16">
-        <v>1.010138564814126</v>
+        <v>1.013765294335544</v>
       </c>
       <c r="E16">
-        <v>0.999691035170022</v>
+        <v>1.010840070430389</v>
       </c>
       <c r="F16">
-        <v>0.9917627808952141</v>
+        <v>1.019567593262402</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.038282061641641</v>
+        <v>1.041868602202913</v>
       </c>
       <c r="J16">
-        <v>1.018194129370654</v>
+        <v>1.018844863552218</v>
       </c>
       <c r="K16">
-        <v>1.024290998514737</v>
+        <v>1.027854420519079</v>
       </c>
       <c r="L16">
-        <v>1.014029176158341</v>
+        <v>1.02498021287267</v>
       </c>
       <c r="M16">
-        <v>1.006245250460916</v>
+        <v>1.033556645961158</v>
       </c>
       <c r="N16">
-        <v>1.019640081822859</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.010118110216462</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.036396851916834</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.030843616942196</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9916214834186207</v>
+        <v>0.9916868948441663</v>
       </c>
       <c r="D17">
-        <v>1.011605976559339</v>
+        <v>1.014605540003065</v>
       </c>
       <c r="E17">
-        <v>1.001439168477329</v>
+        <v>1.011889863944244</v>
       </c>
       <c r="F17">
-        <v>0.9940804968220193</v>
+        <v>1.020466698838877</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.038944958950225</v>
+        <v>1.042056569627137</v>
       </c>
       <c r="J17">
-        <v>1.019405487331041</v>
+        <v>1.019468324843712</v>
       </c>
       <c r="K17">
-        <v>1.025413525749862</v>
+        <v>1.0283622374687</v>
       </c>
       <c r="L17">
-        <v>1.015422010824425</v>
+        <v>1.025692583702982</v>
       </c>
       <c r="M17">
-        <v>1.008193118592174</v>
+        <v>1.03412514308544</v>
       </c>
       <c r="N17">
-        <v>1.020853160050494</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.010315738001499</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.036716743166358</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.031205273676195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9927668783027536</v>
+        <v>0.9922305935986684</v>
       </c>
       <c r="D18">
-        <v>1.012455384859324</v>
+        <v>1.014906877659452</v>
       </c>
       <c r="E18">
-        <v>1.002451234899871</v>
+        <v>1.012162572394829</v>
       </c>
       <c r="F18">
-        <v>0.9954213544143526</v>
+        <v>1.020535302313987</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039327477651647</v>
+        <v>1.042081997006478</v>
       </c>
       <c r="J18">
-        <v>1.020105957035943</v>
+        <v>1.019590367479976</v>
       </c>
       <c r="K18">
-        <v>1.026062530660398</v>
+        <v>1.028473166078145</v>
       </c>
       <c r="L18">
-        <v>1.016227790556354</v>
+        <v>1.025774615356489</v>
       </c>
       <c r="M18">
-        <v>1.009319592065725</v>
+        <v>1.03400874041133</v>
       </c>
       <c r="N18">
-        <v>1.021554624502723</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.010328939774237</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.03638612003589</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.031271989739654</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9931558476339905</v>
+        <v>0.9920447679079976</v>
       </c>
       <c r="D19">
-        <v>1.012743923435547</v>
+        <v>1.014743471306075</v>
       </c>
       <c r="E19">
-        <v>1.002795056038851</v>
+        <v>1.011739114279008</v>
       </c>
       <c r="F19">
-        <v>0.995876714119187</v>
+        <v>1.019850431853427</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039457213467291</v>
+        <v>1.041973277357078</v>
       </c>
       <c r="J19">
-        <v>1.020343780269527</v>
+        <v>1.01927531337859</v>
       </c>
       <c r="K19">
-        <v>1.026282863517699</v>
+        <v>1.028249269780515</v>
       </c>
       <c r="L19">
-        <v>1.016501431544973</v>
+        <v>1.025294772324507</v>
       </c>
       <c r="M19">
-        <v>1.009702074578784</v>
+        <v>1.033272342753567</v>
       </c>
       <c r="N19">
-        <v>1.021792785472577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.010185462941967</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.035476813381369</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.031120125414542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9914100403197036</v>
+        <v>0.9898067934781771</v>
       </c>
       <c r="D20">
-        <v>1.011449214215205</v>
+        <v>1.013256257592524</v>
       </c>
       <c r="E20">
-        <v>1.001252400213029</v>
+        <v>1.009383011056773</v>
       </c>
       <c r="F20">
-        <v>0.9938329761390908</v>
+        <v>1.017116298289508</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.038874266453215</v>
+        <v>1.041481333456548</v>
       </c>
       <c r="J20">
-        <v>1.019276154097892</v>
+        <v>1.017736380873518</v>
       </c>
       <c r="K20">
-        <v>1.025293686824913</v>
+        <v>1.027069949017685</v>
       </c>
       <c r="L20">
-        <v>1.015273263362919</v>
+        <v>1.023262853941635</v>
       </c>
       <c r="M20">
-        <v>1.007985139001843</v>
+        <v>1.030864710227348</v>
       </c>
       <c r="N20">
-        <v>1.02072364314932</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.009601633240525</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.033040858487347</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.030290240276878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.985620964212289</v>
+        <v>0.9850853349018274</v>
       </c>
       <c r="D21">
-        <v>1.007162257477788</v>
+        <v>1.010271940395882</v>
       </c>
       <c r="E21">
-        <v>0.9961463308204154</v>
+        <v>1.005358298146728</v>
       </c>
       <c r="F21">
-        <v>0.9870565069717143</v>
+        <v>1.013251319684694</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036929745392313</v>
+        <v>1.040688891132463</v>
       </c>
       <c r="J21">
-        <v>1.015732416186409</v>
+        <v>1.015220143781189</v>
       </c>
       <c r="K21">
-        <v>1.022009197402758</v>
+        <v>1.025061286334894</v>
       </c>
       <c r="L21">
-        <v>1.011201081803939</v>
+        <v>1.020238862070509</v>
       </c>
       <c r="M21">
-        <v>1.002287318257437</v>
+        <v>1.027985916758232</v>
       </c>
       <c r="N21">
-        <v>1.017174872723531</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.008726551794373</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.030721298906619</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.028873273430905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9818896547564199</v>
+        <v>0.982090698899969</v>
       </c>
       <c r="D22">
-        <v>1.0044043741854</v>
+        <v>1.008381286180215</v>
       </c>
       <c r="E22">
-        <v>0.9928627627412849</v>
+        <v>1.002836939799036</v>
       </c>
       <c r="F22">
-        <v>0.9826887810357053</v>
+        <v>1.010859094994231</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.035667780884084</v>
+        <v>1.04017850114778</v>
       </c>
       <c r="J22">
-        <v>1.013445835096131</v>
+        <v>1.013637583370939</v>
       </c>
       <c r="K22">
-        <v>1.019889081601526</v>
+        <v>1.02378851677143</v>
       </c>
       <c r="L22">
-        <v>1.008576948144373</v>
+        <v>1.018352405074231</v>
       </c>
       <c r="M22">
-        <v>0.9986111578247343</v>
+        <v>1.026218457451339</v>
       </c>
       <c r="N22">
-        <v>1.01488504442583</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.008177242024278</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.029322452639714</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.027959741681312</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.983876677236076</v>
+        <v>0.9836751915667761</v>
       </c>
       <c r="D23">
-        <v>1.005872501076804</v>
+        <v>1.009375162751911</v>
       </c>
       <c r="E23">
-        <v>0.9946106241714897</v>
+        <v>1.00416972737222</v>
       </c>
       <c r="F23">
-        <v>0.9850147402665054</v>
+        <v>1.012124660103203</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.036340609552759</v>
+        <v>1.040445601423957</v>
       </c>
       <c r="J23">
-        <v>1.014663721171339</v>
+        <v>1.014471268680917</v>
       </c>
       <c r="K23">
-        <v>1.021018376298609</v>
+        <v>1.02445459240047</v>
       </c>
       <c r="L23">
-        <v>1.009974300439914</v>
+        <v>1.019348123408313</v>
       </c>
       <c r="M23">
-        <v>1.00056917151955</v>
+        <v>1.027152352406734</v>
       </c>
       <c r="N23">
-        <v>1.016104660038958</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.008465514674915</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.030061579186037</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.028420978454655</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9915056115583083</v>
+        <v>0.9898035524357846</v>
       </c>
       <c r="D24">
-        <v>1.011520068442543</v>
+        <v>1.013238751921036</v>
       </c>
       <c r="E24">
-        <v>1.001336816158098</v>
+        <v>1.009342015230341</v>
       </c>
       <c r="F24">
-        <v>0.9939448540763143</v>
+        <v>1.017039714721301</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.038906222115682</v>
+        <v>1.041464405664901</v>
       </c>
       <c r="J24">
-        <v>1.019334613016407</v>
+        <v>1.017699835796201</v>
       </c>
       <c r="K24">
-        <v>1.025347854600169</v>
+        <v>1.027037301623364</v>
       </c>
       <c r="L24">
-        <v>1.015340496407038</v>
+        <v>1.023207037022491</v>
       </c>
       <c r="M24">
-        <v>1.008079145888167</v>
+        <v>1.030774058890762</v>
       </c>
       <c r="N24">
-        <v>1.020782185086205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.009583377703503</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.032927953451849</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.030239544817961</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9999896320701784</v>
+        <v>0.9966738093939911</v>
       </c>
       <c r="D25">
-        <v>1.017820097500852</v>
+        <v>1.01758735474097</v>
       </c>
       <c r="E25">
-        <v>1.008846475001228</v>
+        <v>1.015172671031118</v>
       </c>
       <c r="F25">
-        <v>1.003878424732767</v>
+        <v>1.022592068158855</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041722024045161</v>
+        <v>1.042562596043977</v>
       </c>
       <c r="J25">
-        <v>1.024517345142465</v>
+        <v>1.021313633979635</v>
       </c>
       <c r="K25">
-        <v>1.030147937235323</v>
+        <v>1.029918649458958</v>
       </c>
       <c r="L25">
-        <v>1.021308995689613</v>
+        <v>1.027539929779624</v>
       </c>
       <c r="M25">
-        <v>1.016416830033804</v>
+        <v>1.034849509802954</v>
       </c>
       <c r="N25">
-        <v>1.025972277286349</v>
+        <v>1.010833641417622</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03615342656442</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.032273950798221</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_21/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001949529567491</v>
+        <v>1.002115079095781</v>
       </c>
       <c r="D2">
-        <v>1.020920403633633</v>
+        <v>1.02074604626497</v>
       </c>
       <c r="E2">
-        <v>1.019672940823196</v>
+        <v>1.019822819336162</v>
       </c>
       <c r="F2">
-        <v>1.02689046722689</v>
+        <v>1.027007583321608</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043357656844616</v>
+        <v>1.043296000496569</v>
       </c>
       <c r="J2">
-        <v>1.024072086486121</v>
+        <v>1.024232712025266</v>
       </c>
       <c r="K2">
-        <v>1.032095779208867</v>
+        <v>1.03192372809315</v>
       </c>
       <c r="L2">
-        <v>1.030864838580343</v>
+        <v>1.031012729327156</v>
       </c>
       <c r="M2">
-        <v>1.037987467632536</v>
+        <v>1.038103057636891</v>
       </c>
       <c r="N2">
-        <v>1.011784267745411</v>
+        <v>1.013514037287363</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.03863692055424</v>
+        <v>1.038728402524021</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.033764705232262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.033651878495931</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.020588117555595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005697476194393</v>
+        <v>1.005726952726783</v>
       </c>
       <c r="D3">
-        <v>1.023304017175269</v>
+        <v>1.022958220766877</v>
       </c>
       <c r="E3">
-        <v>1.022884038216061</v>
+        <v>1.022910749006513</v>
       </c>
       <c r="F3">
-        <v>1.029960522804244</v>
+        <v>1.029981382381814</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043907032125275</v>
+        <v>1.043772925247889</v>
       </c>
       <c r="J3">
-        <v>1.026034018161641</v>
+        <v>1.026062703492884</v>
       </c>
       <c r="K3">
-        <v>1.033647155001532</v>
+        <v>1.033305538089606</v>
       </c>
       <c r="L3">
-        <v>1.033232252609376</v>
+        <v>1.033258640374467</v>
       </c>
       <c r="M3">
-        <v>1.040223884272828</v>
+        <v>1.040244495863073</v>
       </c>
       <c r="N3">
-        <v>1.012461474780373</v>
+        <v>1.014016094246906</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.040406896784867</v>
+        <v>1.040423209478502</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034858994768477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.034625991161786</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020858836241024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008080342297792</v>
+        <v>1.008024391870723</v>
       </c>
       <c r="D4">
-        <v>1.024822139600823</v>
+        <v>1.024368073608368</v>
       </c>
       <c r="E4">
-        <v>1.02493156317935</v>
+        <v>1.024880834219419</v>
       </c>
       <c r="F4">
-        <v>1.031920418787496</v>
+        <v>1.03188081726662</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044246073833527</v>
+        <v>1.044066159764232</v>
       </c>
       <c r="J4">
-        <v>1.027279586500916</v>
+        <v>1.027225036618239</v>
       </c>
       <c r="K4">
-        <v>1.034629936530509</v>
+        <v>1.034181030921441</v>
       </c>
       <c r="L4">
-        <v>1.034738117371545</v>
+        <v>1.034687964506177</v>
       </c>
       <c r="M4">
-        <v>1.041648271737824</v>
+        <v>1.041609112471655</v>
       </c>
       <c r="N4">
-        <v>1.012891160245996</v>
+        <v>1.014334846514702</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.041534203226009</v>
+        <v>1.041503211336108</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.035554815413251</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.035246029845737</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.02102788583542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009075081096627</v>
+        <v>1.008983704418046</v>
       </c>
       <c r="D5">
-        <v>1.025458597034647</v>
+        <v>1.024959540999012</v>
       </c>
       <c r="E5">
-        <v>1.025787849409837</v>
+        <v>1.025704981550316</v>
       </c>
       <c r="F5">
-        <v>1.032740156720772</v>
+        <v>1.032675476042187</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044386497881368</v>
+        <v>1.044187529328669</v>
       </c>
       <c r="J5">
-        <v>1.027800373251904</v>
+        <v>1.027711215791987</v>
       </c>
       <c r="K5">
-        <v>1.035042021935553</v>
+        <v>1.034548488005905</v>
       </c>
       <c r="L5">
-        <v>1.035367634715898</v>
+        <v>1.035285682617044</v>
       </c>
       <c r="M5">
-        <v>1.042243755382727</v>
+        <v>1.042179777704177</v>
       </c>
       <c r="N5">
-        <v>1.013071047858485</v>
+        <v>1.01446837213754</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.042005487776597</v>
+        <v>1.041954853837302</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.03585340862416</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.035513776948309</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.021098660769381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.009244957757995</v>
+        <v>1.009147529236874</v>
       </c>
       <c r="D6">
-        <v>1.0255698892725</v>
+        <v>1.025063204698562</v>
       </c>
       <c r="E6">
-        <v>1.025934321443736</v>
+        <v>1.025845961959097</v>
       </c>
       <c r="F6">
-        <v>1.032879859865543</v>
+        <v>1.032810894611265</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044412020531923</v>
+        <v>1.044209810312442</v>
       </c>
       <c r="J6">
-        <v>1.027890832790829</v>
+        <v>1.02779575833973</v>
       </c>
       <c r="K6">
-        <v>1.035115630820973</v>
+        <v>1.034614527313029</v>
       </c>
       <c r="L6">
-        <v>1.035476053005981</v>
+        <v>1.035388665452991</v>
       </c>
       <c r="M6">
-        <v>1.04234583045829</v>
+        <v>1.042277611324383</v>
       </c>
       <c r="N6">
-        <v>1.013102649487453</v>
+        <v>1.014491872209477</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.042086273182198</v>
+        <v>1.042032282428137</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03591425004288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.035570134207664</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.021111861858733</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008102883486124</v>
+        <v>1.008054001098434</v>
       </c>
       <c r="D7">
-        <v>1.024843426670171</v>
+        <v>1.024394009018757</v>
       </c>
       <c r="E7">
-        <v>1.024951383936561</v>
+        <v>1.02490706325607</v>
       </c>
       <c r="F7">
-        <v>1.031937915924373</v>
+        <v>1.03190331709706</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044253798874481</v>
+        <v>1.044075958315517</v>
       </c>
       <c r="J7">
-        <v>1.027295547794946</v>
+        <v>1.027247888492992</v>
       </c>
       <c r="K7">
-        <v>1.034648077803337</v>
+        <v>1.034203765712026</v>
       </c>
       <c r="L7">
-        <v>1.034754809455324</v>
+        <v>1.034710991898964</v>
       </c>
       <c r="M7">
-        <v>1.041662696127817</v>
+        <v>1.04162848353984</v>
       </c>
       <c r="N7">
-        <v>1.012897654665992</v>
+        <v>1.014367853274091</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.041545619147122</v>
+        <v>1.041518542216324</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03558786856858</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.035284328599608</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.021034234114067</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003236637097767</v>
+        <v>1.003379648910436</v>
       </c>
       <c r="D8">
-        <v>1.021746862095523</v>
+        <v>1.02153090134477</v>
       </c>
       <c r="E8">
-        <v>1.020774978976575</v>
+        <v>1.020904494505863</v>
       </c>
       <c r="F8">
-        <v>1.027941791204082</v>
+        <v>1.028042974938915</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043554006982072</v>
+        <v>1.0434751825988</v>
       </c>
       <c r="J8">
-        <v>1.024751366189446</v>
+        <v>1.024890266912162</v>
       </c>
       <c r="K8">
-        <v>1.032640100288966</v>
+        <v>1.032426911934751</v>
       </c>
       <c r="L8">
-        <v>1.031680705275177</v>
+        <v>1.031808554891834</v>
       </c>
       <c r="M8">
-        <v>1.038756121079437</v>
+        <v>1.038856025831381</v>
       </c>
       <c r="N8">
-        <v>1.012020080302961</v>
+        <v>1.013774449387225</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.039245259540213</v>
+        <v>1.039324327586555</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.034172639750969</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.034032989716507</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.020690671738504</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9943088466504658</v>
+        <v>0.9947867291488152</v>
       </c>
       <c r="D9">
-        <v>1.016078227516606</v>
+        <v>1.016277850972561</v>
       </c>
       <c r="E9">
-        <v>1.013160867041178</v>
+        <v>1.013592637246879</v>
       </c>
       <c r="F9">
-        <v>1.020677041203216</v>
+        <v>1.021014845201225</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.042183623326534</v>
+        <v>1.042280214004952</v>
       </c>
       <c r="J9">
-        <v>1.020064187366428</v>
+        <v>1.020524934178552</v>
       </c>
       <c r="K9">
-        <v>1.028915723538511</v>
+        <v>1.029112238725949</v>
       </c>
       <c r="L9">
-        <v>1.026043967057854</v>
+        <v>1.026468966688274</v>
       </c>
       <c r="M9">
-        <v>1.033443324654095</v>
+        <v>1.033775930043704</v>
       </c>
       <c r="N9">
-        <v>1.010399782382397</v>
+        <v>1.012584939007804</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03504051766239</v>
+        <v>1.035303754492516</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.031536028022197</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03168579578372</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.02002617377487</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9881971808234804</v>
+        <v>0.9889449321547366</v>
       </c>
       <c r="D10">
-        <v>1.012226048944773</v>
+        <v>1.012737899160564</v>
       </c>
       <c r="E10">
-        <v>1.008030913233317</v>
+        <v>1.008705242594185</v>
       </c>
       <c r="F10">
-        <v>1.015844276317277</v>
+        <v>1.016372316995034</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.041209652024544</v>
+        <v>1.04143813175737</v>
       </c>
       <c r="J10">
-        <v>1.016887035934187</v>
+        <v>1.017604136672838</v>
       </c>
       <c r="K10">
-        <v>1.026378012113187</v>
+        <v>1.026880913505958</v>
       </c>
       <c r="L10">
-        <v>1.022256665344787</v>
+        <v>1.022919080130226</v>
       </c>
       <c r="M10">
-        <v>1.029933231300352</v>
+        <v>1.03045212515696</v>
       </c>
       <c r="N10">
-        <v>1.009305942692642</v>
+        <v>1.011904082675877</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.032314313401081</v>
+        <v>1.03272496173594</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.029758617123952</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.030126703387168</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.019573896405062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9861977033928302</v>
+        <v>0.9870726406935411</v>
       </c>
       <c r="D11">
-        <v>1.011041816635813</v>
+        <v>1.011676934048881</v>
       </c>
       <c r="E11">
-        <v>1.006745836888535</v>
+        <v>1.00753361036448</v>
       </c>
       <c r="F11">
-        <v>1.015033950038669</v>
+        <v>1.015650432365617</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.040994389473809</v>
+        <v>1.041273733569032</v>
       </c>
       <c r="J11">
-        <v>1.016156164262451</v>
+        <v>1.016993280270403</v>
       </c>
       <c r="K11">
-        <v>1.025758461976454</v>
+        <v>1.026381949787664</v>
       </c>
       <c r="L11">
-        <v>1.021541648107523</v>
+        <v>1.022314838677059</v>
       </c>
       <c r="M11">
-        <v>1.029677810106163</v>
+        <v>1.030283118948669</v>
       </c>
       <c r="N11">
-        <v>1.009099991164232</v>
+        <v>1.012000738438354</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.032551387820688</v>
+        <v>1.033030180060976</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.029353657221683</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.029810214293462</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.019513098416821</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9857186516124568</v>
+        <v>0.9866252606029169</v>
       </c>
       <c r="D12">
-        <v>1.010792538146591</v>
+        <v>1.011454040860544</v>
       </c>
       <c r="E12">
-        <v>1.006631411627295</v>
+        <v>1.007446998425955</v>
       </c>
       <c r="F12">
-        <v>1.015216271414185</v>
+        <v>1.015854150406772</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.040997376001127</v>
+        <v>1.04128641697579</v>
       </c>
       <c r="J12">
-        <v>1.016139967683513</v>
+        <v>1.01700665134153</v>
       </c>
       <c r="K12">
-        <v>1.02571585051477</v>
+        <v>1.026365041028126</v>
       </c>
       <c r="L12">
-        <v>1.021632657571212</v>
+        <v>1.022432903026896</v>
       </c>
       <c r="M12">
-        <v>1.030057644757751</v>
+        <v>1.030683785270822</v>
       </c>
       <c r="N12">
-        <v>1.009131487086467</v>
+        <v>1.012133699960102</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.033180128859869</v>
+        <v>1.033675229147195</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.029323529112403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.029798259351544</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.019539095002381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9863873548419246</v>
+        <v>0.9872423083702512</v>
       </c>
       <c r="D13">
-        <v>1.011258839382561</v>
+        <v>1.01186513507787</v>
       </c>
       <c r="E13">
-        <v>1.007420985333172</v>
+        <v>1.008189831917623</v>
       </c>
       <c r="F13">
-        <v>1.016194314299151</v>
+        <v>1.016795281160112</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.041179027802245</v>
+        <v>1.041442932271269</v>
       </c>
       <c r="J13">
-        <v>1.016684438175085</v>
+        <v>1.017501949253428</v>
       </c>
       <c r="K13">
-        <v>1.026130149934867</v>
+        <v>1.026725211490635</v>
       </c>
       <c r="L13">
-        <v>1.022363817592713</v>
+        <v>1.023118279130985</v>
       </c>
       <c r="M13">
-        <v>1.030974682041122</v>
+        <v>1.031564653774188</v>
       </c>
       <c r="N13">
-        <v>1.009353070164162</v>
+        <v>1.012270825209119</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.034183205139108</v>
+        <v>1.03464958791576</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.029613945379068</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.030050156453069</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.019636995540641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9873730742140826</v>
+        <v>0.988155197041967</v>
       </c>
       <c r="D14">
-        <v>1.011909317370337</v>
+        <v>1.012440996781032</v>
       </c>
       <c r="E14">
-        <v>1.008378899844431</v>
+        <v>1.009082243836786</v>
       </c>
       <c r="F14">
-        <v>1.017234897343196</v>
+        <v>1.017784437280737</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.041386851157729</v>
+        <v>1.041617915430112</v>
       </c>
       <c r="J14">
-        <v>1.017317168773789</v>
+        <v>1.018065544314302</v>
       </c>
       <c r="K14">
-        <v>1.026626761743891</v>
+        <v>1.027148713312521</v>
       </c>
       <c r="L14">
-        <v>1.023161277489113</v>
+        <v>1.023851637980655</v>
       </c>
       <c r="M14">
-        <v>1.031855499554755</v>
+        <v>1.032395121454737</v>
       </c>
       <c r="N14">
-        <v>1.009593564143326</v>
+        <v>1.012369567875894</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.035053454120985</v>
+        <v>1.035479976627833</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.029966506024564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.030351156938689</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.019738359104301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9878689588190935</v>
+        <v>0.9886159925173257</v>
       </c>
       <c r="D15">
-        <v>1.012229720631771</v>
+        <v>1.012725981016475</v>
       </c>
       <c r="E15">
-        <v>1.008820773211771</v>
+        <v>1.009492625904036</v>
       </c>
       <c r="F15">
-        <v>1.01768070783684</v>
+        <v>1.018205577019437</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.041479226313041</v>
+        <v>1.041694978606541</v>
       </c>
       <c r="J15">
-        <v>1.017601056269286</v>
+        <v>1.018316142508543</v>
       </c>
       <c r="K15">
-        <v>1.026853962385236</v>
+        <v>1.027341212093722</v>
       </c>
       <c r="L15">
-        <v>1.023507223794931</v>
+        <v>1.024166772770971</v>
       </c>
       <c r="M15">
-        <v>1.032206601088962</v>
+        <v>1.032722072590807</v>
       </c>
       <c r="N15">
-        <v>1.009696465729514</v>
+        <v>1.012399850811231</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.035368623145343</v>
+        <v>1.035776046198024</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.030133059052176</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.030493741480082</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.019780910948731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9903198810075198</v>
+        <v>0.9909096767272719</v>
       </c>
       <c r="D16">
-        <v>1.013765294335544</v>
+        <v>1.014102380040959</v>
       </c>
       <c r="E16">
-        <v>1.010840070430389</v>
+        <v>1.011370975196245</v>
       </c>
       <c r="F16">
-        <v>1.019567593262402</v>
+        <v>1.019982221198413</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.041868602202913</v>
+        <v>1.042017007003627</v>
       </c>
       <c r="J16">
-        <v>1.018844863552218</v>
+        <v>1.019410701875901</v>
       </c>
       <c r="K16">
-        <v>1.027854420519079</v>
+        <v>1.028185651885331</v>
       </c>
       <c r="L16">
-        <v>1.02498021287267</v>
+        <v>1.025501830203143</v>
       </c>
       <c r="M16">
-        <v>1.033556645961158</v>
+        <v>1.033964179036702</v>
       </c>
       <c r="N16">
-        <v>1.010118110216462</v>
+        <v>1.0124865635707</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.036396851916834</v>
+        <v>1.036718970919941</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.030843616942196</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.03109428402541</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.019947525006342</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9916868948441663</v>
+        <v>0.992203012514947</v>
       </c>
       <c r="D17">
-        <v>1.014605540003065</v>
+        <v>1.014865783215669</v>
       </c>
       <c r="E17">
-        <v>1.011889863944244</v>
+        <v>1.012354760341854</v>
       </c>
       <c r="F17">
-        <v>1.020466698838877</v>
+        <v>1.020829769470851</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.042056569627137</v>
+        <v>1.042173102805315</v>
       </c>
       <c r="J17">
-        <v>1.019468324843712</v>
+        <v>1.019964150331193</v>
       </c>
       <c r="K17">
-        <v>1.0283622374687</v>
+        <v>1.028618087048949</v>
       </c>
       <c r="L17">
-        <v>1.025692583702982</v>
+        <v>1.026149578933863</v>
       </c>
       <c r="M17">
-        <v>1.03412514308544</v>
+        <v>1.034482175193326</v>
       </c>
       <c r="N17">
-        <v>1.010315738001499</v>
+        <v>1.012530847971898</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.036716743166358</v>
+        <v>1.036998973882229</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.031205273676195</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.031402888816515</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.020023389532268</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9922305935986684</v>
+        <v>0.9927271693412111</v>
       </c>
       <c r="D18">
-        <v>1.014906877659452</v>
+        <v>1.015146549854257</v>
       </c>
       <c r="E18">
-        <v>1.012162572394829</v>
+        <v>1.012610143586016</v>
       </c>
       <c r="F18">
-        <v>1.020535302313987</v>
+        <v>1.020884949822126</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.042081997006478</v>
+        <v>1.042190977282566</v>
       </c>
       <c r="J18">
-        <v>1.019590367479976</v>
+        <v>1.020067779355176</v>
       </c>
       <c r="K18">
-        <v>1.028473166078145</v>
+        <v>1.02870885745287</v>
       </c>
       <c r="L18">
-        <v>1.025774615356489</v>
+        <v>1.026214702589129</v>
       </c>
       <c r="M18">
-        <v>1.03400874041133</v>
+        <v>1.034352663316071</v>
       </c>
       <c r="N18">
-        <v>1.010328939774237</v>
+        <v>1.012496787538352</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.03638612003589</v>
+        <v>1.036658045100274</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.031271989739654</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.031454218979668</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.020020401804896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9920447679079976</v>
+        <v>0.9925630490355375</v>
       </c>
       <c r="D19">
-        <v>1.014743471306075</v>
+        <v>1.015007693259839</v>
       </c>
       <c r="E19">
-        <v>1.011739114279008</v>
+        <v>1.012206524070929</v>
       </c>
       <c r="F19">
-        <v>1.019850431853427</v>
+        <v>1.02021581093965</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.041973277357078</v>
+        <v>1.042094060862166</v>
       </c>
       <c r="J19">
-        <v>1.01927531337859</v>
+        <v>1.019773700306493</v>
       </c>
       <c r="K19">
-        <v>1.028249269780515</v>
+        <v>1.028509124943577</v>
       </c>
       <c r="L19">
-        <v>1.025294772324507</v>
+        <v>1.025754400058565</v>
       </c>
       <c r="M19">
-        <v>1.033272342753567</v>
+        <v>1.033631761443926</v>
       </c>
       <c r="N19">
-        <v>1.010185462941967</v>
+        <v>1.012378953106001</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.035476813381369</v>
+        <v>1.035761083994303</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.031120125414542</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.031320064941406</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.01995250006885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9898067934781771</v>
+        <v>0.9904600594027296</v>
       </c>
       <c r="D20">
-        <v>1.013256257592524</v>
+        <v>1.013669379938128</v>
       </c>
       <c r="E20">
-        <v>1.009383011056773</v>
+        <v>1.009972424872276</v>
       </c>
       <c r="F20">
-        <v>1.017116298289508</v>
+        <v>1.017577735996703</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.041481333456548</v>
+        <v>1.041667534706748</v>
       </c>
       <c r="J20">
-        <v>1.017736380873518</v>
+        <v>1.018363748445181</v>
       </c>
       <c r="K20">
-        <v>1.027069949017685</v>
+        <v>1.027476054132372</v>
       </c>
       <c r="L20">
-        <v>1.023262853941635</v>
+        <v>1.023842158817314</v>
       </c>
       <c r="M20">
-        <v>1.030864710227348</v>
+        <v>1.03131838701549</v>
       </c>
       <c r="N20">
-        <v>1.009601633240525</v>
+        <v>1.012015261454884</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.033040858487347</v>
+        <v>1.033399898882778</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.030290240276878</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.030593979412204</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.019697384902728</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9850853349018274</v>
+        <v>0.9860641224032342</v>
       </c>
       <c r="D21">
-        <v>1.010271940395882</v>
+        <v>1.011012085397088</v>
       </c>
       <c r="E21">
-        <v>1.005358298146728</v>
+        <v>1.006240241354549</v>
       </c>
       <c r="F21">
-        <v>1.013251319684694</v>
+        <v>1.013942373675094</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.040688891132463</v>
+        <v>1.041015824846069</v>
       </c>
       <c r="J21">
-        <v>1.015220143781189</v>
+        <v>1.016156277210885</v>
       </c>
       <c r="K21">
-        <v>1.025061286334894</v>
+        <v>1.025787791232293</v>
       </c>
       <c r="L21">
-        <v>1.020238862070509</v>
+        <v>1.021104347084307</v>
       </c>
       <c r="M21">
-        <v>1.027985916758232</v>
+        <v>1.028664331833922</v>
       </c>
       <c r="N21">
-        <v>1.008726551794373</v>
+        <v>1.011825969172975</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.030721298906619</v>
+        <v>1.031258226161525</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.028873273430905</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.029403883224767</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.019351090573125</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.982090698899969</v>
+        <v>0.9832768221624902</v>
       </c>
       <c r="D22">
-        <v>1.008381286180215</v>
+        <v>1.009329910669261</v>
       </c>
       <c r="E22">
-        <v>1.002836939799036</v>
+        <v>1.003904702158681</v>
       </c>
       <c r="F22">
-        <v>1.010859094994231</v>
+        <v>1.011696164245976</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.04017850114778</v>
+        <v>1.040595262569389</v>
       </c>
       <c r="J22">
-        <v>1.013637583370939</v>
+        <v>1.014768973823085</v>
       </c>
       <c r="K22">
-        <v>1.02378851677143</v>
+        <v>1.024718778653958</v>
       </c>
       <c r="L22">
-        <v>1.018352405074231</v>
+        <v>1.019399200982174</v>
       </c>
       <c r="M22">
-        <v>1.026218457451339</v>
+        <v>1.027039424960265</v>
       </c>
       <c r="N22">
-        <v>1.008177242024278</v>
+        <v>1.011703832080379</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.029322452639714</v>
+        <v>1.029972203358613</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.027959741681312</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.028633124539599</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.019130529330218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9836751915667761</v>
+        <v>0.9847379987561375</v>
       </c>
       <c r="D23">
-        <v>1.009375162751911</v>
+        <v>1.010203287363764</v>
       </c>
       <c r="E23">
-        <v>1.00416972737222</v>
+        <v>1.005126959587786</v>
       </c>
       <c r="F23">
-        <v>1.012124660103203</v>
+        <v>1.012874881407989</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.040445601423957</v>
+        <v>1.040810270678268</v>
       </c>
       <c r="J23">
-        <v>1.014471268680917</v>
+        <v>1.015486486863925</v>
       </c>
       <c r="K23">
-        <v>1.02445459240047</v>
+        <v>1.02526709545456</v>
       </c>
       <c r="L23">
-        <v>1.019348123408313</v>
+        <v>1.020287055962011</v>
       </c>
       <c r="M23">
-        <v>1.027152352406734</v>
+        <v>1.027888520457097</v>
       </c>
       <c r="N23">
-        <v>1.008465514674915</v>
+        <v>1.011722864756313</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.030061579186037</v>
+        <v>1.030644215195549</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.028420978454655</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.029010157104862</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.019241728068247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9898035524357846</v>
+        <v>0.9904581898402681</v>
       </c>
       <c r="D24">
-        <v>1.013238751921036</v>
+        <v>1.013653399424264</v>
       </c>
       <c r="E24">
-        <v>1.009342015230341</v>
+        <v>1.009932721189594</v>
       </c>
       <c r="F24">
-        <v>1.017039714721301</v>
+        <v>1.017502206532233</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.041464405664901</v>
+        <v>1.041651500488272</v>
       </c>
       <c r="J24">
-        <v>1.017699835796201</v>
+        <v>1.018328556838895</v>
       </c>
       <c r="K24">
-        <v>1.027037301623364</v>
+        <v>1.027444914735496</v>
       </c>
       <c r="L24">
-        <v>1.023207037022491</v>
+        <v>1.023787623861887</v>
       </c>
       <c r="M24">
-        <v>1.030774058890762</v>
+        <v>1.031228780535068</v>
       </c>
       <c r="N24">
-        <v>1.009583377703503</v>
+        <v>1.011997394154296</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.032927953451849</v>
+        <v>1.033287838886205</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.030239544817961</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.030541681742511</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.019685615167409</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9966738093939911</v>
+        <v>0.9970518655862424</v>
       </c>
       <c r="D25">
-        <v>1.01758735474097</v>
+        <v>1.017669276341725</v>
       </c>
       <c r="E25">
-        <v>1.015172671031118</v>
+        <v>1.015514467745396</v>
       </c>
       <c r="F25">
-        <v>1.022592068158855</v>
+        <v>1.02285937773314</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.042562596043977</v>
+        <v>1.042609299724996</v>
       </c>
       <c r="J25">
-        <v>1.021313633979635</v>
+        <v>1.0216788551889</v>
       </c>
       <c r="K25">
-        <v>1.029918649458958</v>
+        <v>1.029999354733576</v>
       </c>
       <c r="L25">
-        <v>1.027539929779624</v>
+        <v>1.027876622594616</v>
       </c>
       <c r="M25">
-        <v>1.034849509802954</v>
+        <v>1.03511290057637</v>
       </c>
       <c r="N25">
-        <v>1.010833641417622</v>
+        <v>1.01287025527613</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03615342656442</v>
+        <v>1.036361883938187</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.032273950798221</v>
+        <v>1.032344631438636</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.020207649555942</v>
       </c>
     </row>
   </sheetData>
